--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Major Five Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Music</t>
+    <t xml:space="preserve">music</t>
   </si>
   <si>
     <t xml:space="preserve">AE</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
-    <t xml:space="preserve">Football</t>
+    <t xml:space="preserve">FIFA</t>
   </si>
   <si>
     <t xml:space="preserve">AFG</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">AirTraffic</t>
+    <t xml:space="preserve">airTraffic</t>
   </si>
   <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
-    <t xml:space="preserve">MoonSun</t>
+    <t xml:space="preserve">moonSun</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">Weather</t>
+    <t xml:space="preserve">weather</t>
   </si>
   <si>
     <t xml:space="preserve">CHA</t>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="563">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -317,19 +317,13 @@
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">airTraffic</t>
+    <t xml:space="preserve">moonSun</t>
   </si>
   <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
-    <t xml:space="preserve">moonSun</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weather</t>
   </si>
   <si>
     <t xml:space="preserve">CHA</t>
@@ -3042,246 +3036,268 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C55"/>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57"/>
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
         <v>110</v>
       </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
-      </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
+        <v>114</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" t="s">
-        <v>113</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64"/>
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" t="s">
-        <v>116</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
+        <v>119</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
@@ -3289,19 +3305,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
         <v>125</v>
       </c>
-      <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" t="s">
-        <v>124</v>
-      </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -3309,165 +3325,167 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72"/>
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" t="s">
-        <v>128</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>131</v>
       </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>130</v>
-      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
+        <v>135</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
+        <v>139</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -3475,19 +3493,19 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
@@ -3495,76 +3513,68 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" t="s">
-        <v>142</v>
-      </c>
-      <c r="F82" t="s">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
         <v>146</v>
       </c>
-      <c r="D84" t="s">
-        <v>21</v>
-      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s">
         <v>146</v>
@@ -3575,10 +3585,10 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3589,19 +3599,19 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
@@ -3609,96 +3619,92 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" t="s">
         <v>149</v>
       </c>
-      <c r="C87" t="s">
-        <v>148</v>
-      </c>
       <c r="D87"/>
-      <c r="E87" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" t="s">
-        <v>148</v>
-      </c>
+      <c r="E87"/>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
+        <v>154</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
-      </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" t="s">
-        <v>153</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
+        <v>157</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>155</v>
-      </c>
-      <c r="F91" t="s">
-        <v>156</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -3709,19 +3715,19 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
@@ -3729,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -3743,10 +3749,10 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3757,30 +3763,30 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -3791,10 +3797,10 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -3805,124 +3811,128 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F99" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" t="s">
-        <v>174</v>
-      </c>
-      <c r="F103" t="s">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
         <v>179</v>
       </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F105" t="s">
         <v>179</v>
@@ -3930,92 +3940,94 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
         <v>181</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
+      <c r="F106" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="s">
         <v>181</v>
       </c>
-      <c r="D107" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
-      </c>
       <c r="F107" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
         <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108"/>
+        <v>183</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
       <c r="E108" t="s">
         <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" t="s">
-        <v>170</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110"/>
+        <v>187</v>
+      </c>
+      <c r="D110" t="s">
+        <v>41</v>
+      </c>
       <c r="E110" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111">
@@ -4023,16 +4035,16 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F111" t="s">
         <v>185</v>
@@ -4040,109 +4052,115 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
+      <c r="E112" t="s">
+        <v>188</v>
+      </c>
+      <c r="F112" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" t="s">
         <v>189</v>
       </c>
-      <c r="D113" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" t="s">
-        <v>188</v>
-      </c>
-      <c r="F113" t="s">
-        <v>189</v>
-      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" t="s">
         <v>190</v>
       </c>
-      <c r="C114" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" t="s">
-        <v>190</v>
-      </c>
-      <c r="F114" t="s">
-        <v>187</v>
-      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
         <v>190</v>
       </c>
-      <c r="C115" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115"/>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
       <c r="E115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F115" t="s">
         <v>190</v>
-      </c>
-      <c r="F115" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
         <v>191</v>
       </c>
-      <c r="C116"/>
+      <c r="C116" t="s">
+        <v>190</v>
+      </c>
       <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
+      <c r="E116" t="s">
+        <v>191</v>
+      </c>
+      <c r="F116" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>192</v>
+      </c>
+      <c r="F117" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
@@ -4150,12 +4168,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
-      </c>
-      <c r="C119"/>
+        <v>196</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
@@ -4165,68 +4185,64 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F120" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
-      </c>
-      <c r="D121"/>
+        <v>201</v>
+      </c>
+      <c r="D121" t="s">
+        <v>24</v>
+      </c>
       <c r="E121" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F121" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" t="s">
-        <v>194</v>
-      </c>
-      <c r="F122" t="s">
-        <v>195</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
@@ -4234,36 +4250,42 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
+        <v>206</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>205</v>
+      </c>
+      <c r="F124" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F125" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
@@ -4271,44 +4293,50 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F126" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C127" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
+        <v>211</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>210</v>
+      </c>
+      <c r="F127" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
@@ -4319,161 +4347,161 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F129" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
-      </c>
-      <c r="D130" t="s">
-        <v>21</v>
-      </c>
-      <c r="E130" t="s">
-        <v>209</v>
-      </c>
-      <c r="F130" t="s">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>211</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" t="s">
-        <v>210</v>
-      </c>
-      <c r="F131" t="s">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F132" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
+        <v>221</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>220</v>
+      </c>
+      <c r="F133" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C134" t="s">
-        <v>217</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" t="s">
-        <v>216</v>
-      </c>
-      <c r="F134" t="s">
-        <v>217</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
-      </c>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
+        <v>223</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" t="s">
+        <v>224</v>
+      </c>
+      <c r="F135" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
-      </c>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
+        <v>226</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" t="s">
+        <v>225</v>
+      </c>
+      <c r="F136" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F137" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138">
@@ -4481,167 +4509,159 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F138" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
+        <v>232</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>231</v>
+      </c>
+      <c r="F139" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
-      </c>
-      <c r="D140" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" t="s">
-        <v>226</v>
-      </c>
-      <c r="F140" t="s">
-        <v>225</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F141" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" t="s">
-        <v>229</v>
-      </c>
-      <c r="F142" t="s">
-        <v>230</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
       </c>
       <c r="E143" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
-      </c>
-      <c r="D144" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" t="s">
-        <v>233</v>
-      </c>
-      <c r="F144" t="s">
-        <v>234</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
+        <v>240</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" t="s">
+        <v>241</v>
+      </c>
+      <c r="F145" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D146"/>
       <c r="E146" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F146" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147">
@@ -4649,10 +4669,10 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -4663,82 +4683,76 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C149" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
+      <c r="E149" t="s">
+        <v>244</v>
+      </c>
+      <c r="F149" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
-      </c>
-      <c r="D150" t="s">
-        <v>21</v>
-      </c>
-      <c r="E150" t="s">
-        <v>243</v>
-      </c>
-      <c r="F150" t="s">
-        <v>242</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D151"/>
-      <c r="E151" t="s">
-        <v>243</v>
-      </c>
-      <c r="F151" t="s">
-        <v>242</v>
-      </c>
+      <c r="E151"/>
+      <c r="F151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
@@ -4749,19 +4763,19 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F153" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154">
@@ -4769,117 +4783,129 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D154"/>
       <c r="E154" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F154" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>248</v>
-      </c>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
+        <v>253</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C156" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
-      </c>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
+        <v>255</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D159"/>
-      <c r="E159" t="s">
-        <v>253</v>
-      </c>
-      <c r="F159" t="s">
-        <v>252</v>
-      </c>
+      <c r="E159"/>
+      <c r="F159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C160" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D160" t="s">
         <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F160" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161">
@@ -4887,17 +4913,17 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D161"/>
       <c r="E161" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F161" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162">
@@ -4905,39 +4931,37 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F162" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C163" t="s">
-        <v>259</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D163"/>
       <c r="E163" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F163" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164">
@@ -4945,10 +4969,10 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D164"/>
       <c r="E164"/>
@@ -4959,19 +4983,19 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C165" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D165" t="s">
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F165" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166">
@@ -4979,17 +5003,17 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D166"/>
       <c r="E166" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167">
@@ -4997,109 +5021,103 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C167" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F167" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
-      </c>
-      <c r="D168"/>
+        <v>268</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
       <c r="E168" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F168" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B169" t="s">
-        <v>264</v>
-      </c>
-      <c r="C169" t="s">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
-        <v>265</v>
-      </c>
-      <c r="D170" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" t="s">
-        <v>266</v>
-      </c>
-      <c r="F170" t="s">
-        <v>265</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
-      </c>
-      <c r="D171"/>
+        <v>270</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
       <c r="E171" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F171" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C172" t="s">
-        <v>268</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D172"/>
       <c r="E172" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F172" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173">
@@ -5107,107 +5125,131 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C173" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F173" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
-      </c>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
+        <v>274</v>
+      </c>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" t="s">
+        <v>274</v>
+      </c>
+      <c r="F174" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>271</v>
-      </c>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
+        <v>276</v>
+      </c>
+      <c r="C175" t="s">
+        <v>277</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>276</v>
+      </c>
+      <c r="F175" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
-      </c>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
+        <v>279</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>278</v>
+      </c>
+      <c r="F176" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
-      </c>
-      <c r="C177"/>
+        <v>278</v>
+      </c>
+      <c r="C177" t="s">
+        <v>280</v>
+      </c>
       <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
+      <c r="E177" t="s">
+        <v>278</v>
+      </c>
+      <c r="F177" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C178" t="s">
-        <v>272</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>273</v>
-      </c>
-      <c r="F178" t="s">
-        <v>272</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
-      </c>
-      <c r="D179"/>
+        <v>284</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
       <c r="E179" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F179" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180">
@@ -5215,19 +5257,19 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C180" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E180" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F180" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181">
@@ -5235,19 +5277,19 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C181" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E181" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F181" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182">
@@ -5255,19 +5297,19 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C182" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F182" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183">
@@ -5275,71 +5317,79 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C183" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F183" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C184" t="s">
-        <v>282</v>
-      </c>
-      <c r="D184"/>
+        <v>294</v>
+      </c>
+      <c r="D184" t="s">
+        <v>24</v>
+      </c>
       <c r="E184" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F184" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C185" t="s">
-        <v>284</v>
-      </c>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
+        <v>296</v>
+      </c>
+      <c r="D185" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" t="s">
+        <v>295</v>
+      </c>
+      <c r="F185" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C186" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E186" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F186" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187">
@@ -5347,19 +5397,19 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E187" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F187" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188">
@@ -5367,19 +5417,19 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C188" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D188" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F188" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189">
@@ -5387,349 +5437,347 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C189" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F189" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C190" t="s">
-        <v>294</v>
-      </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190" t="s">
-        <v>293</v>
-      </c>
-      <c r="F190" t="s">
-        <v>294</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C191" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F191" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C192" t="s">
-        <v>298</v>
-      </c>
-      <c r="D192" t="s">
-        <v>24</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D192"/>
       <c r="E192" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F192" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C193" t="s">
-        <v>300</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" t="s">
-        <v>299</v>
-      </c>
-      <c r="F193" t="s">
-        <v>300</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C194" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F194" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C195" t="s">
-        <v>294</v>
-      </c>
-      <c r="D195" t="s">
-        <v>15</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D195"/>
       <c r="E195" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F195" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C196" t="s">
-        <v>305</v>
-      </c>
-      <c r="D196" t="s">
-        <v>21</v>
-      </c>
-      <c r="E196" t="s">
-        <v>304</v>
-      </c>
-      <c r="F196" t="s">
-        <v>305</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C197" t="s">
-        <v>307</v>
-      </c>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
+        <v>311</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" t="s">
+        <v>312</v>
+      </c>
+      <c r="F197" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C198" t="s">
-        <v>307</v>
-      </c>
-      <c r="D198" t="s">
-        <v>21</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D198"/>
       <c r="E198" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F198" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C199" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D199"/>
-      <c r="E199" t="s">
-        <v>308</v>
-      </c>
-      <c r="F199" t="s">
-        <v>307</v>
-      </c>
+      <c r="E199"/>
+      <c r="F199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C200" t="s">
-        <v>310</v>
-      </c>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
+        <v>316</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" t="s">
+        <v>315</v>
+      </c>
+      <c r="F200" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C201" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D201" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F201" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C202" t="s">
-        <v>310</v>
-      </c>
-      <c r="D202"/>
+        <v>314</v>
+      </c>
+      <c r="D202" t="s">
+        <v>24</v>
+      </c>
       <c r="E202" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F202" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C203" t="s">
-        <v>313</v>
-      </c>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
+        <v>321</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>320</v>
+      </c>
+      <c r="F203" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C204" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D204" t="s">
         <v>21</v>
       </c>
       <c r="E204" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F204" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C205" t="s">
-        <v>313</v>
-      </c>
-      <c r="D205"/>
+        <v>325</v>
+      </c>
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
       <c r="E205" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F205" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C206" t="s">
-        <v>316</v>
-      </c>
-      <c r="D206"/>
-      <c r="E206"/>
-      <c r="F206"/>
+        <v>327</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206" t="s">
+        <v>326</v>
+      </c>
+      <c r="F206" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C207" t="s">
-        <v>318</v>
-      </c>
-      <c r="D207" t="s">
-        <v>15</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D207"/>
       <c r="E207" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F207" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="208">
@@ -5737,19 +5785,19 @@
         <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C208" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F208" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209">
@@ -5757,19 +5805,19 @@
         <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C209" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D209" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E209" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F209" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210">
@@ -5777,19 +5825,19 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F210" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211">
@@ -5797,19 +5845,19 @@
         <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C211" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D211" t="s">
         <v>21</v>
       </c>
       <c r="E211" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F211" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212">
@@ -5817,19 +5865,19 @@
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C212" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F212" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213">
@@ -5837,37 +5885,39 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C213" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F213" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C214" t="s">
-        <v>329</v>
-      </c>
-      <c r="D214"/>
+        <v>340</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
       <c r="E214" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F214" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215">
@@ -5875,19 +5925,19 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F215" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216">
@@ -5895,19 +5945,19 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C216" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E216" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F216" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217">
@@ -5915,19 +5965,19 @@
         <v>12</v>
       </c>
       <c r="B217" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C217" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D217" t="s">
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F217" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218">
@@ -5935,119 +5985,101 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C218" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F218" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C219" t="s">
-        <v>338</v>
-      </c>
-      <c r="D219" t="s">
-        <v>21</v>
-      </c>
-      <c r="E219" t="s">
-        <v>337</v>
-      </c>
-      <c r="F219" t="s">
-        <v>338</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C220" t="s">
-        <v>340</v>
-      </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" t="s">
-        <v>339</v>
-      </c>
-      <c r="F220" t="s">
-        <v>340</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
     </row>
     <row r="221">
       <c r="A221" t="s">
         <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C221" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E221" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F221" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C222" t="s">
-        <v>344</v>
-      </c>
-      <c r="D222" t="s">
-        <v>24</v>
-      </c>
-      <c r="E222" t="s">
-        <v>343</v>
-      </c>
-      <c r="F222" t="s">
-        <v>344</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
     </row>
     <row r="223">
       <c r="A223" t="s">
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C223" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F223" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224">
@@ -6055,19 +6087,19 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C224" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E224" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F224" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225">
@@ -6075,78 +6107,90 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C225" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D225" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E225" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F225" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C226" t="s">
-        <v>329</v>
-      </c>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226"/>
+        <v>361</v>
+      </c>
+      <c r="D226" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226" t="s">
+        <v>360</v>
+      </c>
+      <c r="F226" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C227" t="s">
-        <v>323</v>
-      </c>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227"/>
+        <v>363</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" t="s">
+        <v>362</v>
+      </c>
+      <c r="F227" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F228" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D229"/>
       <c r="E229"/>
@@ -6157,19 +6201,19 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C230" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D230" t="s">
         <v>24</v>
       </c>
       <c r="E230" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F230" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231">
@@ -6177,178 +6221,162 @@
         <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C231" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E231" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F231" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C232" t="s">
         <v>361</v>
       </c>
-      <c r="D232" t="s">
-        <v>41</v>
-      </c>
-      <c r="E232" t="s">
-        <v>360</v>
-      </c>
-      <c r="F232" t="s">
-        <v>361</v>
-      </c>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C233" t="s">
-        <v>363</v>
-      </c>
-      <c r="D233" t="s">
-        <v>21</v>
-      </c>
-      <c r="E233" t="s">
-        <v>362</v>
-      </c>
-      <c r="F233" t="s">
-        <v>363</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C234" t="s">
-        <v>365</v>
-      </c>
-      <c r="D234" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" t="s">
-        <v>364</v>
-      </c>
-      <c r="F234" t="s">
-        <v>365</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
     </row>
     <row r="235">
       <c r="A235" t="s">
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C235" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E235" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F235" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236"/>
+      <c r="E236" t="s">
+        <v>375</v>
+      </c>
+      <c r="F236" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C237" t="s">
-        <v>370</v>
-      </c>
-      <c r="D237" t="s">
-        <v>24</v>
-      </c>
-      <c r="E237" t="s">
-        <v>369</v>
-      </c>
-      <c r="F237" t="s">
-        <v>370</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
     </row>
     <row r="238">
       <c r="A238" t="s">
         <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C238" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D238" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E238" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F238" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C239" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D239"/>
-      <c r="E239"/>
-      <c r="F239"/>
+      <c r="E239" t="s">
+        <v>378</v>
+      </c>
+      <c r="F239" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>374</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D240"/>
       <c r="E240"/>
@@ -6356,13 +6384,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C241" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D241"/>
       <c r="E241"/>
@@ -6373,19 +6401,19 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C242" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F242" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243">
@@ -6393,28 +6421,24 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C243" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D243"/>
-      <c r="E243" t="s">
-        <v>377</v>
-      </c>
-      <c r="F243" t="s">
-        <v>376</v>
-      </c>
+      <c r="E243"/>
+      <c r="F243"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C244" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D244"/>
       <c r="E244"/>
@@ -6422,113 +6446,121 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C245" t="s">
-        <v>379</v>
-      </c>
-      <c r="D245" t="s">
-        <v>41</v>
-      </c>
-      <c r="E245" t="s">
-        <v>380</v>
-      </c>
-      <c r="F245" t="s">
-        <v>379</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C246" t="s">
-        <v>379</v>
-      </c>
-      <c r="D246"/>
+        <v>391</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
       <c r="E246" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F246" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="C247" t="s">
-        <v>381</v>
-      </c>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247"/>
+        <v>389</v>
+      </c>
+      <c r="D247" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" t="s">
+        <v>392</v>
+      </c>
+      <c r="F247" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C248" t="s">
-        <v>383</v>
-      </c>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248"/>
+        <v>394</v>
+      </c>
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+      <c r="E248" t="s">
+        <v>393</v>
+      </c>
+      <c r="F248" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C249" t="s">
-        <v>385</v>
-      </c>
-      <c r="D249" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" t="s">
-        <v>384</v>
-      </c>
-      <c r="F249" t="s">
-        <v>385</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C250" t="s">
-        <v>387</v>
-      </c>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250"/>
+        <v>396</v>
+      </c>
+      <c r="D250" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" t="s">
+        <v>397</v>
+      </c>
+      <c r="F250" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C251" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D251"/>
       <c r="E251"/>
@@ -6536,56 +6568,56 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C252" t="s">
-        <v>391</v>
-      </c>
-      <c r="D252"/>
-      <c r="E252"/>
-      <c r="F252"/>
+        <v>399</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" t="s">
+        <v>400</v>
+      </c>
+      <c r="F252" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C253" t="s">
-        <v>393</v>
-      </c>
-      <c r="D253" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253" t="s">
-        <v>392</v>
-      </c>
-      <c r="F253" t="s">
-        <v>393</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
         <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C254" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E254" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F254" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255">
@@ -6593,98 +6625,108 @@
         <v>12</v>
       </c>
       <c r="B255" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C255" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D255" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E255" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F255" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C256" t="s">
-        <v>398</v>
-      </c>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
+        <v>402</v>
+      </c>
+      <c r="D256" t="s">
+        <v>21</v>
+      </c>
+      <c r="E256" t="s">
+        <v>407</v>
+      </c>
+      <c r="F256" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C257" t="s">
-        <v>398</v>
-      </c>
-      <c r="D257" t="s">
-        <v>34</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D257"/>
       <c r="E257" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F257" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C258" t="s">
-        <v>401</v>
-      </c>
-      <c r="D258"/>
-      <c r="E258"/>
-      <c r="F258"/>
+        <v>409</v>
+      </c>
+      <c r="D258" t="s">
+        <v>21</v>
+      </c>
+      <c r="E258" t="s">
+        <v>408</v>
+      </c>
+      <c r="F258" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
         <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C259" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
       </c>
       <c r="E259" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F259" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C260" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D260"/>
       <c r="E260"/>
@@ -6692,145 +6734,135 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C261" t="s">
-        <v>406</v>
-      </c>
-      <c r="D261" t="s">
-        <v>15</v>
-      </c>
-      <c r="E261" t="s">
-        <v>405</v>
-      </c>
-      <c r="F261" t="s">
-        <v>406</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
         <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C262" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D262" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E262" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F262" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C263" t="s">
-        <v>404</v>
-      </c>
-      <c r="D263" t="s">
-        <v>21</v>
-      </c>
-      <c r="E263" t="s">
-        <v>409</v>
-      </c>
-      <c r="F263" t="s">
-        <v>404</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C264" t="s">
-        <v>404</v>
-      </c>
-      <c r="D264"/>
+        <v>418</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
       <c r="E264" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F264" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C265" t="s">
-        <v>411</v>
-      </c>
-      <c r="D265" t="s">
-        <v>21</v>
-      </c>
-      <c r="E265" t="s">
-        <v>410</v>
-      </c>
-      <c r="F265" t="s">
-        <v>411</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
         <v>12</v>
       </c>
       <c r="B266" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C266" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D266" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F266" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B267" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C267" t="s">
-        <v>411</v>
-      </c>
-      <c r="D267"/>
-      <c r="E267"/>
-      <c r="F267"/>
+        <v>423</v>
+      </c>
+      <c r="D267" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267" t="s">
+        <v>422</v>
+      </c>
+      <c r="F267" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C268" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D268"/>
       <c r="E268"/>
@@ -6841,53 +6873,57 @@
         <v>12</v>
       </c>
       <c r="B269" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C269" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F269" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C270" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="D270"/>
-      <c r="E270"/>
-      <c r="F270"/>
+      <c r="E270" t="s">
+        <v>426</v>
+      </c>
+      <c r="F270" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
         <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C271" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D271" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E271" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F271" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="272">
@@ -6895,10 +6931,10 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C272" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="D272"/>
       <c r="E272"/>
@@ -6909,19 +6945,19 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C273" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E273" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F273" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274">
@@ -6929,219 +6965,221 @@
         <v>12</v>
       </c>
       <c r="B274" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C274" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E274" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F274" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C275" t="s">
-        <v>427</v>
-      </c>
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275"/>
+        <v>436</v>
+      </c>
+      <c r="D275" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275" t="s">
+        <v>435</v>
+      </c>
+      <c r="F275" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
         <v>12</v>
       </c>
       <c r="B276" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C276" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D276" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E276" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F276" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C277" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D277"/>
-      <c r="E277" t="s">
-        <v>428</v>
-      </c>
-      <c r="F277" t="s">
-        <v>429</v>
-      </c>
+      <c r="E277"/>
+      <c r="F277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
         <v>12</v>
       </c>
       <c r="B278" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C278" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D278" t="s">
         <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F278" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B279" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C279" t="s">
-        <v>286</v>
-      </c>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
+        <v>444</v>
+      </c>
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" t="s">
+        <v>443</v>
+      </c>
+      <c r="F279" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C280" t="s">
-        <v>434</v>
-      </c>
-      <c r="D280" t="s">
-        <v>41</v>
-      </c>
-      <c r="E280" t="s">
-        <v>433</v>
-      </c>
-      <c r="F280" t="s">
-        <v>434</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
         <v>12</v>
       </c>
       <c r="B281" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C281" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D281" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E281" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="F281" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C282" t="s">
-        <v>438</v>
-      </c>
-      <c r="D282" t="s">
-        <v>21</v>
-      </c>
-      <c r="E282" t="s">
-        <v>437</v>
-      </c>
-      <c r="F282" t="s">
-        <v>438</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C283" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D283" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E283" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F283" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C284" t="s">
-        <v>442</v>
-      </c>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
+        <v>453</v>
+      </c>
+      <c r="D284" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" t="s">
+        <v>452</v>
+      </c>
+      <c r="F284" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C285" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D285" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E285" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F285" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286">
@@ -7149,65 +7187,69 @@
         <v>12</v>
       </c>
       <c r="B286" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C286" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D286" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E286" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="F286" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B287" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C287" t="s">
-        <v>448</v>
-      </c>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
+        <v>459</v>
+      </c>
+      <c r="D287" t="s">
+        <v>41</v>
+      </c>
+      <c r="E287" t="s">
+        <v>458</v>
+      </c>
+      <c r="F287" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
         <v>12</v>
       </c>
       <c r="B288" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C288" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D288" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E288" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F288" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B289" t="s">
-        <v>450</v>
-      </c>
-      <c r="C289" t="s">
-        <v>451</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
       <c r="F289"/>
@@ -7217,19 +7259,19 @@
         <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C290" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E290" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F290" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="291">
@@ -7237,19 +7279,19 @@
         <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C291" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D291" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E291" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F291" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="292">
@@ -7257,19 +7299,19 @@
         <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C292" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E292" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="F292" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="293">
@@ -7277,19 +7319,19 @@
         <v>12</v>
       </c>
       <c r="B293" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C293" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E293" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F293" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="294">
@@ -7297,19 +7339,19 @@
         <v>12</v>
       </c>
       <c r="B294" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C294" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D294" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E294" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F294" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="295">
@@ -7317,53 +7359,71 @@
         <v>12</v>
       </c>
       <c r="B295" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C295" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D295" t="s">
         <v>24</v>
       </c>
       <c r="E295" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F295" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B296" t="s">
-        <v>464</v>
-      </c>
-      <c r="C296"/>
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
+        <v>473</v>
+      </c>
+      <c r="C296" t="s">
+        <v>103</v>
+      </c>
+      <c r="D296" t="s">
+        <v>21</v>
+      </c>
+      <c r="E296" t="s">
+        <v>473</v>
+      </c>
+      <c r="F296" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B297" t="s">
-        <v>464</v>
-      </c>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
+        <v>474</v>
+      </c>
+      <c r="C297" t="s">
+        <v>475</v>
+      </c>
+      <c r="D297" t="s">
+        <v>18</v>
+      </c>
+      <c r="E297" t="s">
+        <v>474</v>
+      </c>
+      <c r="F297" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>464</v>
-      </c>
-      <c r="C298"/>
+        <v>476</v>
+      </c>
+      <c r="C298" t="s">
+        <v>455</v>
+      </c>
       <c r="D298"/>
       <c r="E298"/>
       <c r="F298"/>
@@ -7373,39 +7433,37 @@
         <v>12</v>
       </c>
       <c r="B299" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C299" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D299" t="s">
         <v>21</v>
       </c>
       <c r="E299" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F299" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C300" t="s">
-        <v>468</v>
-      </c>
-      <c r="D300" t="s">
-        <v>15</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D300"/>
       <c r="E300" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F300" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="301">
@@ -7413,39 +7471,37 @@
         <v>12</v>
       </c>
       <c r="B301" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C301" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D301" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E301" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F301" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C302" t="s">
-        <v>472</v>
-      </c>
-      <c r="D302" t="s">
-        <v>24</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D302"/>
       <c r="E302" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F302" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="303">
@@ -7453,39 +7509,37 @@
         <v>12</v>
       </c>
       <c r="B303" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C303" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="D303" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E303" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F303" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C304" t="s">
-        <v>474</v>
-      </c>
-      <c r="D304" t="s">
-        <v>24</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D304"/>
       <c r="E304" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F304" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
     </row>
     <row r="305">
@@ -7493,19 +7547,19 @@
         <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C305" t="s">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E305" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F305" t="s">
-        <v>104</v>
+        <v>483</v>
       </c>
     </row>
     <row r="306">
@@ -7513,71 +7567,79 @@
         <v>12</v>
       </c>
       <c r="B306" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C306" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D306" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E306" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F306" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B307" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C307" t="s">
-        <v>457</v>
-      </c>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
+        <v>486</v>
+      </c>
+      <c r="D307" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" t="s">
+        <v>485</v>
+      </c>
+      <c r="F307" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
         <v>12</v>
       </c>
       <c r="B308" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C308" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="D308" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E308" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F308" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B309" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C309" t="s">
-        <v>480</v>
-      </c>
-      <c r="D309"/>
+        <v>490</v>
+      </c>
+      <c r="D309" t="s">
+        <v>24</v>
+      </c>
       <c r="E309" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F309" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310">
@@ -7585,37 +7647,39 @@
         <v>12</v>
       </c>
       <c r="B310" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C310" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D310" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E310" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F310" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B311" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C311" t="s">
-        <v>482</v>
-      </c>
-      <c r="D311"/>
+        <v>494</v>
+      </c>
+      <c r="D311" t="s">
+        <v>21</v>
+      </c>
       <c r="E311" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F311" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="312">
@@ -7623,57 +7687,53 @@
         <v>12</v>
       </c>
       <c r="B312" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C312" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="D312" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E312" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F312" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C313" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="D313"/>
-      <c r="E313" t="s">
-        <v>483</v>
-      </c>
-      <c r="F313" t="s">
-        <v>442</v>
-      </c>
+      <c r="E313"/>
+      <c r="F313"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
         <v>12</v>
       </c>
       <c r="B314" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C314" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D314" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E314" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F314" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="315">
@@ -7681,19 +7741,19 @@
         <v>12</v>
       </c>
       <c r="B315" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C315" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D315" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E315" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F315" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="316">
@@ -7701,19 +7761,19 @@
         <v>12</v>
       </c>
       <c r="B316" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C316" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D316" t="s">
         <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F316" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="317">
@@ -7721,19 +7781,19 @@
         <v>12</v>
       </c>
       <c r="B317" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="C317" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D317" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E317" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F317" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318">
@@ -7741,19 +7801,19 @@
         <v>12</v>
       </c>
       <c r="B318" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C318" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D318" t="s">
         <v>24</v>
       </c>
       <c r="E318" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F318" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="319">
@@ -7761,173 +7821,159 @@
         <v>12</v>
       </c>
       <c r="B319" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C319" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D319" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E319" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F319" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C320" t="s">
-        <v>496</v>
-      </c>
-      <c r="D320" t="s">
-        <v>21</v>
-      </c>
-      <c r="E320" t="s">
-        <v>495</v>
-      </c>
-      <c r="F320" t="s">
-        <v>496</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
         <v>12</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C321" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D321" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E321" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F321" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B322" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C322" t="s">
-        <v>500</v>
-      </c>
-      <c r="D322"/>
-      <c r="E322"/>
-      <c r="F322"/>
+        <v>515</v>
+      </c>
+      <c r="D322" t="s">
+        <v>24</v>
+      </c>
+      <c r="E322" t="s">
+        <v>514</v>
+      </c>
+      <c r="F322" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
         <v>12</v>
       </c>
       <c r="B323" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C323" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D323" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E323" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F323" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C324" t="s">
-        <v>503</v>
-      </c>
-      <c r="D324" t="s">
-        <v>15</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D324"/>
       <c r="E324" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F324" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C325" t="s">
-        <v>505</v>
-      </c>
-      <c r="D325" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" t="s">
-        <v>504</v>
-      </c>
-      <c r="F325" t="s">
-        <v>505</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C326" t="s">
-        <v>507</v>
-      </c>
-      <c r="D326" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" t="s">
-        <v>506</v>
-      </c>
-      <c r="F326" t="s">
-        <v>507</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
         <v>12</v>
       </c>
       <c r="B327" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C327" t="s">
-        <v>509</v>
+        <v>11</v>
       </c>
       <c r="D327" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E327" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="F327" t="s">
-        <v>509</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328">
@@ -7935,31 +7981,29 @@
         <v>12</v>
       </c>
       <c r="B328" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C328" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E328" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F328" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B329" t="s">
-        <v>512</v>
-      </c>
-      <c r="C329" t="s">
-        <v>513</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
       <c r="F329"/>
@@ -7969,19 +8013,19 @@
         <v>12</v>
       </c>
       <c r="B330" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C330" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D330" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E330" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F330" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="331">
@@ -7989,181 +8033,197 @@
         <v>12</v>
       </c>
       <c r="B331" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C331" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D331" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E331" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="F331" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B332" t="s">
-        <v>518</v>
-      </c>
-      <c r="C332" t="s">
-        <v>513</v>
-      </c>
-      <c r="D332" t="s">
-        <v>21</v>
-      </c>
-      <c r="E332" t="s">
-        <v>518</v>
-      </c>
-      <c r="F332" t="s">
-        <v>513</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C333" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D333"/>
-      <c r="E333" t="s">
-        <v>518</v>
-      </c>
-      <c r="F333" t="s">
-        <v>513</v>
-      </c>
+      <c r="E333"/>
+      <c r="F333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C334" t="s">
-        <v>520</v>
-      </c>
-      <c r="D334"/>
-      <c r="E334"/>
-      <c r="F334"/>
+        <v>530</v>
+      </c>
+      <c r="D334" t="s">
+        <v>18</v>
+      </c>
+      <c r="E334" t="s">
+        <v>530</v>
+      </c>
+      <c r="F334" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C335" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D335"/>
-      <c r="E335"/>
-      <c r="F335"/>
+      <c r="E335" t="s">
+        <v>530</v>
+      </c>
+      <c r="F335" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C336" t="s">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s">
-        <v>15</v>
-      </c>
-      <c r="E336" t="s">
-        <v>523</v>
-      </c>
-      <c r="F336" t="s">
-        <v>11</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
         <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C337" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D337" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E337" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F337" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B338" t="s">
-        <v>526</v>
-      </c>
-      <c r="C338"/>
-      <c r="D338"/>
-      <c r="E338"/>
-      <c r="F338"/>
+        <v>534</v>
+      </c>
+      <c r="C338" t="s">
+        <v>535</v>
+      </c>
+      <c r="D338" t="s">
+        <v>41</v>
+      </c>
+      <c r="E338" t="s">
+        <v>534</v>
+      </c>
+      <c r="F338" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>526</v>
-      </c>
-      <c r="C339"/>
-      <c r="D339"/>
-      <c r="E339"/>
-      <c r="F339"/>
+        <v>536</v>
+      </c>
+      <c r="C339" t="s">
+        <v>537</v>
+      </c>
+      <c r="D339" t="s">
+        <v>34</v>
+      </c>
+      <c r="E339" t="s">
+        <v>536</v>
+      </c>
+      <c r="F339" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>526</v>
-      </c>
-      <c r="C340"/>
-      <c r="D340"/>
-      <c r="E340"/>
-      <c r="F340"/>
+        <v>538</v>
+      </c>
+      <c r="C340" t="s">
+        <v>539</v>
+      </c>
+      <c r="D340" t="s">
+        <v>18</v>
+      </c>
+      <c r="E340" t="s">
+        <v>538</v>
+      </c>
+      <c r="F340" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C341" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="D341" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E341" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="F341" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="342">
@@ -8171,54 +8231,70 @@
         <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="C342" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="D342" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E342" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="F342" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B343" t="s">
-        <v>530</v>
-      </c>
-      <c r="C343"/>
-      <c r="D343"/>
-      <c r="E343"/>
-      <c r="F343"/>
+        <v>542</v>
+      </c>
+      <c r="C343" t="s">
+        <v>544</v>
+      </c>
+      <c r="D343" t="s">
+        <v>18</v>
+      </c>
+      <c r="E343" t="s">
+        <v>542</v>
+      </c>
+      <c r="F343" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>530</v>
-      </c>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
-      <c r="F344"/>
+        <v>545</v>
+      </c>
+      <c r="C344" t="s">
+        <v>546</v>
+      </c>
+      <c r="D344" t="s">
+        <v>18</v>
+      </c>
+      <c r="E344" t="s">
+        <v>545</v>
+      </c>
+      <c r="F344" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="C345" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="D345"/>
       <c r="E345"/>
@@ -8226,52 +8302,62 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>530</v>
-      </c>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-      <c r="F346"/>
+        <v>549</v>
+      </c>
+      <c r="C346" t="s">
+        <v>550</v>
+      </c>
+      <c r="D346" t="s">
+        <v>21</v>
+      </c>
+      <c r="E346" t="s">
+        <v>549</v>
+      </c>
+      <c r="F346" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
         <v>12</v>
       </c>
       <c r="B347" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C347" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="D347" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E347" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="F347" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B348" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C348" t="s">
-        <v>531</v>
-      </c>
-      <c r="D348"/>
+        <v>554</v>
+      </c>
+      <c r="D348" t="s">
+        <v>21</v>
+      </c>
       <c r="E348" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="F348" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
     </row>
     <row r="349">
@@ -8279,10 +8365,10 @@
         <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="C349" t="s">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="D349"/>
       <c r="E349"/>
@@ -8290,42 +8376,36 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C350" t="s">
-        <v>535</v>
-      </c>
-      <c r="D350" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350" t="s">
-        <v>534</v>
-      </c>
-      <c r="F350" t="s">
-        <v>535</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
     </row>
     <row r="351">
       <c r="A351" t="s">
         <v>12</v>
       </c>
       <c r="B351" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="C351" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D351" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E351" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="F351" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="352">
@@ -8333,19 +8413,19 @@
         <v>12</v>
       </c>
       <c r="B352" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="C352" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="D352" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E352" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="F352" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="353">
@@ -8353,261 +8433,19 @@
         <v>12</v>
       </c>
       <c r="B353" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="C353" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="D353" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E353" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="F353" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>12</v>
-      </c>
-      <c r="B354" t="s">
-        <v>542</v>
-      </c>
-      <c r="C354" t="s">
-        <v>543</v>
-      </c>
-      <c r="D354" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" t="s">
-        <v>542</v>
-      </c>
-      <c r="F354" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>12</v>
-      </c>
-      <c r="B355" t="s">
-        <v>544</v>
-      </c>
-      <c r="C355" t="s">
-        <v>545</v>
-      </c>
-      <c r="D355" t="s">
-        <v>18</v>
-      </c>
-      <c r="E355" t="s">
-        <v>544</v>
-      </c>
-      <c r="F355" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>12</v>
-      </c>
-      <c r="B356" t="s">
-        <v>544</v>
-      </c>
-      <c r="C356" t="s">
-        <v>546</v>
-      </c>
-      <c r="D356" t="s">
-        <v>18</v>
-      </c>
-      <c r="E356" t="s">
-        <v>544</v>
-      </c>
-      <c r="F356" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>12</v>
-      </c>
-      <c r="B357" t="s">
-        <v>547</v>
-      </c>
-      <c r="C357" t="s">
-        <v>548</v>
-      </c>
-      <c r="D357" t="s">
-        <v>18</v>
-      </c>
-      <c r="E357" t="s">
-        <v>547</v>
-      </c>
-      <c r="F357" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" t="s">
-        <v>549</v>
-      </c>
-      <c r="C358" t="s">
-        <v>550</v>
-      </c>
-      <c r="D358"/>
-      <c r="E358"/>
-      <c r="F358"/>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>12</v>
-      </c>
-      <c r="B359" t="s">
-        <v>551</v>
-      </c>
-      <c r="C359" t="s">
-        <v>552</v>
-      </c>
-      <c r="D359" t="s">
-        <v>21</v>
-      </c>
-      <c r="E359" t="s">
-        <v>551</v>
-      </c>
-      <c r="F359" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>12</v>
-      </c>
-      <c r="B360" t="s">
-        <v>553</v>
-      </c>
-      <c r="C360" t="s">
-        <v>554</v>
-      </c>
-      <c r="D360" t="s">
-        <v>15</v>
-      </c>
-      <c r="E360" t="s">
-        <v>553</v>
-      </c>
-      <c r="F360" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>12</v>
-      </c>
-      <c r="B361" t="s">
-        <v>555</v>
-      </c>
-      <c r="C361" t="s">
-        <v>556</v>
-      </c>
-      <c r="D361" t="s">
-        <v>21</v>
-      </c>
-      <c r="E361" t="s">
-        <v>555</v>
-      </c>
-      <c r="F361" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>9</v>
-      </c>
-      <c r="B362" t="s">
-        <v>557</v>
-      </c>
-      <c r="C362" t="s">
-        <v>425</v>
-      </c>
-      <c r="D362"/>
-      <c r="E362"/>
-      <c r="F362"/>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>6</v>
-      </c>
-      <c r="B363" t="s">
-        <v>558</v>
-      </c>
-      <c r="C363" t="s">
-        <v>425</v>
-      </c>
-      <c r="D363"/>
-      <c r="E363"/>
-      <c r="F363"/>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>12</v>
-      </c>
-      <c r="B364" t="s">
-        <v>559</v>
-      </c>
-      <c r="C364" t="s">
-        <v>560</v>
-      </c>
-      <c r="D364" t="s">
-        <v>24</v>
-      </c>
-      <c r="E364" t="s">
-        <v>559</v>
-      </c>
-      <c r="F364" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>12</v>
-      </c>
-      <c r="B365" t="s">
-        <v>561</v>
-      </c>
-      <c r="C365" t="s">
         <v>562</v>
-      </c>
-      <c r="D365" t="s">
-        <v>24</v>
-      </c>
-      <c r="E365" t="s">
-        <v>561</v>
-      </c>
-      <c r="F365" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" t="s">
-        <v>563</v>
-      </c>
-      <c r="C366" t="s">
-        <v>564</v>
-      </c>
-      <c r="D366" t="s">
-        <v>24</v>
-      </c>
-      <c r="E366" t="s">
-        <v>563</v>
-      </c>
-      <c r="F366" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -398,9 +398,6 @@
     <t xml:space="preserve">CPV</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cape Verde Islands</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
     <t xml:space="preserve">Curacao</t>
   </si>
   <si>
-    <t xml:space="preserve">Curaçao</t>
-  </si>
-  <si>
     <t xml:space="preserve">CYP</t>
   </si>
   <si>
@@ -1004,9 +998,6 @@
     <t xml:space="preserve">FYR Macedonia</t>
   </si>
   <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">MLI</t>
   </si>
   <si>
@@ -1424,15 +1415,9 @@
     <t xml:space="preserve">STP</t>
   </si>
   <si>
-    <t xml:space="preserve">São Tomé and Príncipe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sao Tome e Principe</t>
   </si>
   <si>
-    <t xml:space="preserve">São Tomé e Príncipe</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUI</t>
   </si>
   <si>
@@ -1466,9 +1451,6 @@
     <t xml:space="preserve">Eswatini</t>
   </si>
   <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
     <t xml:space="preserve">SYR</t>
   </si>
   <si>
@@ -1641,9 +1623,6 @@
   </si>
   <si>
     <t xml:space="preserve">VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Vincent / Grenadines</t>
   </si>
   <si>
     <t xml:space="preserve">St. Vincent and the Grenadines</t>
@@ -3342,90 +3321,90 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s">
         <v>130</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
         <v>131</v>
       </c>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" t="s">
-        <v>131</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
         <v>135</v>
       </c>
-      <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" t="s">
-        <v>134</v>
-      </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -3433,19 +3412,19 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
         <v>137</v>
       </c>
-      <c r="D77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" t="s">
-        <v>136</v>
-      </c>
       <c r="F77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -3453,19 +3432,19 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -3473,47 +3452,41 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
         <v>141</v>
       </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="s">
-        <v>140</v>
-      </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" t="s">
-        <v>140</v>
-      </c>
-      <c r="F80" t="s">
-        <v>141</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
         <v>144</v>
@@ -3522,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
         <v>144</v>
@@ -3530,65 +3503,65 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
+      <c r="E82" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" t="s">
         <v>147</v>
       </c>
-      <c r="C83" t="s">
-        <v>146</v>
-      </c>
-      <c r="D83" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" t="s">
-        <v>146</v>
-      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84"/>
+        <v>149</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3599,27 +3572,27 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
         <v>151</v>
       </c>
-      <c r="D86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" t="s">
-        <v>150</v>
-      </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
         <v>149</v>
@@ -3633,30 +3606,30 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
         <v>154</v>
       </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" t="s">
-        <v>153</v>
-      </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -3664,47 +3637,47 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" t="s">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
         <v>158</v>
       </c>
-      <c r="C91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -3712,47 +3685,47 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
-      </c>
-      <c r="D93" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" t="s">
-        <v>161</v>
-      </c>
-      <c r="F93" t="s">
-        <v>160</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
         <v>163</v>
       </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3760,70 +3733,76 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
         <v>168</v>
       </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
         <v>170</v>
       </c>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
+      <c r="F98" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100">
@@ -3831,56 +3810,50 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" t="s">
-        <v>174</v>
-      </c>
-      <c r="F101" t="s">
-        <v>175</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
         <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F102" t="s">
         <v>177</v>
@@ -3888,36 +3861,40 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
         <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
+      <c r="E103" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F104" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
@@ -3925,17 +3902,17 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F105" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
@@ -3943,175 +3920,175 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
         <v>181</v>
       </c>
-      <c r="C106" t="s">
-        <v>168</v>
-      </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" t="s">
         <v>181</v>
-      </c>
-      <c r="F106" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D107"/>
-      <c r="E107" t="s">
-        <v>181</v>
-      </c>
-      <c r="F107" t="s">
-        <v>168</v>
-      </c>
+      <c r="E107"/>
+      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
+        <v>183</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
         <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
-      </c>
-      <c r="D110" t="s">
-        <v>41</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D110"/>
       <c r="E110" t="s">
         <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" t="s">
-        <v>188</v>
-      </c>
-      <c r="F111" t="s">
-        <v>185</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" t="s">
         <v>188</v>
       </c>
-      <c r="C112" t="s">
-        <v>185</v>
-      </c>
       <c r="D112"/>
-      <c r="E112" t="s">
-        <v>188</v>
-      </c>
-      <c r="F112" t="s">
-        <v>185</v>
-      </c>
+      <c r="E112"/>
+      <c r="F112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>189</v>
       </c>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>189</v>
+      </c>
+      <c r="F113" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
         <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
+      <c r="E114" t="s">
+        <v>189</v>
+      </c>
+      <c r="F114" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" t="s">
         <v>191</v>
-      </c>
-      <c r="C115" t="s">
-        <v>190</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" t="s">
         <v>191</v>
-      </c>
-      <c r="F115" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="116">
@@ -4119,153 +4096,155 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D116"/>
-      <c r="E116" t="s">
-        <v>191</v>
-      </c>
-      <c r="F116" t="s">
-        <v>190</v>
-      </c>
+      <c r="E116"/>
+      <c r="F116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
-      </c>
-      <c r="D117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" t="s">
-        <v>192</v>
-      </c>
-      <c r="F117" t="s">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>195</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
+        <v>197</v>
+      </c>
+      <c r="D118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" t="s">
+        <v>198</v>
+      </c>
+      <c r="F119" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" t="s">
-        <v>198</v>
-      </c>
-      <c r="F120" t="s">
-        <v>199</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
         <v>201</v>
       </c>
-      <c r="D121" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" t="s">
-        <v>200</v>
-      </c>
-      <c r="F121" t="s">
-        <v>201</v>
-      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
         <v>203</v>
       </c>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
+      <c r="F122" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>203</v>
-      </c>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
+        <v>147</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
         <v>206</v>
       </c>
-      <c r="D124" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" t="s">
-        <v>205</v>
-      </c>
       <c r="F124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125">
@@ -4273,59 +4252,53 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
-        <v>209</v>
-      </c>
-      <c r="D126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" t="s">
-        <v>208</v>
-      </c>
-      <c r="F126" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F127" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128">
@@ -4333,10 +4306,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
@@ -4344,78 +4317,78 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
         <v>215</v>
       </c>
-      <c r="D129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" t="s">
-        <v>214</v>
-      </c>
-      <c r="F129" t="s">
-        <v>215</v>
-      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
+        <v>215</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" t="s">
         <v>217</v>
       </c>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
+      <c r="F130" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
-      </c>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
+        <v>219</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="s">
+        <v>218</v>
+      </c>
+      <c r="F131" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
-      </c>
-      <c r="D132" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" t="s">
-        <v>219</v>
-      </c>
-      <c r="F132" t="s">
-        <v>217</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
         <v>221</v>
@@ -4424,7 +4397,7 @@
         <v>18</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F133" t="s">
         <v>221</v>
@@ -4432,36 +4405,42 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C134" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" t="s">
         <v>223</v>
       </c>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
+      <c r="F134" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F135" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136">
@@ -4469,19 +4448,19 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C136" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F136" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137">
@@ -4489,56 +4468,50 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C137" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F137" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
-      </c>
-      <c r="D138" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" t="s">
-        <v>229</v>
-      </c>
-      <c r="F138" t="s">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C139" t="s">
         <v>232</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F139" t="s">
         <v>232</v>
@@ -4549,10 +4522,10 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D140"/>
       <c r="E140"/>
@@ -4563,19 +4536,19 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141" t="s">
         <v>235</v>
       </c>
-      <c r="C141" t="s">
-        <v>234</v>
-      </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
+        <v>236</v>
+      </c>
+      <c r="F141" t="s">
         <v>235</v>
-      </c>
-      <c r="F141" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="142">
@@ -4583,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D142"/>
       <c r="E142"/>
@@ -4597,134 +4570,128 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" t="s">
         <v>238</v>
       </c>
-      <c r="C143" t="s">
-        <v>237</v>
-      </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" t="s">
         <v>238</v>
-      </c>
-      <c r="F143" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>239</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
+      <c r="E144" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" t="s">
         <v>241</v>
       </c>
-      <c r="C145" t="s">
-        <v>240</v>
-      </c>
-      <c r="D145" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" t="s">
-        <v>241</v>
-      </c>
-      <c r="F145" t="s">
-        <v>240</v>
-      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" t="s">
         <v>241</v>
       </c>
-      <c r="C146" t="s">
-        <v>240</v>
-      </c>
-      <c r="D146"/>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
       <c r="E146" t="s">
+        <v>242</v>
+      </c>
+      <c r="F146" t="s">
         <v>241</v>
-      </c>
-      <c r="F146" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
         <v>242</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
+      <c r="E147" t="s">
+        <v>242</v>
+      </c>
+      <c r="F147" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" t="s">
         <v>244</v>
       </c>
-      <c r="C148" t="s">
-        <v>243</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" t="s">
-        <v>244</v>
-      </c>
-      <c r="F148" t="s">
-        <v>243</v>
-      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D149"/>
-      <c r="E149" t="s">
-        <v>244</v>
-      </c>
-      <c r="F149" t="s">
-        <v>243</v>
-      </c>
+      <c r="E149"/>
+      <c r="F149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -4732,50 +4699,60 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
         <v>248</v>
       </c>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>249</v>
+      </c>
+      <c r="F151" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
         <v>249</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
+      <c r="E152" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" t="s">
+        <v>250</v>
+      </c>
+      <c r="C153" t="s">
         <v>251</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" t="s">
         <v>250</v>
       </c>
-      <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>251</v>
-      </c>
-      <c r="F153" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="154">
@@ -4783,17 +4760,17 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D154"/>
       <c r="E154" t="s">
+        <v>250</v>
+      </c>
+      <c r="F154" t="s">
         <v>251</v>
-      </c>
-      <c r="F154" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="155">
@@ -4807,7 +4784,7 @@
         <v>253</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E155" t="s">
         <v>252</v>
@@ -4818,57 +4795,53 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
-      </c>
-      <c r="D156"/>
+        <v>255</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
       <c r="E156" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F156" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>254</v>
-      </c>
-      <c r="F157" t="s">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C158" t="s">
         <v>257</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F158" t="s">
         <v>257</v>
@@ -4876,36 +4849,40 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
+      <c r="E159" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C160" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D160" t="s">
         <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F160" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161">
@@ -4913,132 +4890,126 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C161" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D161"/>
       <c r="E161" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F161" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" t="s">
         <v>261</v>
       </c>
-      <c r="C162" t="s">
-        <v>248</v>
-      </c>
-      <c r="D162" t="s">
-        <v>21</v>
-      </c>
-      <c r="E162" t="s">
-        <v>261</v>
-      </c>
-      <c r="F162" t="s">
-        <v>248</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
         <v>261</v>
       </c>
-      <c r="C163" t="s">
-        <v>248</v>
-      </c>
-      <c r="D163"/>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
       <c r="E163" t="s">
+        <v>262</v>
+      </c>
+      <c r="F163" t="s">
         <v>261</v>
-      </c>
-      <c r="F163" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
         <v>262</v>
       </c>
       <c r="C164" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
+      <c r="E164" t="s">
+        <v>262</v>
+      </c>
+      <c r="F164" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
         <v>12</v>
       </c>
       <c r="B165" t="s">
+        <v>263</v>
+      </c>
+      <c r="C165" t="s">
         <v>264</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" t="s">
         <v>263</v>
       </c>
-      <c r="D165" t="s">
-        <v>21</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>264</v>
-      </c>
-      <c r="F165" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C166" t="s">
-        <v>263</v>
-      </c>
-      <c r="D166"/>
+        <v>266</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
       <c r="E166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F166" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
-      </c>
-      <c r="C167" t="s">
-        <v>266</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" t="s">
-        <v>265</v>
-      </c>
-      <c r="F167" t="s">
-        <v>266</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
         <v>267</v>
@@ -5046,78 +5017,86 @@
       <c r="C168" t="s">
         <v>268</v>
       </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168" t="s">
-        <v>267</v>
-      </c>
-      <c r="F168" t="s">
-        <v>268</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
         <v>269</v>
       </c>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
+      <c r="C169" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>269</v>
+      </c>
+      <c r="F169" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
         <v>269</v>
       </c>
       <c r="C170" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
+      <c r="E170" t="s">
+        <v>269</v>
+      </c>
+      <c r="F170" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>12</v>
       </c>
       <c r="B171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" t="s">
         <v>271</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" t="s">
         <v>270</v>
       </c>
-      <c r="D171" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>271</v>
-      </c>
-      <c r="F171" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
-        <v>270</v>
-      </c>
-      <c r="D172"/>
+        <v>273</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
       <c r="E172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F172" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173">
@@ -5125,19 +5104,19 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F173" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174">
@@ -5145,34 +5124,32 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C174" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F174" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>276</v>
       </c>
       <c r="C175" t="s">
-        <v>277</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D175"/>
       <c r="E175" t="s">
         <v>276</v>
       </c>
@@ -5182,74 +5159,76 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C176" t="s">
-        <v>279</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" t="s">
-        <v>278</v>
-      </c>
-      <c r="F176" t="s">
-        <v>279</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C177" t="s">
-        <v>280</v>
-      </c>
-      <c r="D177"/>
+        <v>282</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
       <c r="E177" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F177" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C178" t="s">
-        <v>282</v>
-      </c>
-      <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
+        <v>284</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" t="s">
+        <v>283</v>
+      </c>
+      <c r="F178" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C179" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F179" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180">
@@ -5257,19 +5236,19 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C180" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F180" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181">
@@ -5277,19 +5256,19 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C181" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E181" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F181" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="182">
@@ -5297,19 +5276,19 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C182" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F182" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183">
@@ -5317,19 +5296,19 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184">
@@ -5337,19 +5316,19 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F184" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185">
@@ -5357,19 +5336,19 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D185" t="s">
         <v>24</v>
       </c>
       <c r="E185" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F185" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186">
@@ -5377,19 +5356,19 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C186" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F186" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="187">
@@ -5397,47 +5376,41 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C187" t="s">
+        <v>301</v>
+      </c>
+      <c r="D187" t="s">
+        <v>21</v>
+      </c>
+      <c r="E187" t="s">
         <v>300</v>
       </c>
-      <c r="D187" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" t="s">
-        <v>299</v>
-      </c>
       <c r="F187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C188" t="s">
-        <v>292</v>
-      </c>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188" t="s">
-        <v>301</v>
-      </c>
-      <c r="F188" t="s">
-        <v>292</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
         <v>303</v>
@@ -5446,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F189" t="s">
         <v>303</v>
@@ -5454,192 +5427,198 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
         <v>304</v>
       </c>
       <c r="C190" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
+      <c r="E190" t="s">
+        <v>304</v>
+      </c>
+      <c r="F190" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
+        <v>305</v>
+      </c>
+      <c r="C191" t="s">
         <v>306</v>
       </c>
-      <c r="C191" t="s">
-        <v>305</v>
-      </c>
-      <c r="D191" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" t="s">
-        <v>306</v>
-      </c>
-      <c r="F191" t="s">
-        <v>305</v>
-      </c>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
+        <v>307</v>
+      </c>
+      <c r="C192" t="s">
         <v>306</v>
       </c>
-      <c r="C192" t="s">
-        <v>305</v>
-      </c>
-      <c r="D192"/>
+      <c r="D192" t="s">
+        <v>21</v>
+      </c>
       <c r="E192" t="s">
+        <v>307</v>
+      </c>
+      <c r="F192" t="s">
         <v>306</v>
-      </c>
-      <c r="F192" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>307</v>
       </c>
       <c r="C193" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
+      <c r="E193" t="s">
+        <v>307</v>
+      </c>
+      <c r="F193" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
+        <v>308</v>
+      </c>
+      <c r="C194" t="s">
         <v>309</v>
       </c>
-      <c r="C194" t="s">
-        <v>308</v>
-      </c>
-      <c r="D194" t="s">
-        <v>21</v>
-      </c>
-      <c r="E194" t="s">
-        <v>309</v>
-      </c>
-      <c r="F194" t="s">
-        <v>308</v>
-      </c>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
+        <v>310</v>
+      </c>
+      <c r="C195" t="s">
         <v>309</v>
       </c>
-      <c r="C195" t="s">
-        <v>308</v>
-      </c>
-      <c r="D195"/>
+      <c r="D195" t="s">
+        <v>21</v>
+      </c>
       <c r="E195" t="s">
+        <v>310</v>
+      </c>
+      <c r="F195" t="s">
         <v>309</v>
-      </c>
-      <c r="F195" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
         <v>310</v>
       </c>
       <c r="C196" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
+      <c r="E196" t="s">
+        <v>310</v>
+      </c>
+      <c r="F196" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" t="s">
         <v>312</v>
       </c>
-      <c r="C197" t="s">
-        <v>311</v>
-      </c>
-      <c r="D197" t="s">
-        <v>21</v>
-      </c>
-      <c r="E197" t="s">
-        <v>312</v>
-      </c>
-      <c r="F197" t="s">
-        <v>311</v>
-      </c>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C198" t="s">
-        <v>311</v>
-      </c>
-      <c r="D198"/>
+        <v>314</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
       <c r="E198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F198" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C199" t="s">
-        <v>314</v>
-      </c>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
+        <v>316</v>
+      </c>
+      <c r="D199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
+        <v>315</v>
+      </c>
+      <c r="F199" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C200" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D200" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F200" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201">
@@ -5647,19 +5626,19 @@
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C201" t="s">
+        <v>319</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" t="s">
         <v>318</v>
       </c>
-      <c r="D201" t="s">
-        <v>24</v>
-      </c>
-      <c r="E201" t="s">
-        <v>317</v>
-      </c>
       <c r="F201" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202">
@@ -5667,19 +5646,19 @@
         <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C202" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D202" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F202" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203">
@@ -5687,19 +5666,19 @@
         <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C203" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F203" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204">
@@ -5707,24 +5686,24 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C204" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D204" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F204" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
         <v>324</v>
@@ -5732,9 +5711,7 @@
       <c r="C205" t="s">
         <v>325</v>
       </c>
-      <c r="D205" t="s">
-        <v>15</v>
-      </c>
+      <c r="D205"/>
       <c r="E205" t="s">
         <v>324</v>
       </c>
@@ -5753,7 +5730,7 @@
         <v>327</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E206" t="s">
         <v>326</v>
@@ -5764,20 +5741,22 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C207" t="s">
-        <v>327</v>
-      </c>
-      <c r="D207"/>
+        <v>329</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
       <c r="E207" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F207" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208">
@@ -5785,19 +5764,19 @@
         <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C208" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D208" t="s">
         <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F208" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209">
@@ -5805,19 +5784,19 @@
         <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C209" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D209" t="s">
         <v>21</v>
       </c>
       <c r="E209" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F209" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210">
@@ -5825,19 +5804,19 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C210" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F210" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211">
@@ -5845,19 +5824,19 @@
         <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C211" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212">
@@ -5865,19 +5844,19 @@
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C212" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D212" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F212" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213">
@@ -5885,19 +5864,19 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C213" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F213" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214">
@@ -5905,19 +5884,19 @@
         <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C214" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D214" t="s">
         <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F214" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215">
@@ -5925,90 +5904,78 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C215" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D215" t="s">
         <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F215" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C216" t="s">
-        <v>344</v>
-      </c>
-      <c r="D216" t="s">
-        <v>18</v>
-      </c>
-      <c r="E216" t="s">
-        <v>343</v>
-      </c>
-      <c r="F216" t="s">
-        <v>344</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
-        <v>346</v>
-      </c>
-      <c r="D217" t="s">
-        <v>24</v>
-      </c>
-      <c r="E217" t="s">
-        <v>345</v>
-      </c>
-      <c r="F217" t="s">
-        <v>346</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C218" t="s">
+        <v>349</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" t="s">
         <v>348</v>
       </c>
-      <c r="D218" t="s">
-        <v>24</v>
-      </c>
-      <c r="E218" t="s">
-        <v>347</v>
-      </c>
       <c r="F218" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C219" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D219"/>
       <c r="E219"/>
@@ -6016,70 +5983,82 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C220" t="s">
-        <v>321</v>
-      </c>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
+        <v>352</v>
+      </c>
+      <c r="D220" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" t="s">
+        <v>351</v>
+      </c>
+      <c r="F220" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
         <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C221" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F221" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C222" t="s">
-        <v>353</v>
-      </c>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
+        <v>356</v>
+      </c>
+      <c r="D222" t="s">
+        <v>41</v>
+      </c>
+      <c r="E222" t="s">
+        <v>355</v>
+      </c>
+      <c r="F222" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E223" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F223" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224">
@@ -6087,19 +6066,19 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C224" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F224" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225">
@@ -6107,59 +6086,53 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C225" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D225" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E225" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F225" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C226" t="s">
-        <v>361</v>
-      </c>
-      <c r="D226" t="s">
-        <v>21</v>
-      </c>
-      <c r="E226" t="s">
-        <v>360</v>
-      </c>
-      <c r="F226" t="s">
-        <v>361</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
         <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C227" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F227" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="228">
@@ -6167,19 +6140,19 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D228" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E228" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F228" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="229">
@@ -6187,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D229"/>
       <c r="E229"/>
@@ -6198,57 +6171,51 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C230" t="s">
-        <v>368</v>
-      </c>
-      <c r="D230" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" t="s">
-        <v>367</v>
-      </c>
-      <c r="F230" t="s">
-        <v>368</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C231" t="s">
-        <v>370</v>
-      </c>
-      <c r="D231" t="s">
-        <v>21</v>
-      </c>
-      <c r="E231" t="s">
-        <v>369</v>
-      </c>
-      <c r="F231" t="s">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
+        <v>372</v>
+      </c>
+      <c r="C232" t="s">
         <v>371</v>
       </c>
-      <c r="C232" t="s">
-        <v>361</v>
-      </c>
-      <c r="D232"/>
-      <c r="E232"/>
-      <c r="F232"/>
+      <c r="D232" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232" t="s">
+        <v>372</v>
+      </c>
+      <c r="F232" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -6258,11 +6225,15 @@
         <v>372</v>
       </c>
       <c r="C233" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D233"/>
-      <c r="E233"/>
-      <c r="F233"/>
+      <c r="E233" t="s">
+        <v>372</v>
+      </c>
+      <c r="F233" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -6289,7 +6260,7 @@
         <v>374</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E235" t="s">
         <v>375</v>
@@ -6318,13 +6289,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
         <v>376</v>
-      </c>
-      <c r="C237" t="s">
-        <v>377</v>
       </c>
       <c r="D237"/>
       <c r="E237"/>
@@ -6332,40 +6303,36 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" t="s">
         <v>378</v>
       </c>
-      <c r="C238" t="s">
-        <v>377</v>
-      </c>
-      <c r="D238" t="s">
-        <v>41</v>
-      </c>
-      <c r="E238" t="s">
-        <v>378</v>
-      </c>
-      <c r="F238" t="s">
-        <v>377</v>
-      </c>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C239" t="s">
-        <v>377</v>
-      </c>
-      <c r="D239"/>
+        <v>380</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
       <c r="E239" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F239" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240">
@@ -6373,10 +6340,10 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="C240" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D240"/>
       <c r="E240"/>
@@ -6387,10 +6354,10 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C241" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D241"/>
       <c r="E241"/>
@@ -6398,226 +6365,236 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C242" t="s">
-        <v>383</v>
-      </c>
-      <c r="D242" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" t="s">
-        <v>382</v>
-      </c>
-      <c r="F242" t="s">
-        <v>383</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
-      </c>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
+        <v>388</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" t="s">
+        <v>387</v>
+      </c>
+      <c r="F243" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B244" t="s">
+        <v>389</v>
+      </c>
+      <c r="C244" t="s">
         <v>386</v>
       </c>
-      <c r="C244" t="s">
-        <v>387</v>
-      </c>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244"/>
+      <c r="D244" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" t="s">
+        <v>389</v>
+      </c>
+      <c r="F244" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C245" t="s">
-        <v>389</v>
-      </c>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245"/>
+        <v>391</v>
+      </c>
+      <c r="D245" t="s">
+        <v>34</v>
+      </c>
+      <c r="E245" t="s">
+        <v>390</v>
+      </c>
+      <c r="F245" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C246" t="s">
-        <v>391</v>
-      </c>
-      <c r="D246" t="s">
-        <v>15</v>
-      </c>
-      <c r="E246" t="s">
-        <v>390</v>
-      </c>
-      <c r="F246" t="s">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
     </row>
     <row r="247">
       <c r="A247" t="s">
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C247" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E247" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F247" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C248" t="s">
-        <v>394</v>
-      </c>
-      <c r="D248" t="s">
-        <v>34</v>
-      </c>
-      <c r="E248" t="s">
-        <v>393</v>
-      </c>
-      <c r="F248" t="s">
-        <v>394</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
         <v>396</v>
       </c>
-      <c r="D249"/>
-      <c r="E249"/>
-      <c r="F249"/>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" t="s">
+        <v>397</v>
+      </c>
+      <c r="F249" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C250" t="s">
-        <v>396</v>
-      </c>
-      <c r="D250" t="s">
-        <v>34</v>
-      </c>
-      <c r="E250" t="s">
-        <v>397</v>
-      </c>
-      <c r="F250" t="s">
-        <v>396</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C251" t="s">
-        <v>399</v>
-      </c>
-      <c r="D251"/>
-      <c r="E251"/>
-      <c r="F251"/>
+        <v>401</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>400</v>
+      </c>
+      <c r="F251" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
         <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C252" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E252" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F252" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C253" t="s">
-        <v>402</v>
-      </c>
-      <c r="D253"/>
-      <c r="E253"/>
-      <c r="F253"/>
+        <v>399</v>
+      </c>
+      <c r="D253" t="s">
+        <v>21</v>
+      </c>
+      <c r="E253" t="s">
+        <v>404</v>
+      </c>
+      <c r="F253" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C254" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254" t="s">
         <v>404</v>
       </c>
-      <c r="D254" t="s">
-        <v>15</v>
-      </c>
-      <c r="E254" t="s">
-        <v>403</v>
-      </c>
       <c r="F254" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -6631,7 +6608,7 @@
         <v>406</v>
       </c>
       <c r="D255" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E255" t="s">
         <v>405</v>
@@ -6648,16 +6625,16 @@
         <v>407</v>
       </c>
       <c r="C256" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D256" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E256" t="s">
         <v>407</v>
       </c>
       <c r="F256" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="257">
@@ -6665,68 +6642,58 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C257" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D257"/>
-      <c r="E257" t="s">
-        <v>407</v>
-      </c>
-      <c r="F257" t="s">
-        <v>402</v>
-      </c>
+      <c r="E257"/>
+      <c r="F257"/>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C258" t="s">
-        <v>409</v>
-      </c>
-      <c r="D258" t="s">
-        <v>21</v>
-      </c>
-      <c r="E258" t="s">
-        <v>408</v>
-      </c>
-      <c r="F258" t="s">
-        <v>409</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
         <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C259" t="s">
+        <v>412</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
         <v>411</v>
       </c>
-      <c r="D259" t="s">
-        <v>15</v>
-      </c>
-      <c r="E259" t="s">
-        <v>410</v>
-      </c>
       <c r="F259" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C260" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D260"/>
       <c r="E260"/>
@@ -6734,70 +6701,76 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C261" t="s">
-        <v>409</v>
-      </c>
-      <c r="D261"/>
-      <c r="E261"/>
-      <c r="F261"/>
+        <v>415</v>
+      </c>
+      <c r="D261" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" t="s">
+        <v>414</v>
+      </c>
+      <c r="F261" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C262" t="s">
-        <v>415</v>
-      </c>
-      <c r="D262" t="s">
-        <v>18</v>
-      </c>
-      <c r="E262" t="s">
-        <v>414</v>
-      </c>
-      <c r="F262" t="s">
-        <v>415</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B263" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C263" t="s">
-        <v>394</v>
-      </c>
-      <c r="D263"/>
-      <c r="E263"/>
-      <c r="F263"/>
+        <v>417</v>
+      </c>
+      <c r="D263" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" t="s">
+        <v>418</v>
+      </c>
+      <c r="F263" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
         <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C264" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D264" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F264" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265">
@@ -6805,10 +6778,10 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C265" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D265"/>
       <c r="E265"/>
@@ -6819,91 +6792,91 @@
         <v>12</v>
       </c>
       <c r="B266" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C266" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D266" t="s">
         <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F266" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C267" t="s">
+        <v>424</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267" t="s">
         <v>423</v>
       </c>
-      <c r="D267" t="s">
-        <v>24</v>
-      </c>
-      <c r="E267" t="s">
-        <v>422</v>
-      </c>
       <c r="F267" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B268" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C268" t="s">
+        <v>426</v>
+      </c>
+      <c r="D268" t="s">
+        <v>24</v>
+      </c>
+      <c r="E268" t="s">
         <v>425</v>
       </c>
-      <c r="D268"/>
-      <c r="E268"/>
-      <c r="F268"/>
+      <c r="F268" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C269" t="s">
-        <v>427</v>
-      </c>
-      <c r="D269" t="s">
-        <v>21</v>
-      </c>
-      <c r="E269" t="s">
-        <v>426</v>
-      </c>
-      <c r="F269" t="s">
-        <v>427</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B270" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C270" t="s">
-        <v>427</v>
-      </c>
-      <c r="D270"/>
+        <v>429</v>
+      </c>
+      <c r="D270" t="s">
+        <v>41</v>
+      </c>
       <c r="E270" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F270" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271">
@@ -6911,93 +6884,93 @@
         <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C271" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D271" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F271" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C272" t="s">
-        <v>284</v>
-      </c>
-      <c r="D272"/>
-      <c r="E272"/>
-      <c r="F272"/>
+        <v>433</v>
+      </c>
+      <c r="D272" t="s">
+        <v>21</v>
+      </c>
+      <c r="E272" t="s">
+        <v>432</v>
+      </c>
+      <c r="F272" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C273" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D273" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E273" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F273" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C274" t="s">
-        <v>434</v>
-      </c>
-      <c r="D274" t="s">
-        <v>21</v>
-      </c>
-      <c r="E274" t="s">
-        <v>433</v>
-      </c>
-      <c r="F274" t="s">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
         <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C275" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F275" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="276">
@@ -7005,19 +6978,19 @@
         <v>12</v>
       </c>
       <c r="B276" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C276" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D276" t="s">
         <v>24</v>
       </c>
       <c r="E276" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F276" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="277">
@@ -7025,10 +6998,10 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C277" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D277"/>
       <c r="E277"/>
@@ -7039,107 +7012,113 @@
         <v>12</v>
       </c>
       <c r="B278" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C278" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D278" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E278" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F278" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C279" t="s">
-        <v>444</v>
-      </c>
-      <c r="D279" t="s">
-        <v>24</v>
-      </c>
-      <c r="E279" t="s">
-        <v>443</v>
-      </c>
-      <c r="F279" t="s">
-        <v>444</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B280" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C280" t="s">
-        <v>446</v>
-      </c>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
+        <v>448</v>
+      </c>
+      <c r="D280" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" t="s">
+        <v>447</v>
+      </c>
+      <c r="F280" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
         <v>12</v>
       </c>
       <c r="B281" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C281" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D281" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E281" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F281" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C282" t="s">
-        <v>449</v>
-      </c>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
+        <v>452</v>
+      </c>
+      <c r="D282" t="s">
+        <v>18</v>
+      </c>
+      <c r="E282" t="s">
+        <v>451</v>
+      </c>
+      <c r="F282" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C283" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D283" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E283" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F283" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="284">
@@ -7147,19 +7126,19 @@
         <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C284" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D284" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E284" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F284" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285">
@@ -7167,59 +7146,51 @@
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C285" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E285" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F285" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B286" t="s">
-        <v>456</v>
-      </c>
-      <c r="C286" t="s">
-        <v>457</v>
-      </c>
-      <c r="D286" t="s">
-        <v>21</v>
-      </c>
-      <c r="E286" t="s">
-        <v>456</v>
-      </c>
-      <c r="F286" t="s">
-        <v>457</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286"/>
     </row>
     <row r="287">
       <c r="A287" t="s">
         <v>12</v>
       </c>
       <c r="B287" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C287" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D287" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E287" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F287" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="288">
@@ -7227,51 +7198,59 @@
         <v>12</v>
       </c>
       <c r="B288" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C288" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D288" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E288" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F288" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B289" t="s">
-        <v>462</v>
-      </c>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-      <c r="F289"/>
+        <v>464</v>
+      </c>
+      <c r="C289" t="s">
+        <v>465</v>
+      </c>
+      <c r="D289" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" t="s">
+        <v>464</v>
+      </c>
+      <c r="F289" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
         <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C290" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E290" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F290" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291">
@@ -7279,19 +7258,19 @@
         <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C291" t="s">
-        <v>466</v>
+        <v>103</v>
       </c>
       <c r="D291" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E291" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F291" t="s">
-        <v>466</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292">
@@ -7299,79 +7278,71 @@
         <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C292" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D292" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E292" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F292" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C293" t="s">
-        <v>470</v>
-      </c>
-      <c r="D293" t="s">
-        <v>24</v>
-      </c>
-      <c r="E293" t="s">
-        <v>469</v>
-      </c>
-      <c r="F293" t="s">
-        <v>470</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
         <v>12</v>
       </c>
       <c r="B294" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C294" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E294" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F294" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C295" t="s">
+        <v>473</v>
+      </c>
+      <c r="D295"/>
+      <c r="E295" t="s">
         <v>472</v>
       </c>
-      <c r="D295" t="s">
-        <v>24</v>
-      </c>
-      <c r="E295" t="s">
-        <v>469</v>
-      </c>
       <c r="F295" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="296">
@@ -7379,24 +7350,24 @@
         <v>12</v>
       </c>
       <c r="B296" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C296" t="s">
-        <v>103</v>
+        <v>475</v>
       </c>
       <c r="D296" t="s">
         <v>21</v>
       </c>
       <c r="E296" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F296" t="s">
-        <v>103</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
         <v>474</v>
@@ -7404,9 +7375,7 @@
       <c r="C297" t="s">
         <v>475</v>
       </c>
-      <c r="D297" t="s">
-        <v>18</v>
-      </c>
+      <c r="D297"/>
       <c r="E297" t="s">
         <v>474</v>
       </c>
@@ -7416,41 +7385,45 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B298" t="s">
         <v>476</v>
       </c>
       <c r="C298" t="s">
-        <v>455</v>
-      </c>
-      <c r="D298"/>
-      <c r="E298"/>
-      <c r="F298"/>
+        <v>437</v>
+      </c>
+      <c r="D298" t="s">
+        <v>21</v>
+      </c>
+      <c r="E298" t="s">
+        <v>476</v>
+      </c>
+      <c r="F298" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C299" t="s">
-        <v>449</v>
-      </c>
-      <c r="D299" t="s">
-        <v>21</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D299"/>
       <c r="E299" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F299" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B300" t="s">
         <v>477</v>
@@ -7458,12 +7431,14 @@
       <c r="C300" t="s">
         <v>478</v>
       </c>
-      <c r="D300"/>
+      <c r="D300" t="s">
+        <v>24</v>
+      </c>
       <c r="E300" t="s">
         <v>477</v>
       </c>
       <c r="F300" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301">
@@ -7477,7 +7452,7 @@
         <v>480</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E301" t="s">
         <v>479</v>
@@ -7488,20 +7463,22 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B302" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C302" t="s">
-        <v>480</v>
-      </c>
-      <c r="D302"/>
+        <v>482</v>
+      </c>
+      <c r="D302" t="s">
+        <v>41</v>
+      </c>
       <c r="E302" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F302" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="303">
@@ -7509,37 +7486,39 @@
         <v>12</v>
       </c>
       <c r="B303" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C303" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="D303" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E303" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F303" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B304" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C304" t="s">
-        <v>440</v>
-      </c>
-      <c r="D304"/>
+        <v>486</v>
+      </c>
+      <c r="D304" t="s">
+        <v>18</v>
+      </c>
       <c r="E304" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F304" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
     </row>
     <row r="305">
@@ -7547,19 +7526,19 @@
         <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C305" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D305" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E305" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F305" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="306">
@@ -7567,59 +7546,53 @@
         <v>12</v>
       </c>
       <c r="B306" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C306" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D306" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E306" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F306" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C307" t="s">
-        <v>486</v>
-      </c>
-      <c r="D307" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" t="s">
-        <v>485</v>
-      </c>
-      <c r="F307" t="s">
-        <v>486</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
     </row>
     <row r="308">
       <c r="A308" t="s">
         <v>12</v>
       </c>
       <c r="B308" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C308" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D308" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E308" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F308" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309">
@@ -7627,19 +7600,19 @@
         <v>12</v>
       </c>
       <c r="B309" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C309" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D309" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E309" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F309" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="310">
@@ -7647,19 +7620,19 @@
         <v>12</v>
       </c>
       <c r="B310" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C310" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D310" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E310" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F310" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="311">
@@ -7667,19 +7640,19 @@
         <v>12</v>
       </c>
       <c r="B311" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C311" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D311" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E311" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F311" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312">
@@ -7687,73 +7660,73 @@
         <v>12</v>
       </c>
       <c r="B312" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C312" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D312" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F312" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B313" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C313" t="s">
-        <v>498</v>
-      </c>
-      <c r="D313"/>
-      <c r="E313"/>
-      <c r="F313"/>
+        <v>503</v>
+      </c>
+      <c r="D313" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" t="s">
+        <v>502</v>
+      </c>
+      <c r="F313" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C314" t="s">
-        <v>498</v>
-      </c>
-      <c r="D314" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" t="s">
-        <v>499</v>
-      </c>
-      <c r="F314" t="s">
-        <v>498</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
         <v>12</v>
       </c>
       <c r="B315" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C315" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F315" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="316">
@@ -7761,19 +7734,19 @@
         <v>12</v>
       </c>
       <c r="B316" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C316" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D316" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F316" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="317">
@@ -7781,16 +7754,16 @@
         <v>12</v>
       </c>
       <c r="B317" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C317" t="s">
         <v>505</v>
       </c>
       <c r="D317" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E317" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F317" t="s">
         <v>505</v>
@@ -7798,53 +7771,45 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C318" t="s">
-        <v>507</v>
-      </c>
-      <c r="D318" t="s">
-        <v>24</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D318"/>
       <c r="E318" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F318" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C319" t="s">
-        <v>509</v>
-      </c>
-      <c r="D319" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" t="s">
-        <v>508</v>
-      </c>
-      <c r="F319" t="s">
-        <v>509</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C320" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
@@ -7855,19 +7820,19 @@
         <v>12</v>
       </c>
       <c r="B321" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C321" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E321" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F321" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322">
@@ -7875,158 +7840,150 @@
         <v>12</v>
       </c>
       <c r="B322" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C322" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D322" t="s">
         <v>24</v>
       </c>
       <c r="E322" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F322" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B323" t="s">
-        <v>516</v>
-      </c>
-      <c r="C323" t="s">
-        <v>511</v>
-      </c>
-      <c r="D323" t="s">
-        <v>21</v>
-      </c>
-      <c r="E323" t="s">
-        <v>516</v>
-      </c>
-      <c r="F323" t="s">
-        <v>511</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B324" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C324" t="s">
-        <v>511</v>
-      </c>
-      <c r="D324"/>
+        <v>514</v>
+      </c>
+      <c r="D324" t="s">
+        <v>21</v>
+      </c>
       <c r="E324" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F324" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B325" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C325" t="s">
-        <v>518</v>
-      </c>
-      <c r="D325"/>
-      <c r="E325"/>
-      <c r="F325"/>
+        <v>521</v>
+      </c>
+      <c r="D325" t="s">
+        <v>34</v>
+      </c>
+      <c r="E325" t="s">
+        <v>520</v>
+      </c>
+      <c r="F325" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B326" t="s">
-        <v>519</v>
-      </c>
-      <c r="C326" t="s">
-        <v>520</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
       <c r="F326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C327" t="s">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s">
-        <v>15</v>
-      </c>
-      <c r="E327" t="s">
-        <v>521</v>
-      </c>
-      <c r="F327" t="s">
-        <v>11</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
         <v>12</v>
       </c>
       <c r="B328" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C328" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D328" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E328" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F328" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
         <v>524</v>
       </c>
-      <c r="C329"/>
+      <c r="C329" t="s">
+        <v>523</v>
+      </c>
       <c r="D329"/>
-      <c r="E329"/>
-      <c r="F329"/>
+      <c r="E329" t="s">
+        <v>524</v>
+      </c>
+      <c r="F329" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B330" t="s">
         <v>525</v>
       </c>
       <c r="C330" t="s">
-        <v>520</v>
-      </c>
-      <c r="D330" t="s">
-        <v>21</v>
-      </c>
-      <c r="E330" t="s">
-        <v>525</v>
-      </c>
-      <c r="F330" t="s">
-        <v>520</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -8039,7 +7996,7 @@
         <v>527</v>
       </c>
       <c r="D331" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E331" t="s">
         <v>526</v>
@@ -8050,140 +8007,156 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B332" t="s">
         <v>528</v>
       </c>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
-      <c r="F332"/>
+      <c r="C332" t="s">
+        <v>529</v>
+      </c>
+      <c r="D332" t="s">
+        <v>41</v>
+      </c>
+      <c r="E332" t="s">
+        <v>528</v>
+      </c>
+      <c r="F332" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C333" t="s">
-        <v>529</v>
-      </c>
-      <c r="D333"/>
-      <c r="E333"/>
-      <c r="F333"/>
+        <v>531</v>
+      </c>
+      <c r="D333" t="s">
+        <v>34</v>
+      </c>
+      <c r="E333" t="s">
+        <v>530</v>
+      </c>
+      <c r="F333" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C334" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D334" t="s">
         <v>18</v>
       </c>
       <c r="E334" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F334" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C335" t="s">
-        <v>529</v>
-      </c>
-      <c r="D335"/>
+        <v>535</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
       <c r="E335" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F335" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C336" t="s">
-        <v>527</v>
-      </c>
-      <c r="D336"/>
-      <c r="E336"/>
-      <c r="F336"/>
+        <v>537</v>
+      </c>
+      <c r="D336" t="s">
+        <v>18</v>
+      </c>
+      <c r="E336" t="s">
+        <v>536</v>
+      </c>
+      <c r="F336" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
         <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C337" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D337" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E337" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F337" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C338" t="s">
-        <v>535</v>
-      </c>
-      <c r="D338" t="s">
-        <v>41</v>
-      </c>
-      <c r="E338" t="s">
-        <v>534</v>
-      </c>
-      <c r="F338" t="s">
-        <v>535</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
         <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C339" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D339" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E339" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F339" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="340">
@@ -8191,19 +8164,19 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C340" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D340" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F340" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="341">
@@ -8211,241 +8184,107 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C341" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E341" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F341" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C342" t="s">
-        <v>543</v>
-      </c>
-      <c r="D342" t="s">
-        <v>18</v>
-      </c>
-      <c r="E342" t="s">
-        <v>542</v>
-      </c>
-      <c r="F342" t="s">
-        <v>543</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C343" t="s">
-        <v>544</v>
-      </c>
-      <c r="D343" t="s">
-        <v>18</v>
-      </c>
-      <c r="E343" t="s">
-        <v>542</v>
-      </c>
-      <c r="F343" t="s">
-        <v>543</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
     </row>
     <row r="344">
       <c r="A344" t="s">
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C344" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D344" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E344" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F344" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C345" t="s">
-        <v>548</v>
-      </c>
-      <c r="D345"/>
-      <c r="E345"/>
-      <c r="F345"/>
+        <v>553</v>
+      </c>
+      <c r="D345" t="s">
+        <v>24</v>
+      </c>
+      <c r="E345" t="s">
+        <v>552</v>
+      </c>
+      <c r="F345" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
         <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C346" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D346" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E346" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F346" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>12</v>
-      </c>
-      <c r="B347" t="s">
-        <v>551</v>
-      </c>
-      <c r="C347" t="s">
-        <v>552</v>
-      </c>
-      <c r="D347" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" t="s">
-        <v>551</v>
-      </c>
-      <c r="F347" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>12</v>
-      </c>
-      <c r="B348" t="s">
-        <v>553</v>
-      </c>
-      <c r="C348" t="s">
-        <v>554</v>
-      </c>
-      <c r="D348" t="s">
-        <v>21</v>
-      </c>
-      <c r="E348" t="s">
-        <v>553</v>
-      </c>
-      <c r="F348" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>9</v>
-      </c>
-      <c r="B349" t="s">
         <v>555</v>
-      </c>
-      <c r="C349" t="s">
-        <v>423</v>
-      </c>
-      <c r="D349"/>
-      <c r="E349"/>
-      <c r="F349"/>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>6</v>
-      </c>
-      <c r="B350" t="s">
-        <v>556</v>
-      </c>
-      <c r="C350" t="s">
-        <v>423</v>
-      </c>
-      <c r="D350"/>
-      <c r="E350"/>
-      <c r="F350"/>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>12</v>
-      </c>
-      <c r="B351" t="s">
-        <v>557</v>
-      </c>
-      <c r="C351" t="s">
-        <v>558</v>
-      </c>
-      <c r="D351" t="s">
-        <v>24</v>
-      </c>
-      <c r="E351" t="s">
-        <v>557</v>
-      </c>
-      <c r="F351" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>12</v>
-      </c>
-      <c r="B352" t="s">
-        <v>559</v>
-      </c>
-      <c r="C352" t="s">
-        <v>560</v>
-      </c>
-      <c r="D352" t="s">
-        <v>24</v>
-      </c>
-      <c r="E352" t="s">
-        <v>559</v>
-      </c>
-      <c r="F352" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>12</v>
-      </c>
-      <c r="B353" t="s">
-        <v>561</v>
-      </c>
-      <c r="C353" t="s">
-        <v>562</v>
-      </c>
-      <c r="D353" t="s">
-        <v>24</v>
-      </c>
-      <c r="E353" t="s">
-        <v>561</v>
-      </c>
-      <c r="F353" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -194,6 +194,12 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">moonSun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEIJING</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEL</t>
   </si>
   <si>
@@ -317,9 +323,6 @@
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">moonSun</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
     <t xml:space="preserve">Liechtenstein</t>
   </si>
   <si>
+    <t xml:space="preserve">LONDON</t>
+  </si>
+  <si>
     <t xml:space="preserve">LT</t>
   </si>
   <si>
@@ -965,6 +971,9 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">MADRID</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAR</t>
   </si>
   <si>
@@ -1097,6 +1106,9 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">NEWYORK</t>
+  </si>
+  <si>
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
@@ -1190,6 +1202,9 @@
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
+    <t xml:space="preserve">PARIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE</t>
   </si>
   <si>
@@ -1391,9 +1406,6 @@
     <t xml:space="preserve">Somalia</t>
   </si>
   <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRB</t>
   </si>
   <si>
@@ -1520,6 +1532,9 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">TOKYO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPE</t>
   </si>
   <si>
@@ -1566,9 +1581,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
   </si>
   <si>
     <t xml:space="preserve">UKR</t>
@@ -2513,37 +2525,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -2551,22 +2557,20 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -2580,7 +2584,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
@@ -2600,7 +2604,7 @@
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>65</v>
@@ -2611,7 +2615,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -2619,13 +2623,19 @@
       <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -2633,15 +2643,9 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" t="s">
-        <v>70</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2674,7 +2678,7 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>73</v>
@@ -2714,7 +2718,7 @@
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
         <v>77</v>
@@ -2725,7 +2729,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
@@ -2733,53 +2737,53 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>82</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
@@ -2787,66 +2791,66 @@
       <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44"/>
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45"/>
+      <c r="E45" t="s">
         <v>88</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -2860,7 +2864,7 @@
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
         <v>89</v>
@@ -2877,35 +2881,41 @@
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
         <v>93</v>
       </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>94</v>
@@ -2913,15 +2923,9 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" t="s">
-        <v>95</v>
-      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -2931,54 +2935,54 @@
         <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51"/>
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
@@ -2992,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>99</v>
@@ -3003,25 +3007,33 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -3032,19 +3044,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
@@ -3052,10 +3064,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -3066,19 +3078,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
         <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
@@ -3086,10 +3098,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>108</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -3100,19 +3112,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
@@ -3120,17 +3132,17 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
@@ -3138,19 +3150,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
@@ -3158,10 +3170,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -3172,19 +3184,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
@@ -3192,10 +3204,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -3206,19 +3218,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
@@ -3226,19 +3238,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
@@ -3246,19 +3258,19 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -3266,17 +3278,17 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
@@ -3284,19 +3296,19 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
@@ -3304,19 +3316,19 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
@@ -3324,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -3338,19 +3350,19 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" t="s">
-        <v>130</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>131</v>
-      </c>
-      <c r="F73" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -3358,10 +3370,10 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -3372,19 +3384,19 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -3392,19 +3404,19 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -3412,19 +3424,19 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -3432,19 +3444,19 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -3452,19 +3464,19 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
@@ -3472,10 +3484,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -3486,19 +3498,19 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" t="s">
         <v>145</v>
-      </c>
-      <c r="C81" t="s">
-        <v>144</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>145</v>
-      </c>
-      <c r="F81" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -3506,17 +3518,17 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
         <v>145</v>
-      </c>
-      <c r="C82" t="s">
-        <v>144</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
         <v>145</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -3524,10 +3536,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -3538,19 +3550,19 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
@@ -3558,10 +3570,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3572,19 +3584,19 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87">
@@ -3592,10 +3604,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -3606,19 +3618,19 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89">
@@ -3626,10 +3638,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -3640,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -3654,19 +3666,19 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
         <v>159</v>
-      </c>
-      <c r="C91" t="s">
-        <v>158</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" t="s">
         <v>159</v>
-      </c>
-      <c r="F91" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="92">
@@ -3674,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -3688,10 +3700,10 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -3702,19 +3714,19 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
         <v>164</v>
-      </c>
-      <c r="C94" t="s">
-        <v>163</v>
       </c>
       <c r="D94" t="s">
         <v>34</v>
       </c>
       <c r="E94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" t="s">
         <v>164</v>
-      </c>
-      <c r="F94" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="95">
@@ -3722,10 +3734,10 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3736,10 +3748,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
@@ -3750,19 +3762,19 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
         <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>168</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
       </c>
       <c r="E97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" t="s">
         <v>169</v>
-      </c>
-      <c r="F97" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="98">
@@ -3770,19 +3782,19 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99">
@@ -3790,19 +3802,19 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
@@ -3810,19 +3822,19 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101">
@@ -3830,10 +3842,10 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -3844,19 +3856,19 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
         <v>178</v>
-      </c>
-      <c r="C102" t="s">
-        <v>177</v>
       </c>
       <c r="D102" t="s">
         <v>21</v>
       </c>
       <c r="E102" t="s">
+        <v>179</v>
+      </c>
+      <c r="F102" t="s">
         <v>178</v>
-      </c>
-      <c r="F102" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="103">
@@ -3864,17 +3876,17 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
         <v>178</v>
-      </c>
-      <c r="C103" t="s">
-        <v>177</v>
       </c>
       <c r="D103"/>
       <c r="E103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" t="s">
         <v>178</v>
-      </c>
-      <c r="F103" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="104">
@@ -3882,19 +3894,19 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
@@ -3902,17 +3914,17 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
@@ -3920,19 +3932,19 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107">
@@ -3940,10 +3952,10 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
@@ -3954,19 +3966,19 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D108" t="s">
         <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109">
@@ -3974,19 +3986,19 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110">
@@ -3994,112 +4006,114 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111"/>
+        <v>188</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
+        <v>189</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" t="s">
         <v>189</v>
       </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
-      <c r="D113" t="s">
-        <v>21</v>
-      </c>
+      <c r="D113"/>
       <c r="E113" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" t="s">
         <v>189</v>
-      </c>
-      <c r="F113" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114"/>
+        <v>192</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
       <c r="E114" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" t="s">
-        <v>190</v>
-      </c>
-      <c r="F115" t="s">
-        <v>191</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
@@ -4107,67 +4121,67 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
+        <v>198</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>197</v>
+      </c>
+      <c r="F117" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F118" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" t="s">
-        <v>198</v>
-      </c>
-      <c r="F119" t="s">
-        <v>199</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
@@ -4175,36 +4189,42 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
+        <v>205</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
         <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
@@ -4212,19 +4232,19 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124">
@@ -4232,84 +4252,78 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F124" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>209</v>
-      </c>
-      <c r="D125" t="s">
-        <v>21</v>
-      </c>
-      <c r="E125" t="s">
-        <v>208</v>
-      </c>
-      <c r="F125" t="s">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
-      </c>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
+        <v>214</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" t="s">
-        <v>212</v>
-      </c>
-      <c r="F127" t="s">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
@@ -4317,90 +4331,96 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" t="s">
         <v>216</v>
       </c>
-      <c r="C129" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>218</v>
+      </c>
+      <c r="F129" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>218</v>
-      </c>
-      <c r="F131" t="s">
-        <v>219</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
-      </c>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
+        <v>222</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134">
@@ -4408,19 +4428,19 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C134" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F134" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135">
@@ -4428,19 +4448,19 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F135" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136">
@@ -4448,222 +4468,216 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F136" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
-      </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" t="s">
-        <v>229</v>
-      </c>
-      <c r="F137" t="s">
-        <v>230</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
+        <v>233</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" t="s">
-        <v>232</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
+        <v>236</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>237</v>
+      </c>
+      <c r="F140" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
-      </c>
-      <c r="D141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F141" t="s">
-        <v>235</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
+        <v>239</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>240</v>
+      </c>
+      <c r="F142" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
+        <v>240</v>
+      </c>
+      <c r="C143" t="s">
         <v>239</v>
       </c>
-      <c r="C143" t="s">
-        <v>238</v>
-      </c>
-      <c r="D143" t="s">
-        <v>21</v>
-      </c>
+      <c r="D143"/>
       <c r="E143" t="s">
+        <v>240</v>
+      </c>
+      <c r="F143" t="s">
         <v>239</v>
-      </c>
-      <c r="F143" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D144"/>
-      <c r="E144" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" t="s">
-        <v>238</v>
-      </c>
+      <c r="E144"/>
+      <c r="F144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
+        <v>242</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>243</v>
+      </c>
+      <c r="F145" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" t="s">
         <v>242</v>
       </c>
-      <c r="C146" t="s">
-        <v>241</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
+      <c r="D146"/>
       <c r="E146" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146" t="s">
         <v>242</v>
-      </c>
-      <c r="F146" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D147"/>
-      <c r="E147" t="s">
-        <v>242</v>
-      </c>
-      <c r="F147" t="s">
-        <v>241</v>
-      </c>
+      <c r="E147"/>
+      <c r="F147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D148"/>
       <c r="E148"/>
@@ -4674,10 +4688,10 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -4685,92 +4699,98 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>248</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
+        <v>249</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>250</v>
+      </c>
+      <c r="F150" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
         <v>249</v>
       </c>
-      <c r="C151" t="s">
-        <v>248</v>
-      </c>
-      <c r="D151" t="s">
-        <v>15</v>
-      </c>
+      <c r="D151"/>
       <c r="E151" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" t="s">
         <v>249</v>
-      </c>
-      <c r="F151" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C152" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152"/>
+        <v>252</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F152" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
+        <v>245</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="s">
         <v>251</v>
       </c>
-      <c r="D153" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" t="s">
-        <v>250</v>
-      </c>
       <c r="F153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
-      </c>
-      <c r="D154"/>
+        <v>254</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
       <c r="E154" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F154" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155">
@@ -4778,181 +4798,181 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F155" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s">
-        <v>255</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" t="s">
-        <v>254</v>
-      </c>
-      <c r="F156" t="s">
-        <v>255</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C157" t="s">
-        <v>257</v>
-      </c>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
+        <v>258</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" t="s">
+        <v>259</v>
+      </c>
+      <c r="F157" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
+        <v>259</v>
+      </c>
+      <c r="C158" t="s">
         <v>258</v>
       </c>
-      <c r="C158" t="s">
-        <v>257</v>
-      </c>
-      <c r="D158" t="s">
-        <v>21</v>
-      </c>
+      <c r="D158"/>
       <c r="E158" t="s">
+        <v>259</v>
+      </c>
+      <c r="F158" t="s">
         <v>258</v>
-      </c>
-      <c r="F158" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>257</v>
-      </c>
-      <c r="D159"/>
+        <v>247</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
       <c r="E159" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F159" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C160" t="s">
-        <v>246</v>
-      </c>
-      <c r="D160" t="s">
-        <v>21</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D160"/>
       <c r="E160" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C161" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D161"/>
-      <c r="E161" t="s">
-        <v>259</v>
-      </c>
-      <c r="F161" t="s">
-        <v>246</v>
-      </c>
+      <c r="E161"/>
+      <c r="F161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C162" t="s">
-        <v>261</v>
-      </c>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
+        <v>262</v>
+      </c>
+      <c r="D162" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" t="s">
+        <v>263</v>
+      </c>
+      <c r="F162" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
+        <v>263</v>
+      </c>
+      <c r="C163" t="s">
         <v>262</v>
       </c>
-      <c r="C163" t="s">
-        <v>261</v>
-      </c>
-      <c r="D163" t="s">
-        <v>21</v>
-      </c>
+      <c r="D163"/>
       <c r="E163" t="s">
+        <v>263</v>
+      </c>
+      <c r="F163" t="s">
         <v>262</v>
-      </c>
-      <c r="F163" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
-      </c>
-      <c r="D164"/>
+        <v>265</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F164" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165">
@@ -4960,103 +4980,111 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C166" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>265</v>
-      </c>
-      <c r="F166" t="s">
-        <v>266</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
-      </c>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
+        <v>270</v>
+      </c>
+      <c r="C167" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>270</v>
+      </c>
+      <c r="F167" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
+      <c r="E168" t="s">
+        <v>270</v>
+      </c>
+      <c r="F168" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C169" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F169" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>268</v>
-      </c>
-      <c r="D170"/>
+        <v>274</v>
+      </c>
+      <c r="D170" t="s">
+        <v>24</v>
+      </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F170" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171">
@@ -5064,19 +5092,19 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D171" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F171" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172">
@@ -5084,111 +5112,111 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C172" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F172" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C173" t="s">
-        <v>275</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D173"/>
       <c r="E173" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C174" t="s">
-        <v>277</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" t="s">
-        <v>276</v>
-      </c>
-      <c r="F174" t="s">
-        <v>277</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175"/>
+        <v>283</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
       <c r="E175" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F175" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C176" t="s">
-        <v>280</v>
-      </c>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
+        <v>285</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>284</v>
+      </c>
+      <c r="F176" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C177" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F177" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178">
@@ -5196,19 +5224,19 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C178" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F178" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179">
@@ -5216,19 +5244,19 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C179" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F179" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180">
@@ -5236,19 +5264,19 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E180" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F180" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181">
@@ -5256,19 +5284,19 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C181" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F181" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182">
@@ -5276,19 +5304,19 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C182" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E182" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F182" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183">
@@ -5296,19 +5324,19 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C183" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D183" t="s">
         <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F183" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184">
@@ -5316,19 +5344,19 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C184" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F184" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185">
@@ -5336,289 +5364,273 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C185" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F185" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
-      </c>
-      <c r="C186" t="s">
-        <v>290</v>
-      </c>
-      <c r="D186" t="s">
-        <v>15</v>
-      </c>
-      <c r="E186" t="s">
-        <v>299</v>
-      </c>
-      <c r="F186" t="s">
-        <v>290</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C187" t="s">
-        <v>301</v>
-      </c>
-      <c r="D187" t="s">
-        <v>21</v>
-      </c>
-      <c r="E187" t="s">
-        <v>300</v>
-      </c>
-      <c r="F187" t="s">
-        <v>301</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C188" t="s">
-        <v>303</v>
-      </c>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
+        <v>305</v>
+      </c>
+      <c r="D188" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188" t="s">
+        <v>306</v>
+      </c>
+      <c r="F188" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C189" t="s">
-        <v>303</v>
-      </c>
-      <c r="D189" t="s">
-        <v>21</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D189"/>
       <c r="E189" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F189" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C190" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D190"/>
-      <c r="E190" t="s">
-        <v>304</v>
-      </c>
-      <c r="F190" t="s">
-        <v>303</v>
-      </c>
+      <c r="E190"/>
+      <c r="F190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C191" t="s">
-        <v>306</v>
-      </c>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
+        <v>308</v>
+      </c>
+      <c r="D191" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" t="s">
+        <v>309</v>
+      </c>
+      <c r="F191" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C192" t="s">
-        <v>306</v>
-      </c>
-      <c r="D192" t="s">
-        <v>21</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D192"/>
       <c r="E192" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F192" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C193" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D193"/>
-      <c r="E193" t="s">
-        <v>307</v>
-      </c>
-      <c r="F193" t="s">
-        <v>306</v>
-      </c>
+      <c r="E193"/>
+      <c r="F193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C194" t="s">
-        <v>309</v>
-      </c>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
+        <v>311</v>
+      </c>
+      <c r="D194" t="s">
+        <v>21</v>
+      </c>
+      <c r="E194" t="s">
+        <v>312</v>
+      </c>
+      <c r="F194" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C195" t="s">
-        <v>309</v>
-      </c>
-      <c r="D195" t="s">
-        <v>21</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D195"/>
       <c r="E195" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F195" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C196" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D196"/>
-      <c r="E196" t="s">
-        <v>310</v>
-      </c>
-      <c r="F196" t="s">
-        <v>309</v>
-      </c>
+      <c r="E196"/>
+      <c r="F196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C197" t="s">
-        <v>312</v>
-      </c>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
+        <v>316</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" t="s">
+        <v>315</v>
+      </c>
+      <c r="F197" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F198" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>315</v>
-      </c>
-      <c r="C199" t="s">
-        <v>316</v>
-      </c>
-      <c r="D199" t="s">
-        <v>24</v>
-      </c>
-      <c r="E199" t="s">
-        <v>315</v>
-      </c>
-      <c r="F199" t="s">
-        <v>316</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C200" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D200" t="s">
         <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F200" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201">
@@ -5626,19 +5638,19 @@
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C201" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F201" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202">
@@ -5646,19 +5658,19 @@
         <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C202" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D202" t="s">
         <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F202" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203">
@@ -5666,19 +5678,19 @@
         <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C203" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F203" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204">
@@ -5686,19 +5698,19 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C204" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F204" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205">
@@ -5706,17 +5718,17 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C205" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D205"/>
       <c r="E205" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F205" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206">
@@ -5724,19 +5736,19 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C206" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D206" t="s">
         <v>21</v>
       </c>
       <c r="E206" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F206" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207">
@@ -5744,19 +5756,19 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C207" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D207" t="s">
         <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F207" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208">
@@ -5764,19 +5776,19 @@
         <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C208" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D208" t="s">
         <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F208" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209">
@@ -5784,19 +5796,19 @@
         <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C209" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D209" t="s">
         <v>21</v>
       </c>
       <c r="E209" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F209" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="210">
@@ -5804,19 +5816,19 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C210" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F210" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211">
@@ -5824,19 +5836,19 @@
         <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C211" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D211" t="s">
         <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F211" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212">
@@ -5844,19 +5856,19 @@
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C212" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D212" t="s">
         <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F212" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213">
@@ -5864,19 +5876,19 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C213" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F213" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214">
@@ -5884,19 +5896,19 @@
         <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C214" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D214" t="s">
         <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F214" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215">
@@ -5904,19 +5916,19 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C215" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D215" t="s">
         <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F215" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216">
@@ -5924,10 +5936,10 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C216" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D216"/>
       <c r="E216"/>
@@ -5938,10 +5950,10 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C217" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D217"/>
       <c r="E217"/>
@@ -5952,19 +5964,19 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C218" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D218" t="s">
         <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F218" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="219">
@@ -5972,10 +5984,10 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C219" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D219"/>
       <c r="E219"/>
@@ -5986,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C220" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D220" t="s">
         <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F220" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="221">
@@ -6006,19 +6018,19 @@
         <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F221" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222">
@@ -6026,19 +6038,19 @@
         <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C222" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D222" t="s">
         <v>41</v>
       </c>
       <c r="E222" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F222" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223">
@@ -6046,19 +6058,19 @@
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D223" t="s">
         <v>21</v>
       </c>
       <c r="E223" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F223" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224">
@@ -6066,118 +6078,116 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C224" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F224" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B225" t="s">
-        <v>361</v>
-      </c>
-      <c r="C225" t="s">
-        <v>362</v>
-      </c>
-      <c r="D225" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" t="s">
-        <v>361</v>
-      </c>
-      <c r="F225" t="s">
-        <v>362</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
-      </c>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226"/>
+        <v>366</v>
+      </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" t="s">
+        <v>365</v>
+      </c>
+      <c r="F226" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C227" t="s">
-        <v>365</v>
-      </c>
-      <c r="D227" t="s">
-        <v>24</v>
-      </c>
-      <c r="E227" t="s">
-        <v>364</v>
-      </c>
-      <c r="F227" t="s">
-        <v>365</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C228" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F228" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
-      </c>
-      <c r="D229"/>
-      <c r="E229"/>
-      <c r="F229"/>
+        <v>371</v>
+      </c>
+      <c r="D229" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229" t="s">
+        <v>370</v>
+      </c>
+      <c r="F229" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D230"/>
       <c r="E230"/>
@@ -6185,13 +6195,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C231" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D231"/>
       <c r="E231"/>
@@ -6199,92 +6209,88 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C232" t="s">
-        <v>371</v>
-      </c>
-      <c r="D232" t="s">
-        <v>21</v>
-      </c>
-      <c r="E232" t="s">
-        <v>372</v>
-      </c>
-      <c r="F232" t="s">
-        <v>371</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C233" t="s">
-        <v>371</v>
-      </c>
-      <c r="D233"/>
+        <v>375</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
       <c r="E233" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F233" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C234" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D234"/>
-      <c r="E234"/>
-      <c r="F234"/>
+      <c r="E234" t="s">
+        <v>376</v>
+      </c>
+      <c r="F234" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C235" t="s">
-        <v>374</v>
-      </c>
-      <c r="D235" t="s">
-        <v>41</v>
-      </c>
-      <c r="E235" t="s">
-        <v>375</v>
-      </c>
-      <c r="F235" t="s">
-        <v>374</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C236" t="s">
-        <v>374</v>
-      </c>
-      <c r="D236"/>
+        <v>378</v>
+      </c>
+      <c r="D236" t="s">
+        <v>41</v>
+      </c>
       <c r="E236" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F236" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237">
@@ -6292,24 +6298,28 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="C237" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D237"/>
-      <c r="E237"/>
-      <c r="F237"/>
+      <c r="E237" t="s">
+        <v>379</v>
+      </c>
+      <c r="F237" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D238"/>
       <c r="E238"/>
@@ -6317,47 +6327,47 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C239" t="s">
-        <v>380</v>
-      </c>
-      <c r="D239" t="s">
-        <v>15</v>
-      </c>
-      <c r="E239" t="s">
-        <v>379</v>
-      </c>
-      <c r="F239" t="s">
-        <v>380</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
-      </c>
-      <c r="D240"/>
-      <c r="E240"/>
-      <c r="F240"/>
+        <v>384</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" t="s">
+        <v>383</v>
+      </c>
+      <c r="F240" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C241" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D241"/>
       <c r="E241"/>
@@ -6365,13 +6375,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C242" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D242"/>
       <c r="E242"/>
@@ -6379,42 +6389,36 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C243" t="s">
-        <v>388</v>
-      </c>
-      <c r="D243" t="s">
-        <v>15</v>
-      </c>
-      <c r="E243" t="s">
-        <v>387</v>
-      </c>
-      <c r="F243" t="s">
-        <v>388</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C244" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E244" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F244" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245">
@@ -6422,64 +6426,62 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
+        <v>393</v>
+      </c>
+      <c r="C245" t="s">
         <v>390</v>
       </c>
-      <c r="C245" t="s">
-        <v>391</v>
-      </c>
       <c r="D245" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E245" t="s">
+        <v>393</v>
+      </c>
+      <c r="F245" t="s">
         <v>390</v>
-      </c>
-      <c r="F245" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C246" t="s">
-        <v>393</v>
-      </c>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246"/>
+        <v>395</v>
+      </c>
+      <c r="D246" t="s">
+        <v>34</v>
+      </c>
+      <c r="E246" t="s">
+        <v>394</v>
+      </c>
+      <c r="F246" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B247" t="s">
-        <v>394</v>
-      </c>
-      <c r="C247" t="s">
-        <v>393</v>
-      </c>
-      <c r="D247" t="s">
-        <v>34</v>
-      </c>
-      <c r="E247" t="s">
-        <v>394</v>
-      </c>
-      <c r="F247" t="s">
-        <v>393</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D248"/>
       <c r="E248"/>
@@ -6490,19 +6492,19 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C249" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F249" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250">
@@ -6510,10 +6512,10 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C250" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D250"/>
       <c r="E250"/>
@@ -6524,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C251" t="s">
         <v>401</v>
@@ -6533,7 +6535,7 @@
         <v>15</v>
       </c>
       <c r="E251" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F251" t="s">
         <v>401</v>
@@ -6541,60 +6543,56 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C252" t="s">
-        <v>403</v>
-      </c>
-      <c r="D252" t="s">
-        <v>41</v>
-      </c>
-      <c r="E252" t="s">
-        <v>402</v>
-      </c>
-      <c r="F252" t="s">
-        <v>403</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D253" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E253" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F253" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
-      </c>
-      <c r="D254"/>
+        <v>408</v>
+      </c>
+      <c r="D254" t="s">
+        <v>41</v>
+      </c>
       <c r="E254" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F254" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255">
@@ -6602,98 +6600,102 @@
         <v>12</v>
       </c>
       <c r="B255" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C255" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D255" t="s">
         <v>21</v>
       </c>
       <c r="E255" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F255" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C256" t="s">
-        <v>408</v>
-      </c>
-      <c r="D256" t="s">
-        <v>15</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D256"/>
       <c r="E256" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F256" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C257" t="s">
-        <v>406</v>
-      </c>
-      <c r="D257"/>
-      <c r="E257"/>
-      <c r="F257"/>
+        <v>411</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257" t="s">
+        <v>410</v>
+      </c>
+      <c r="F257" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C258" t="s">
-        <v>406</v>
-      </c>
-      <c r="D258"/>
-      <c r="E258"/>
-      <c r="F258"/>
+        <v>413</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s">
+        <v>412</v>
+      </c>
+      <c r="F258" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
+        <v>414</v>
+      </c>
+      <c r="C259" t="s">
         <v>411</v>
       </c>
-      <c r="C259" t="s">
-        <v>412</v>
-      </c>
-      <c r="D259" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" t="s">
-        <v>411</v>
-      </c>
-      <c r="F259" t="s">
-        <v>412</v>
-      </c>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C260" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D260"/>
       <c r="E260"/>
@@ -6704,19 +6706,19 @@
         <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C261" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E261" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F261" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="262">
@@ -6724,10 +6726,10 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C262" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="D262"/>
       <c r="E262"/>
@@ -6738,185 +6740,179 @@
         <v>12</v>
       </c>
       <c r="B263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D263" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F263" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C264" t="s">
-        <v>420</v>
-      </c>
-      <c r="D264" t="s">
-        <v>24</v>
-      </c>
-      <c r="E264" t="s">
-        <v>419</v>
-      </c>
-      <c r="F264" t="s">
-        <v>420</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C265" t="s">
         <v>422</v>
       </c>
-      <c r="D265"/>
-      <c r="E265"/>
-      <c r="F265"/>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>423</v>
+      </c>
+      <c r="F265" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
         <v>12</v>
       </c>
       <c r="B266" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C266" t="s">
+        <v>425</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" t="s">
         <v>424</v>
       </c>
-      <c r="D266" t="s">
-        <v>21</v>
-      </c>
-      <c r="E266" t="s">
-        <v>423</v>
-      </c>
       <c r="F266" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C267" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D267"/>
-      <c r="E267" t="s">
-        <v>423</v>
-      </c>
-      <c r="F267" t="s">
-        <v>424</v>
-      </c>
+      <c r="E267"/>
+      <c r="F267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
         <v>12</v>
       </c>
       <c r="B268" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C268" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D268" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F268" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>429</v>
       </c>
       <c r="D269"/>
-      <c r="E269"/>
-      <c r="F269"/>
+      <c r="E269" t="s">
+        <v>428</v>
+      </c>
+      <c r="F269" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
         <v>12</v>
       </c>
       <c r="B270" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C270" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D270" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E270" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F270" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C271" t="s">
-        <v>431</v>
-      </c>
-      <c r="D271" t="s">
-        <v>21</v>
-      </c>
-      <c r="E271" t="s">
-        <v>430</v>
-      </c>
-      <c r="F271" t="s">
-        <v>431</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
         <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C272" t="s">
+        <v>434</v>
+      </c>
+      <c r="D272" t="s">
+        <v>41</v>
+      </c>
+      <c r="E272" t="s">
         <v>433</v>
       </c>
-      <c r="D272" t="s">
-        <v>21</v>
-      </c>
-      <c r="E272" t="s">
-        <v>432</v>
-      </c>
       <c r="F272" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273">
@@ -6924,107 +6920,113 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C273" t="s">
+        <v>436</v>
+      </c>
+      <c r="D273" t="s">
+        <v>21</v>
+      </c>
+      <c r="E273" t="s">
         <v>435</v>
       </c>
-      <c r="D273" t="s">
-        <v>24</v>
-      </c>
-      <c r="E273" t="s">
-        <v>434</v>
-      </c>
       <c r="F273" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B274" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C274" t="s">
+        <v>438</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" t="s">
         <v>437</v>
       </c>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
+      <c r="F274" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
         <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C275" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D275" t="s">
         <v>24</v>
       </c>
       <c r="E275" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F275" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C276" t="s">
-        <v>441</v>
-      </c>
-      <c r="D276" t="s">
-        <v>24</v>
-      </c>
-      <c r="E276" t="s">
-        <v>440</v>
-      </c>
-      <c r="F276" t="s">
-        <v>441</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B277" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C277" t="s">
+        <v>444</v>
+      </c>
+      <c r="D277" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277" t="s">
         <v>443</v>
       </c>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
+      <c r="F277" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
         <v>12</v>
       </c>
       <c r="B278" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C278" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D278" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F278" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279">
@@ -7032,10 +7034,10 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C279" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D279"/>
       <c r="E279"/>
@@ -7046,16 +7048,16 @@
         <v>12</v>
       </c>
       <c r="B280" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C280" t="s">
         <v>448</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E280" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F280" t="s">
         <v>448</v>
@@ -7063,42 +7065,36 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C281" t="s">
-        <v>450</v>
-      </c>
-      <c r="D281" t="s">
-        <v>24</v>
-      </c>
-      <c r="E281" t="s">
-        <v>449</v>
-      </c>
-      <c r="F281" t="s">
-        <v>450</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
         <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C282" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
       </c>
       <c r="E282" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F282" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="283">
@@ -7106,19 +7102,19 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C283" t="s">
+        <v>455</v>
+      </c>
+      <c r="D283" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283" t="s">
         <v>454</v>
       </c>
-      <c r="D283" t="s">
-        <v>21</v>
-      </c>
-      <c r="E283" t="s">
-        <v>453</v>
-      </c>
       <c r="F283" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284">
@@ -7126,19 +7122,19 @@
         <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C284" t="s">
+        <v>457</v>
+      </c>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" t="s">
         <v>456</v>
       </c>
-      <c r="D284" t="s">
-        <v>41</v>
-      </c>
-      <c r="E284" t="s">
-        <v>455</v>
-      </c>
       <c r="F284" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285">
@@ -7146,51 +7142,59 @@
         <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C285" t="s">
+        <v>459</v>
+      </c>
+      <c r="D285" t="s">
+        <v>21</v>
+      </c>
+      <c r="E285" t="s">
         <v>458</v>
       </c>
-      <c r="D285" t="s">
-        <v>24</v>
-      </c>
-      <c r="E285" t="s">
-        <v>457</v>
-      </c>
       <c r="F285" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B286" t="s">
-        <v>459</v>
-      </c>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
+        <v>460</v>
+      </c>
+      <c r="C286" t="s">
+        <v>461</v>
+      </c>
+      <c r="D286" t="s">
+        <v>41</v>
+      </c>
+      <c r="E286" t="s">
+        <v>460</v>
+      </c>
+      <c r="F286" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
         <v>12</v>
       </c>
       <c r="B287" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C287" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D287" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E287" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F287" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288">
@@ -7198,19 +7202,19 @@
         <v>12</v>
       </c>
       <c r="B288" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C288" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D288" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E288" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F288" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="289">
@@ -7218,19 +7222,19 @@
         <v>12</v>
       </c>
       <c r="B289" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C289" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D289" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E289" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F289" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290">
@@ -7238,19 +7242,19 @@
         <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C290" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D290" t="s">
         <v>24</v>
       </c>
       <c r="E290" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F290" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291">
@@ -7258,19 +7262,19 @@
         <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C291" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E291" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F291" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="292">
@@ -7278,167 +7282,167 @@
         <v>12</v>
       </c>
       <c r="B292" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C292" t="s">
-        <v>470</v>
+        <v>104</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E292" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F292" t="s">
-        <v>470</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B293" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C293" t="s">
-        <v>452</v>
-      </c>
-      <c r="D293"/>
-      <c r="E293"/>
-      <c r="F293"/>
+        <v>474</v>
+      </c>
+      <c r="D293" t="s">
+        <v>18</v>
+      </c>
+      <c r="E293" t="s">
+        <v>473</v>
+      </c>
+      <c r="F293" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C294" t="s">
-        <v>446</v>
-      </c>
-      <c r="D294" t="s">
-        <v>21</v>
-      </c>
-      <c r="E294" t="s">
-        <v>472</v>
-      </c>
-      <c r="F294" t="s">
-        <v>446</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B295" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C295" t="s">
-        <v>473</v>
-      </c>
-      <c r="D295"/>
+        <v>451</v>
+      </c>
+      <c r="D295" t="s">
+        <v>21</v>
+      </c>
       <c r="E295" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F295" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C296" t="s">
-        <v>475</v>
-      </c>
-      <c r="D296" t="s">
-        <v>21</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D296"/>
       <c r="E296" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F296" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B297" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C297" t="s">
-        <v>475</v>
-      </c>
-      <c r="D297"/>
+        <v>479</v>
+      </c>
+      <c r="D297" t="s">
+        <v>21</v>
+      </c>
       <c r="E297" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F297" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C298" t="s">
-        <v>437</v>
-      </c>
-      <c r="D298" t="s">
-        <v>21</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D298"/>
       <c r="E298" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F298" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B299" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C299" t="s">
-        <v>437</v>
-      </c>
-      <c r="D299"/>
+        <v>442</v>
+      </c>
+      <c r="D299" t="s">
+        <v>21</v>
+      </c>
       <c r="E299" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F299" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C300" t="s">
-        <v>478</v>
-      </c>
-      <c r="D300" t="s">
-        <v>24</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D300"/>
       <c r="E300" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F300" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301">
@@ -7446,19 +7450,19 @@
         <v>12</v>
       </c>
       <c r="B301" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C301" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E301" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F301" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="302">
@@ -7466,19 +7470,19 @@
         <v>12</v>
       </c>
       <c r="B302" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C302" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D302" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E302" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F302" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="303">
@@ -7486,19 +7490,19 @@
         <v>12</v>
       </c>
       <c r="B303" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C303" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D303" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E303" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F303" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="304">
@@ -7506,19 +7510,19 @@
         <v>12</v>
       </c>
       <c r="B304" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C304" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E304" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F304" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305">
@@ -7526,19 +7530,19 @@
         <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C305" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E305" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F305" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306">
@@ -7546,73 +7550,73 @@
         <v>12</v>
       </c>
       <c r="B306" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C306" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D306" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E306" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F306" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B307" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C307" t="s">
-        <v>492</v>
-      </c>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
+        <v>494</v>
+      </c>
+      <c r="D307" t="s">
+        <v>41</v>
+      </c>
+      <c r="E307" t="s">
+        <v>493</v>
+      </c>
+      <c r="F307" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C308" t="s">
-        <v>492</v>
-      </c>
-      <c r="D308" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" t="s">
-        <v>493</v>
-      </c>
-      <c r="F308" t="s">
-        <v>492</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
     </row>
     <row r="309">
       <c r="A309" t="s">
         <v>12</v>
       </c>
       <c r="B309" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C309" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D309" t="s">
         <v>15</v>
       </c>
       <c r="E309" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F309" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310">
@@ -7620,19 +7624,19 @@
         <v>12</v>
       </c>
       <c r="B310" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C310" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D310" t="s">
         <v>15</v>
       </c>
       <c r="E310" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F310" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="311">
@@ -7640,19 +7644,19 @@
         <v>12</v>
       </c>
       <c r="B311" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C311" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D311" t="s">
         <v>15</v>
       </c>
       <c r="E311" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F311" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="312">
@@ -7660,19 +7664,19 @@
         <v>12</v>
       </c>
       <c r="B312" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C312" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D312" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E312" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F312" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313">
@@ -7680,31 +7684,29 @@
         <v>12</v>
       </c>
       <c r="B313" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C313" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D313" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E313" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F313" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B314" t="s">
-        <v>504</v>
-      </c>
-      <c r="C314" t="s">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C314"/>
       <c r="D314"/>
       <c r="E314"/>
       <c r="F314"/>
@@ -7714,177 +7716,179 @@
         <v>12</v>
       </c>
       <c r="B315" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C315" t="s">
+        <v>508</v>
+      </c>
+      <c r="D315" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" t="s">
         <v>507</v>
       </c>
-      <c r="D315" t="s">
-        <v>18</v>
-      </c>
-      <c r="E315" t="s">
-        <v>506</v>
-      </c>
       <c r="F315" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C316" t="s">
-        <v>509</v>
-      </c>
-      <c r="D316" t="s">
-        <v>24</v>
-      </c>
-      <c r="E316" t="s">
-        <v>508</v>
-      </c>
-      <c r="F316" t="s">
-        <v>509</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
     </row>
     <row r="317">
       <c r="A317" t="s">
         <v>12</v>
       </c>
       <c r="B317" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C317" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D317" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E317" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F317" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B318" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C318" t="s">
-        <v>505</v>
-      </c>
-      <c r="D318"/>
+        <v>514</v>
+      </c>
+      <c r="D318" t="s">
+        <v>24</v>
+      </c>
       <c r="E318" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F318" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B319" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C319" t="s">
-        <v>512</v>
-      </c>
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319"/>
+        <v>510</v>
+      </c>
+      <c r="D319" t="s">
+        <v>21</v>
+      </c>
+      <c r="E319" t="s">
+        <v>515</v>
+      </c>
+      <c r="F319" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C320" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D320"/>
-      <c r="E320"/>
-      <c r="F320"/>
+      <c r="E320" t="s">
+        <v>515</v>
+      </c>
+      <c r="F320" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C321" t="s">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" t="s">
-        <v>515</v>
-      </c>
-      <c r="F321" t="s">
-        <v>11</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C322" t="s">
-        <v>517</v>
-      </c>
-      <c r="D322" t="s">
-        <v>24</v>
-      </c>
-      <c r="E322" t="s">
-        <v>516</v>
-      </c>
-      <c r="F322" t="s">
-        <v>517</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B323" t="s">
-        <v>518</v>
-      </c>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
-      <c r="F323"/>
+        <v>520</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" t="s">
+        <v>520</v>
+      </c>
+      <c r="F323" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
         <v>12</v>
       </c>
       <c r="B324" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C324" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D324" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F324" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325">
@@ -7892,42 +7896,50 @@
         <v>12</v>
       </c>
       <c r="B325" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C325" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D325" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E325" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F325" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B326" t="s">
-        <v>522</v>
-      </c>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
-      <c r="F326"/>
+        <v>524</v>
+      </c>
+      <c r="C326" t="s">
+        <v>525</v>
+      </c>
+      <c r="D326" t="s">
+        <v>34</v>
+      </c>
+      <c r="E326" t="s">
+        <v>524</v>
+      </c>
+      <c r="F326" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C327" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D327"/>
       <c r="E327"/>
@@ -7938,19 +7950,19 @@
         <v>12</v>
       </c>
       <c r="B328" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C328" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D328" t="s">
         <v>18</v>
       </c>
       <c r="E328" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F328" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="329">
@@ -7958,17 +7970,17 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C329" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D329"/>
       <c r="E329" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F329" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="330">
@@ -7976,10 +7988,10 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
+        <v>529</v>
+      </c>
+      <c r="C330" t="s">
         <v>525</v>
-      </c>
-      <c r="C330" t="s">
-        <v>521</v>
       </c>
       <c r="D330"/>
       <c r="E330"/>
@@ -7990,19 +8002,19 @@
         <v>12</v>
       </c>
       <c r="B331" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C331" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D331" t="s">
         <v>15</v>
       </c>
       <c r="E331" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F331" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="332">
@@ -8010,19 +8022,19 @@
         <v>12</v>
       </c>
       <c r="B332" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C332" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D332" t="s">
         <v>41</v>
       </c>
       <c r="E332" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F332" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="333">
@@ -8030,19 +8042,19 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C333" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D333" t="s">
         <v>34</v>
       </c>
       <c r="E333" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F333" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="334">
@@ -8050,19 +8062,19 @@
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C334" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D334" t="s">
         <v>18</v>
       </c>
       <c r="E334" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F334" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="335">
@@ -8070,19 +8082,19 @@
         <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C335" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D335" t="s">
         <v>15</v>
       </c>
       <c r="E335" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F335" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="336">
@@ -8090,19 +8102,19 @@
         <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C336" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D336" t="s">
         <v>18</v>
       </c>
       <c r="E336" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F336" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="337">
@@ -8110,19 +8122,19 @@
         <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C337" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D337" t="s">
         <v>18</v>
       </c>
       <c r="E337" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F337" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="338">
@@ -8130,10 +8142,10 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C338" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D338"/>
       <c r="E338"/>
@@ -8144,19 +8156,19 @@
         <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C339" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D339" t="s">
         <v>21</v>
       </c>
       <c r="E339" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F339" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="340">
@@ -8164,19 +8176,19 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C340" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D340" t="s">
         <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F340" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="341">
@@ -8184,19 +8196,19 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C341" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D341" t="s">
         <v>21</v>
       </c>
       <c r="E341" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F341" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="342">
@@ -8204,10 +8216,10 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C342" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D342"/>
       <c r="E342"/>
@@ -8218,10 +8230,10 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C343" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D343"/>
       <c r="E343"/>
@@ -8232,19 +8244,19 @@
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C344" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D344" t="s">
         <v>24</v>
       </c>
       <c r="E344" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F344" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="345">
@@ -8252,19 +8264,19 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C345" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D345" t="s">
         <v>24</v>
       </c>
       <c r="E345" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F345" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="346">
@@ -8272,19 +8284,19 @@
         <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C346" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D346" t="s">
         <v>24</v>
       </c>
       <c r="E346" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F346" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -20,952 +20,1669 @@
     <t xml:space="preserve">countryCode</t>
   </si>
   <si>
+    <t xml:space="preserve">countryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">stdCountryCode</t>
   </si>
   <si>
+    <t xml:space="preserve">stdCountryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Five Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ae</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIFA</t>
   </si>
   <si>
     <t xml:space="preserve">AFG</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC</t>
   </si>
   <si>
     <t xml:space="preserve">AIA</t>
   </si>
   <si>
+    <t xml:space="preserve">Anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCACAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEFA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALG</t>
   </si>
   <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">AND</t>
   </si>
   <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANG</t>
   </si>
   <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANT</t>
   </si>
   <si>
+    <t xml:space="preserve">Netherlands Antilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARG</t>
   </si>
   <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONMEBOL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARM</t>
   </si>
   <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARU</t>
   </si>
   <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASA</t>
   </si>
   <si>
+    <t xml:space="preserve">American Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATG</t>
   </si>
   <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUS</t>
   </si>
   <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
     <t xml:space="preserve">AZE</t>
   </si>
   <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAH</t>
   </si>
   <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">BDI</t>
   </si>
   <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moonSun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEL</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
     <t xml:space="preserve">BER</t>
   </si>
   <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
     <t xml:space="preserve">BFA</t>
   </si>
   <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHR</t>
   </si>
   <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHU</t>
   </si>
   <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIH</t>
   </si>
   <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLR</t>
   </si>
   <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bo</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOT</t>
   </si>
   <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRA</t>
   </si>
   <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRB</t>
   </si>
   <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRU</t>
   </si>
   <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUL</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAY</t>
   </si>
   <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">CGO</t>
   </si>
   <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHA</t>
   </si>
   <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHI</t>
   </si>
   <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHN</t>
   </si>
   <si>
+    <t xml:space="preserve">China PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China (People's Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIV</t>
   </si>
   <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMR</t>
   </si>
   <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
     <t xml:space="preserve">COD</t>
   </si>
   <si>
+    <t xml:space="preserve">Congo DR</t>
+  </si>
+  <si>
     <t xml:space="preserve">COK</t>
   </si>
   <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">COL</t>
   </si>
   <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
     <t xml:space="preserve">COM</t>
   </si>
   <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPV</t>
   </si>
   <si>
+    <t xml:space="preserve">Cape Verde Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRC</t>
   </si>
   <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRI</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRO</t>
   </si>
   <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTA</t>
   </si>
   <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUB</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUW</t>
   </si>
   <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYP</t>
   </si>
   <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cz</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZE</t>
   </si>
   <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
     <t xml:space="preserve">DJI</t>
   </si>
   <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMA</t>
   </si>
   <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOM</t>
   </si>
   <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro area (19 countries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eg</t>
+  </si>
+  <si>
     <t xml:space="preserve">EGY</t>
   </si>
   <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENG</t>
   </si>
   <si>
+    <t xml:space="preserve">England</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQG</t>
   </si>
   <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERI</t>
   </si>
   <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESP</t>
   </si>
   <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">EST</t>
   </si>
   <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETH</t>
   </si>
   <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fi</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIJ</t>
   </si>
   <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIN</t>
   </si>
   <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRA</t>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRO</t>
   </si>
   <si>
+    <t xml:space="preserve">Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G4E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Big European</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAB</t>
   </si>
   <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEO</t>
   </si>
   <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GER</t>
   </si>
   <si>
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIB</t>
   </si>
   <si>
+    <t xml:space="preserve">Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNB</t>
   </si>
   <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRE</t>
   </si>
   <si>
     <t xml:space="preserve">GRN</t>
   </si>
   <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gt</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUA</t>
   </si>
   <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUI</t>
   </si>
   <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUM</t>
   </si>
   <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUY</t>
   </si>
   <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAI</t>
   </si>
   <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk</t>
+  </si>
+  <si>
     <t xml:space="preserve">HKG</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hn</t>
+  </si>
+  <si>
     <t xml:space="preserve">HON</t>
   </si>
   <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUN</t>
   </si>
   <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDN</t>
   </si>
   <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
     <t xml:space="preserve">IND</t>
   </si>
   <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRL</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRN</t>
   </si>
   <si>
+    <t xml:space="preserve">IR Iran</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRQ</t>
   </si>
   <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISL</t>
   </si>
   <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISR</t>
   </si>
   <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITA</t>
   </si>
   <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">JAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp</t>
+  </si>
+  <si>
     <t xml:space="preserve">JPN</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
     <t xml:space="preserve">KGZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyrgyz Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Korea Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr</t>
+  </si>
+  <si>
     <t xml:space="preserve">KSA</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
     <t xml:space="preserve">KUW</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
     <t xml:space="preserve">KVX</t>
   </si>
   <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAO</t>
   </si>
   <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBN</t>
   </si>
   <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBR</t>
   </si>
   <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBY</t>
   </si>
   <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCA</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Lucia</t>
+  </si>
+  <si>
     <t xml:space="preserve">LES</t>
   </si>
   <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIB</t>
   </si>
   <si>
     <t xml:space="preserve">LIE</t>
   </si>
   <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lt</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTU</t>
   </si>
   <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lu</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUX</t>
   </si>
   <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lv</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVA</t>
   </si>
   <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAC</t>
   </si>
   <si>
+    <t xml:space="preserve">Macau</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAD</t>
   </si>
   <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAS</t>
   </si>
   <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDA</t>
   </si>
   <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDV</t>
   </si>
   <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">MKD</t>
   </si>
   <si>
+    <t xml:space="preserve">FYR Macedonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLI</t>
   </si>
   <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLT</t>
   </si>
   <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNE</t>
   </si>
   <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNG</t>
   </si>
   <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRI</t>
   </si>
   <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSR</t>
   </si>
   <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
     <t xml:space="preserve">MTN</t>
   </si>
   <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWI</t>
   </si>
   <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYA</t>
   </si>
   <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAFTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCA</t>
   </si>
   <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCL</t>
   </si>
   <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">NED</t>
   </si>
   <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEP</t>
   </si>
   <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewYork</t>
+  </si>
+  <si>
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIG</t>
   </si>
   <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIR</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nz</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZL</t>
   </si>
   <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD - Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD - Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">OMA</t>
   </si>
   <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD + Major Six NME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD total excluding the euro area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAK</t>
   </si>
   <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe</t>
+  </si>
+  <si>
     <t xml:space="preserve">PER</t>
   </si>
   <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHI</t>
   </si>
   <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLE</t>
   </si>
   <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
     <t xml:space="preserve">PNG</t>
   </si>
   <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">POL</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
     <t xml:space="preserve">POR</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRK</t>
   </si>
   <si>
+    <t xml:space="preserve">Korea DPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUR</t>
   </si>
   <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">py</t>
+  </si>
+  <si>
     <t xml:space="preserve">QAT</t>
   </si>
   <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROU</t>
   </si>
   <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
     <t xml:space="preserve">RSA</t>
   </si>
   <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUS</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">RWA</t>
   </si>
   <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCG</t>
   </si>
   <si>
+    <t xml:space="preserve">Serbia and Montenegro</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCO</t>
   </si>
   <si>
+    <t xml:space="preserve">Scotland</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDN</t>
   </si>
   <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEY</t>
   </si>
   <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIN</t>
   </si>
   <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKN</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Kitts and Nevis</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLE</t>
   </si>
   <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLV</t>
   </si>
   <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMR</t>
   </si>
   <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOL</t>
   </si>
   <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOM</t>
   </si>
   <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SRB</t>
   </si>
   <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SRI</t>
   </si>
   <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">STP</t>
   </si>
   <si>
+    <t xml:space="preserve">Sao Tome e Principe</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUI</t>
   </si>
   <si>
     <t xml:space="preserve">SUR</t>
   </si>
   <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sv</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVK</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVN</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWE</t>
   </si>
   <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYR</t>
   </si>
   <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAH</t>
   </si>
   <si>
+    <t xml:space="preserve">Tahiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCA</t>
   </si>
   <si>
+    <t xml:space="preserve">Turks and Caicos Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCH</t>
   </si>
   <si>
+    <t xml:space="preserve">Czechoslovakia</t>
+  </si>
+  <si>
     <t xml:space="preserve">TGA</t>
   </si>
   <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th</t>
+  </si>
+  <si>
     <t xml:space="preserve">THA</t>
   </si>
   <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve">TJK</t>
   </si>
   <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">TKM</t>
   </si>
   <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">TLS</t>
   </si>
   <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOG</t>
   </si>
   <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPE</t>
   </si>
   <si>
+    <t xml:space="preserve">Chinese Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRI</t>
   </si>
   <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
     <t xml:space="preserve">TUN</t>
   </si>
   <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
     <t xml:space="preserve">TUR</t>
   </si>
   <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua</t>
+  </si>
+  <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
     <t xml:space="preserve">UGA</t>
   </si>
   <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">UKR</t>
   </si>
   <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
     <t xml:space="preserve">URU</t>
   </si>
   <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uy</t>
+  </si>
+  <si>
     <t xml:space="preserve">UZB</t>
   </si>
   <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">VEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
     <t xml:space="preserve">VGB</t>
   </si>
   <si>
+    <t xml:space="preserve">British Virgin Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIE</t>
   </si>
   <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIN</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIR</t>
   </si>
   <si>
+    <t xml:space="preserve">US Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vn</t>
+  </si>
+  <si>
     <t xml:space="preserve">WAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Wales</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEM</t>
   </si>
   <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
     <t xml:space="preserve">YUG</t>
   </si>
   <si>
+    <t xml:space="preserve">Yugoslavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">za</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAI</t>
   </si>
   <si>
+    <t xml:space="preserve">Zaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIM</t>
   </si>
   <si>
-    <t xml:space="preserve">moonSun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beijing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewYork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">il</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">za</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G4E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAFTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAF</t>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1307,3800 +2024,6464 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>116</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>130</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>133</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>154</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>163</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>174</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>176</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" t="s">
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>183</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>186</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>188</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>193</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>195</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>197</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>201</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>204</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>209</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>211</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>214</v>
+      </c>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="D129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>220</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" t="s">
-        <v>5</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>223</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>225</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>227</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>229</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>231</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" t="s">
-        <v>5</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>234</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>237</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" t="s">
-        <v>5</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>240</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>240</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" t="s">
-        <v>5</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>243</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>243</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>248</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>248</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>250</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>251</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>253</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>255</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" t="s">
-        <v>5</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>258</v>
+      </c>
+      <c r="D157" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>258</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="D159" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" t="s">
-        <v>5</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>263</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>263</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>265</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>267</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>270</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>270</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>272</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>274</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>276</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>278</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" t="s">
-        <v>5</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>282</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>284</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>286</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>288</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>290</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>292</v>
+      </c>
+      <c r="D180" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>294</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>296</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>298</v>
+      </c>
+      <c r="D183" t="s">
+        <v>25</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>290</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>301</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" t="s">
-        <v>5</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>305</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>305</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" t="s">
-        <v>5</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>308</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" t="s">
-        <v>5</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>311</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>311</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>314</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>316</v>
+      </c>
+      <c r="D198" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" t="s">
-        <v>5</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>319</v>
+      </c>
+      <c r="D200" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>321</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>323</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>325</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>327</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>327</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>329</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>331</v>
+      </c>
+      <c r="D207" t="s">
+        <v>25</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>333</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>334</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>335</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>337</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>339</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>341</v>
+      </c>
+      <c r="D212" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>343</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>345</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>347</v>
+      </c>
+      <c r="D215" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
-      </c>
-      <c r="C216" t="s">
-        <v>5</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" t="s">
-        <v>5</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>351</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>352</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>224</v>
+        <v>353</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>354</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>356</v>
+      </c>
+      <c r="D221" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>358</v>
+      </c>
+      <c r="D222" t="s">
+        <v>42</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>360</v>
+      </c>
+      <c r="D223" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>362</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B225" t="s">
-        <v>230</v>
-      </c>
-      <c r="C225" t="s">
-        <v>5</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225"/>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>231</v>
+        <v>364</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>365</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>232</v>
-      </c>
-      <c r="C227" t="s">
-        <v>5</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>368</v>
+      </c>
+      <c r="D228" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>370</v>
+      </c>
+      <c r="D229" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
-      </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230"/>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>360</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
-      </c>
-      <c r="C232" t="s">
-        <v>5</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="D233" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
-      </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>241</v>
+        <v>377</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>378</v>
+      </c>
+      <c r="D236" t="s">
+        <v>42</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>378</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>379</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>381</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>383</v>
+      </c>
+      <c r="D240" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>385</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>386</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>387</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
-      </c>
-      <c r="C243" t="s">
-        <v>5</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
+        <v>389</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>390</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B245" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>392</v>
+      </c>
+      <c r="D245" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>394</v>
+      </c>
+      <c r="D246" t="s">
+        <v>35</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
-      </c>
-      <c r="C247" t="s">
-        <v>5</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
-      </c>
-      <c r="C248" t="s">
-        <v>5</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>398</v>
+      </c>
+      <c r="D249" t="s">
+        <v>35</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
-      </c>
-      <c r="C250" t="s">
-        <v>5</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>401</v>
+      </c>
+      <c r="D251" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
-      </c>
-      <c r="C252" t="s">
-        <v>5</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>258</v>
+        <v>403</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>404</v>
+      </c>
+      <c r="D253" t="s">
+        <v>16</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>405</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>406</v>
+      </c>
+      <c r="D254" t="s">
+        <v>42</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>260</v>
+        <v>407</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>408</v>
+      </c>
+      <c r="D255" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>407</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>408</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>410</v>
+      </c>
+      <c r="D257" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>412</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>410</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>265</v>
-      </c>
-      <c r="C260" t="s">
-        <v>5</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>415</v>
       </c>
       <c r="C261" t="s">
-        <v>5</v>
+        <v>416</v>
+      </c>
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
-      </c>
-      <c r="C262" t="s">
-        <v>5</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>419</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
-      </c>
-      <c r="C264" t="s">
-        <v>5</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>422</v>
+      </c>
+      <c r="D265" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>424</v>
+      </c>
+      <c r="D266" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>272</v>
-      </c>
-      <c r="C267" t="s">
-        <v>5</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B268" t="s">
-        <v>273</v>
+        <v>426</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>427</v>
+      </c>
+      <c r="D268" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>426</v>
       </c>
       <c r="C269" t="s">
-        <v>5</v>
+        <v>427</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>275</v>
+        <v>428</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>429</v>
+      </c>
+      <c r="D270" t="s">
+        <v>25</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
-      </c>
-      <c r="C271" t="s">
-        <v>5</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>277</v>
+        <v>431</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="D272" t="s">
+        <v>42</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>434</v>
+      </c>
+      <c r="D273" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>436</v>
+      </c>
+      <c r="D274" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B275" t="s">
-        <v>280</v>
+        <v>437</v>
       </c>
       <c r="C275" t="s">
-        <v>5</v>
+        <v>438</v>
+      </c>
+      <c r="D275" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>281</v>
-      </c>
-      <c r="C276" t="s">
-        <v>5</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B277" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>441</v>
+      </c>
+      <c r="D277" t="s">
+        <v>25</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B278" t="s">
-        <v>283</v>
+        <v>442</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>443</v>
+      </c>
+      <c r="D278" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>284</v>
-      </c>
-      <c r="C279" t="s">
-        <v>5</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>446</v>
+      </c>
+      <c r="D280" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>286</v>
-      </c>
-      <c r="C281" t="s">
-        <v>5</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B282" t="s">
-        <v>287</v>
+        <v>448</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>449</v>
+      </c>
+      <c r="D282" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B283" t="s">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="C283" t="s">
-        <v>5</v>
+        <v>451</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>289</v>
+        <v>452</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>453</v>
+      </c>
+      <c r="D284" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B285" t="s">
-        <v>290</v>
+        <v>454</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>455</v>
+      </c>
+      <c r="D285" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B286" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="C286" t="s">
-        <v>5</v>
+        <v>457</v>
+      </c>
+      <c r="D286" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B287" t="s">
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>459</v>
+      </c>
+      <c r="D287" t="s">
+        <v>25</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B288" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="C288" t="s">
-        <v>5</v>
+        <v>461</v>
+      </c>
+      <c r="D288" t="s">
+        <v>22</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B289" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="C289" t="s">
-        <v>5</v>
+        <v>463</v>
+      </c>
+      <c r="D289" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>295</v>
+        <v>464</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>465</v>
+      </c>
+      <c r="D290" t="s">
+        <v>25</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B291" t="s">
-        <v>296</v>
+        <v>466</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>467</v>
+      </c>
+      <c r="D291" t="s">
+        <v>25</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B292" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="D292" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>470</v>
+      </c>
+      <c r="D293" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>300</v>
-      </c>
-      <c r="C294" t="s">
-        <v>5</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294"/>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>472</v>
       </c>
       <c r="C295" t="s">
-        <v>5</v>
+        <v>473</v>
+      </c>
+      <c r="D295" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>18</v>
+        <v>472</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>474</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B297" t="s">
-        <v>23</v>
+        <v>475</v>
       </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>476</v>
+      </c>
+      <c r="D297" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>34</v>
+        <v>475</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>476</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B299" t="s">
-        <v>39</v>
+        <v>477</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>478</v>
+      </c>
+      <c r="D299" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>477</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>478</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>479</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>480</v>
+      </c>
+      <c r="D301" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B302" t="s">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>482</v>
+      </c>
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B303" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>484</v>
+      </c>
+      <c r="D303" t="s">
+        <v>42</v>
+      </c>
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>485</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>486</v>
+      </c>
+      <c r="D304" t="s">
+        <v>25</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B305" t="s">
-        <v>58</v>
+        <v>487</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>488</v>
+      </c>
+      <c r="D305" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>489</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>490</v>
+      </c>
+      <c r="D306" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>491</v>
       </c>
       <c r="C307" t="s">
-        <v>5</v>
+        <v>492</v>
+      </c>
+      <c r="D307" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
-      </c>
-      <c r="C308" t="s">
-        <v>5</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308"/>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B309" t="s">
-        <v>68</v>
+        <v>494</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>495</v>
+      </c>
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B310" t="s">
-        <v>69</v>
+        <v>496</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>497</v>
+      </c>
+      <c r="D310" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B311" t="s">
-        <v>72</v>
+        <v>498</v>
       </c>
       <c r="C311" t="s">
-        <v>5</v>
+        <v>499</v>
+      </c>
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B312" t="s">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="C312" t="s">
-        <v>5</v>
+        <v>501</v>
+      </c>
+      <c r="D312" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>502</v>
       </c>
       <c r="C313" t="s">
-        <v>5</v>
+        <v>503</v>
+      </c>
+      <c r="D313" t="s">
+        <v>25</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="B314" t="s">
-        <v>308</v>
-      </c>
-      <c r="C314" t="s">
-        <v>5</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B315" t="s">
-        <v>309</v>
+        <v>505</v>
       </c>
       <c r="C315" t="s">
-        <v>5</v>
+        <v>506</v>
+      </c>
+      <c r="D315" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>310</v>
-      </c>
-      <c r="C316" t="s">
-        <v>5</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316"/>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B317" t="s">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>509</v>
+      </c>
+      <c r="D317" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B318" t="s">
-        <v>92</v>
+        <v>510</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>511</v>
+      </c>
+      <c r="D318" t="s">
+        <v>25</v>
+      </c>
+      <c r="E318" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>512</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
+        <v>513</v>
+      </c>
+      <c r="D319" t="s">
+        <v>22</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>94</v>
+        <v>512</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>513</v>
+      </c>
+      <c r="D320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>97</v>
-      </c>
-      <c r="C321" t="s">
-        <v>5</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>98</v>
-      </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B323" t="s">
-        <v>99</v>
+        <v>516</v>
       </c>
       <c r="C323" t="s">
-        <v>5</v>
+        <v>517</v>
+      </c>
+      <c r="D323" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B324" t="s">
-        <v>102</v>
+        <v>518</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>519</v>
+      </c>
+      <c r="D324" t="s">
+        <v>25</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B325" t="s">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>521</v>
+      </c>
+      <c r="D325" t="s">
+        <v>22</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B326" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>523</v>
+      </c>
+      <c r="D326" t="s">
+        <v>35</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>119</v>
-      </c>
-      <c r="C327" t="s">
-        <v>5</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B328" t="s">
-        <v>120</v>
+        <v>525</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>525</v>
+      </c>
+      <c r="D328" t="s">
+        <v>19</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>127</v>
+        <v>525</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>526</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>311</v>
-      </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B331" t="s">
-        <v>312</v>
+        <v>528</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>529</v>
+      </c>
+      <c r="D331" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B332" t="s">
-        <v>147</v>
+        <v>530</v>
       </c>
       <c r="C332" t="s">
-        <v>5</v>
+        <v>531</v>
+      </c>
+      <c r="D332" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B333" t="s">
-        <v>148</v>
+        <v>532</v>
       </c>
       <c r="C333" t="s">
-        <v>5</v>
+        <v>533</v>
+      </c>
+      <c r="D333" t="s">
+        <v>35</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B334" t="s">
-        <v>299</v>
+        <v>534</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>535</v>
+      </c>
+      <c r="D334" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B335" t="s">
-        <v>313</v>
+        <v>536</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>537</v>
+      </c>
+      <c r="D335" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B336" t="s">
-        <v>314</v>
+        <v>538</v>
       </c>
       <c r="C336" t="s">
-        <v>5</v>
+        <v>539</v>
+      </c>
+      <c r="D336" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B337" t="s">
-        <v>315</v>
+        <v>540</v>
       </c>
       <c r="C337" t="s">
-        <v>5</v>
+        <v>541</v>
+      </c>
+      <c r="D337" t="s">
+        <v>19</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>157</v>
-      </c>
-      <c r="C338" t="s">
-        <v>5</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B339" t="s">
-        <v>316</v>
+        <v>543</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
+        <v>544</v>
+      </c>
+      <c r="D339" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B340" t="s">
-        <v>164</v>
+        <v>545</v>
       </c>
       <c r="C340" t="s">
-        <v>5</v>
+        <v>546</v>
+      </c>
+      <c r="D340" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>185</v>
+        <v>547</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>548</v>
+      </c>
+      <c r="D341" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="B342" t="s">
-        <v>186</v>
-      </c>
-      <c r="C342" t="s">
-        <v>5</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342"/>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>187</v>
+        <v>550</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>424</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B344" t="s">
-        <v>203</v>
+        <v>551</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>552</v>
+      </c>
+      <c r="D344" t="s">
+        <v>25</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B345" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>554</v>
+      </c>
+      <c r="D345" t="s">
+        <v>25</v>
+      </c>
+      <c r="E345" t="s">
+        <v>10</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="B346" t="s">
-        <v>317</v>
+        <v>555</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>556</v>
+      </c>
+      <c r="D346" t="s">
+        <v>25</v>
+      </c>
+      <c r="E346" t="s">
+        <v>10</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -353,12 +353,12 @@
     <t xml:space="preserve">CHN</t>
   </si>
   <si>
+    <t xml:space="preserve">China (People's Republic of)</t>
+  </si>
+  <si>
     <t xml:space="preserve">China PR</t>
   </si>
   <si>
-    <t xml:space="preserve">China (People's Republic of)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CIV</t>
   </si>
   <si>
@@ -764,12 +764,12 @@
     <t xml:space="preserve">IRL</t>
   </si>
   <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Republic of Ireland</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">IRN</t>
   </si>
   <si>
@@ -848,12 +848,12 @@
     <t xml:space="preserve">KOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korea Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">kr</t>
   </si>
   <si>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">SVK</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
   </si>
   <si>
     <t xml:space="preserve">SVN</t>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -2361,7 +2361,7 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -2381,7 +2381,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -2401,7 +2401,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -2421,7 +2421,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
@@ -2549,7 +2549,7 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2569,7 +2569,7 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -2831,7 +2831,7 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -2851,7 +2851,7 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -2965,7 +2965,7 @@
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
@@ -2985,7 +2985,7 @@
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
@@ -3139,7 +3139,7 @@
         <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
@@ -3159,7 +3159,7 @@
         <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>125</v>
@@ -3287,7 +3287,7 @@
         <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
         <v>125</v>
@@ -3307,7 +3307,7 @@
         <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
@@ -3535,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
@@ -3555,7 +3555,7 @@
         <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>178</v>
@@ -3913,7 +3913,7 @@
         <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
         <v>178</v>
@@ -3933,7 +3933,7 @@
         <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
         <v>180</v>
@@ -3953,7 +3953,7 @@
         <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
         <v>180</v>
@@ -3973,7 +3973,7 @@
         <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>187</v>
@@ -4047,7 +4047,7 @@
         <v>188</v>
       </c>
       <c r="D109" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
         <v>187</v>
@@ -4067,7 +4067,7 @@
         <v>188</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
         <v>190</v>
@@ -4101,7 +4101,7 @@
         <v>191</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
         <v>190</v>
@@ -4121,7 +4121,7 @@
         <v>191</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
         <v>239</v>
@@ -4659,7 +4659,7 @@
         <v>240</v>
       </c>
       <c r="D142" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
         <v>239</v>
@@ -4679,7 +4679,7 @@
         <v>240</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
         <v>242</v>
@@ -4713,7 +4713,7 @@
         <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
         <v>242</v>
@@ -4733,7 +4733,7 @@
         <v>243</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
         <v>247</v>
@@ -4795,7 +4795,7 @@
         <v>248</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
         <v>247</v>
@@ -4815,7 +4815,7 @@
         <v>248</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
         <v>249</v>
@@ -4835,7 +4835,7 @@
         <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
         <v>249</v>
@@ -4855,7 +4855,7 @@
         <v>251</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
         <v>257</v>
@@ -4929,7 +4929,7 @@
         <v>258</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
         <v>257</v>
@@ -4949,7 +4949,7 @@
         <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>259</v>
@@ -4969,7 +4969,7 @@
         <v>260</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
         <v>259</v>
@@ -4989,7 +4989,7 @@
         <v>260</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>262</v>
@@ -5023,7 +5023,7 @@
         <v>263</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
         <v>262</v>
@@ -5043,7 +5043,7 @@
         <v>263</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
         <v>269</v>
@@ -5117,7 +5117,7 @@
         <v>270</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
         <v>269</v>
@@ -5137,7 +5137,7 @@
         <v>270</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
         <v>277</v>
@@ -5217,7 +5217,7 @@
         <v>278</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
         <v>277</v>
@@ -5237,7 +5237,7 @@
         <v>279</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
         <v>304</v>
@@ -5519,7 +5519,7 @@
         <v>305</v>
       </c>
       <c r="D188" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
         <v>304</v>
@@ -5539,7 +5539,7 @@
         <v>305</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>307</v>
@@ -5573,7 +5573,7 @@
         <v>308</v>
       </c>
       <c r="D191" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
         <v>307</v>
@@ -5593,7 +5593,7 @@
         <v>308</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>310</v>
@@ -5627,7 +5627,7 @@
         <v>311</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
         <v>310</v>
@@ -5647,7 +5647,7 @@
         <v>311</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
         <v>326</v>
@@ -5815,7 +5815,7 @@
         <v>327</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
         <v>326</v>
@@ -5835,7 +5835,7 @@
         <v>327</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
         <v>374</v>
@@ -6359,7 +6359,7 @@
         <v>375</v>
       </c>
       <c r="D233" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
         <v>374</v>
@@ -6379,7 +6379,7 @@
         <v>375</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>377</v>
@@ -6413,7 +6413,7 @@
         <v>378</v>
       </c>
       <c r="D236" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
         <v>377</v>
@@ -6433,7 +6433,7 @@
         <v>378</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B255" t="s">
         <v>407</v>
@@ -6763,7 +6763,7 @@
         <v>408</v>
       </c>
       <c r="D255" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B256" t="s">
         <v>407</v>
@@ -6783,7 +6783,7 @@
         <v>408</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
         <v>426</v>
@@ -6999,7 +6999,7 @@
         <v>427</v>
       </c>
       <c r="D268" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B269" t="s">
         <v>426</v>
@@ -7019,7 +7019,7 @@
         <v>427</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
         <v>472</v>
@@ -7509,7 +7509,7 @@
         <v>473</v>
       </c>
       <c r="D295" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B296" t="s">
         <v>472</v>
@@ -7529,7 +7529,7 @@
         <v>474</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E296" t="s">
         <v>10</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
         <v>475</v>
@@ -7549,7 +7549,7 @@
         <v>476</v>
       </c>
       <c r="D297" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E297" t="s">
         <v>10</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B298" t="s">
         <v>475</v>
@@ -7569,7 +7569,7 @@
         <v>476</v>
       </c>
       <c r="D298" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E298" t="s">
         <v>10</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
         <v>477</v>
@@ -7589,7 +7589,7 @@
         <v>478</v>
       </c>
       <c r="D299" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E299" t="s">
         <v>10</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B300" t="s">
         <v>477</v>
@@ -7609,7 +7609,7 @@
         <v>478</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E300" t="s">
         <v>10</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
         <v>512</v>
@@ -7971,7 +7971,7 @@
         <v>513</v>
       </c>
       <c r="D319" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E319" t="s">
         <v>10</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B320" t="s">
         <v>512</v>
@@ -7991,7 +7991,7 @@
         <v>513</v>
       </c>
       <c r="D320" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
@@ -8124,16 +8124,16 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
         <v>525</v>
       </c>
       <c r="C328" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D328" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E328" t="s">
         <v>10</v>
@@ -8144,16 +8144,16 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B329" t="s">
         <v>525</v>
       </c>
       <c r="C329" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D329" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E329" t="s">
         <v>10</v>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">ae</t>
   </si>
   <si>
+    <t xml:space="preserve">AE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIFA</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t xml:space="preserve">ar</t>
   </si>
   <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARG</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t xml:space="preserve">at</t>
   </si>
   <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATG</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
     <t xml:space="preserve">au</t>
   </si>
   <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUS</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t xml:space="preserve">be</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
     <t xml:space="preserve">moonSun</t>
   </si>
   <si>
@@ -227,6 +242,9 @@
     <t xml:space="preserve">bg</t>
   </si>
   <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHR</t>
   </si>
   <si>
@@ -260,6 +278,9 @@
     <t xml:space="preserve">bo</t>
   </si>
   <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
@@ -275,6 +296,9 @@
     <t xml:space="preserve">br</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRA</t>
   </si>
   <si>
@@ -302,6 +326,9 @@
     <t xml:space="preserve">ca</t>
   </si>
   <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAM</t>
   </si>
   <si>
@@ -329,6 +356,9 @@
     <t xml:space="preserve">ch</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHA</t>
   </si>
   <si>
@@ -368,6 +398,9 @@
     <t xml:space="preserve">cl</t>
   </si>
   <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMR</t>
   </si>
   <si>
@@ -377,6 +410,9 @@
     <t xml:space="preserve">co</t>
   </si>
   <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
     <t xml:space="preserve">COD</t>
   </si>
   <si>
@@ -410,6 +446,9 @@
     <t xml:space="preserve">cr</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRC</t>
   </si>
   <si>
@@ -452,6 +491,9 @@
     <t xml:space="preserve">cz</t>
   </si>
   <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZE</t>
   </si>
   <si>
@@ -461,6 +503,9 @@
     <t xml:space="preserve">de</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEN</t>
   </si>
   <si>
@@ -482,6 +527,9 @@
     <t xml:space="preserve">dk</t>
   </si>
   <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMA</t>
   </si>
   <si>
@@ -494,6 +542,9 @@
     <t xml:space="preserve">do</t>
   </si>
   <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOM</t>
   </si>
   <si>
@@ -509,6 +560,9 @@
     <t xml:space="preserve">ec</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
@@ -518,9 +572,15 @@
     <t xml:space="preserve">ee</t>
   </si>
   <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
     <t xml:space="preserve">eg</t>
   </si>
   <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
     <t xml:space="preserve">EGY</t>
   </si>
   <si>
@@ -548,6 +608,9 @@
     <t xml:space="preserve">es</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESP</t>
   </si>
   <si>
@@ -569,6 +632,9 @@
     <t xml:space="preserve">fi</t>
   </si>
   <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIJ</t>
   </si>
   <si>
@@ -584,6 +650,9 @@
     <t xml:space="preserve">fr</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRA</t>
   </si>
   <si>
@@ -623,6 +692,9 @@
     <t xml:space="preserve">gb</t>
   </si>
   <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">GBR</t>
   </si>
   <si>
@@ -653,6 +725,9 @@
     <t xml:space="preserve">global</t>
   </si>
   <si>
+    <t xml:space="preserve">GLOBAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNB</t>
   </si>
   <si>
@@ -662,6 +737,9 @@
     <t xml:space="preserve">gr</t>
   </si>
   <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRC</t>
   </si>
   <si>
@@ -680,6 +758,9 @@
     <t xml:space="preserve">gt</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUA</t>
   </si>
   <si>
@@ -713,6 +794,9 @@
     <t xml:space="preserve">hk</t>
   </si>
   <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
     <t xml:space="preserve">HKG</t>
   </si>
   <si>
@@ -722,6 +806,9 @@
     <t xml:space="preserve">hn</t>
   </si>
   <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
     <t xml:space="preserve">HON</t>
   </si>
   <si>
@@ -731,6 +818,9 @@
     <t xml:space="preserve">hu</t>
   </si>
   <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUN</t>
   </si>
   <si>
@@ -740,6 +830,9 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDN</t>
   </si>
   <si>
@@ -749,12 +842,21 @@
     <t xml:space="preserve">ie</t>
   </si>
   <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
     <t xml:space="preserve">il</t>
   </si>
   <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
     <t xml:space="preserve">in</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
     <t xml:space="preserve">IND</t>
   </si>
   <si>
@@ -785,6 +887,9 @@
     <t xml:space="preserve">is</t>
   </si>
   <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISL</t>
   </si>
   <si>
@@ -800,6 +905,9 @@
     <t xml:space="preserve">it</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITA</t>
   </si>
   <si>
@@ -821,6 +929,9 @@
     <t xml:space="preserve">jp</t>
   </si>
   <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
     <t xml:space="preserve">JPN</t>
   </si>
   <si>
@@ -857,6 +968,9 @@
     <t xml:space="preserve">kr</t>
   </si>
   <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">KSA</t>
   </si>
   <si>
@@ -926,6 +1040,9 @@
     <t xml:space="preserve">lt</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTU</t>
   </si>
   <si>
@@ -935,6 +1052,9 @@
     <t xml:space="preserve">lu</t>
   </si>
   <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUX</t>
   </si>
   <si>
@@ -944,6 +1064,9 @@
     <t xml:space="preserve">lv</t>
   </si>
   <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVA</t>
   </si>
   <si>
@@ -953,6 +1076,9 @@
     <t xml:space="preserve">ma</t>
   </si>
   <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAC</t>
   </si>
   <si>
@@ -1061,9 +1187,15 @@
     <t xml:space="preserve">mx</t>
   </si>
   <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
     <t xml:space="preserve">my</t>
   </si>
   <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYA</t>
   </si>
   <si>
@@ -1115,6 +1247,9 @@
     <t xml:space="preserve">ni</t>
   </si>
   <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIG</t>
   </si>
   <si>
@@ -1130,12 +1265,18 @@
     <t xml:space="preserve">nl</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NLD</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOR</t>
   </si>
   <si>
@@ -1145,6 +1286,9 @@
     <t xml:space="preserve">nz</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZL</t>
   </si>
   <si>
@@ -1181,6 +1325,9 @@
     <t xml:space="preserve">pa</t>
   </si>
   <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAK</t>
   </si>
   <si>
@@ -1205,6 +1352,9 @@
     <t xml:space="preserve">pe</t>
   </si>
   <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PER</t>
   </si>
   <si>
@@ -1214,6 +1364,9 @@
     <t xml:space="preserve">ph</t>
   </si>
   <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHI</t>
   </si>
   <si>
@@ -1223,6 +1376,9 @@
     <t xml:space="preserve">pl</t>
   </si>
   <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLE</t>
   </si>
   <si>
@@ -1259,6 +1415,9 @@
     <t xml:space="preserve">pt</t>
   </si>
   <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PUR</t>
   </si>
   <si>
@@ -1268,6 +1427,9 @@
     <t xml:space="preserve">py</t>
   </si>
   <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
     <t xml:space="preserve">QAT</t>
   </si>
   <si>
@@ -1277,6 +1439,9 @@
     <t xml:space="preserve">ro</t>
   </si>
   <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROU</t>
   </si>
   <si>
@@ -1292,6 +1457,9 @@
     <t xml:space="preserve">ru</t>
   </si>
   <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUS</t>
   </si>
   <si>
@@ -1307,6 +1475,9 @@
     <t xml:space="preserve">sa</t>
   </si>
   <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
@@ -1334,6 +1505,9 @@
     <t xml:space="preserve">se</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEN</t>
   </si>
   <si>
@@ -1349,6 +1523,9 @@
     <t xml:space="preserve">sg</t>
   </si>
   <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIN</t>
   </si>
   <si>
@@ -1358,6 +1535,9 @@
     <t xml:space="preserve">sk</t>
   </si>
   <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKN</t>
   </si>
   <si>
@@ -1430,6 +1610,9 @@
     <t xml:space="preserve">sv</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVK</t>
   </si>
   <si>
@@ -1496,6 +1679,9 @@
     <t xml:space="preserve">th</t>
   </si>
   <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
     <t xml:space="preserve">THA</t>
   </si>
   <si>
@@ -1538,6 +1724,9 @@
     <t xml:space="preserve">tr</t>
   </si>
   <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRI</t>
   </si>
   <si>
@@ -1559,9 +1748,15 @@
     <t xml:space="preserve">tw</t>
   </si>
   <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
     <t xml:space="preserve">ua</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
@@ -1589,6 +1784,9 @@
     <t xml:space="preserve">us</t>
   </si>
   <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
@@ -1598,6 +1796,9 @@
     <t xml:space="preserve">uy</t>
   </si>
   <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
     <t xml:space="preserve">UZB</t>
   </si>
   <si>
@@ -1643,6 +1844,9 @@
     <t xml:space="preserve">vn</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
     <t xml:space="preserve">WAL</t>
   </si>
   <si>
@@ -1662,6 +1866,9 @@
   </si>
   <si>
     <t xml:space="preserve">za</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
   </si>
   <si>
     <t xml:space="preserve">ZAF</t>
@@ -2070,36 +2277,30 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2110,16 +2311,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -2130,16 +2331,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2150,16 +2351,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2170,16 +2371,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2190,16 +2391,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2210,70 +2411,64 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2284,16 +2479,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2304,30 +2499,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2341,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2352,27 +2553,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
+      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -2381,7 +2576,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -2392,47 +2587,35 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
+      <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -2441,7 +2624,7 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -2452,16 +2635,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2472,16 +2655,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2492,16 +2675,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -2512,44 +2695,56 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -2560,16 +2755,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2580,90 +2775,78 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
+      <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -2674,16 +2857,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -2694,16 +2877,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -2714,16 +2897,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -2734,30 +2917,24 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
+      <c r="F39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -2768,16 +2945,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -2788,16 +2965,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -2808,30 +2985,36 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43"/>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -2842,16 +3025,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2862,56 +3045,44 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
+      <c r="F46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
       <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
+      <c r="F47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -2922,70 +3093,64 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="F49"/>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
       <c r="E50" t="s">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
+      <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
       <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2996,16 +3161,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -3016,16 +3181,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -3036,30 +3201,36 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55"/>
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
-      <c r="F55"/>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3070,56 +3241,44 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
       <c r="E57" t="s">
         <v>10</v>
       </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
+      <c r="F57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
+      <c r="F58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -3133,10 +3292,10 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -3150,16 +3309,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -3170,16 +3329,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -3190,44 +3349,44 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63"/>
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63"/>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" t="s">
-        <v>25</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
       <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
+      <c r="F64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -3238,16 +3397,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -3258,16 +3417,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -3278,16 +3437,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -3298,16 +3457,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -3318,16 +3477,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -3338,16 +3497,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -3358,70 +3517,64 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72"/>
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
-      <c r="F72"/>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
       <c r="E73" t="s">
         <v>10</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
+      <c r="F73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
       <c r="E74" t="s">
         <v>10</v>
       </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
+      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -3432,56 +3585,44 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
       <c r="E76" t="s">
         <v>10</v>
       </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
+      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
       <c r="E77" t="s">
         <v>10</v>
       </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
+      <c r="F77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -3492,16 +3633,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -3512,30 +3653,36 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
-      <c r="F80"/>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -3546,16 +3693,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -3566,70 +3713,64 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
+        <v>141</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
-      <c r="F83"/>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
       <c r="E84" t="s">
         <v>10</v>
       </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
+      <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="E85" t="s">
         <v>10</v>
       </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
+      <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -3640,30 +3781,36 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87"/>
+        <v>147</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
-      <c r="F87"/>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -3674,16 +3821,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -3694,30 +3841,36 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90"/>
-      <c r="D90"/>
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
-      <c r="F90"/>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -3728,16 +3881,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -3751,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -3762,104 +3915,98 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" t="s">
-        <v>35</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
       <c r="E94" t="s">
         <v>10</v>
       </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
+      <c r="F94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95"/>
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
-      <c r="F95"/>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96"/>
-      <c r="D96"/>
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
-      <c r="F96"/>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
       <c r="E97" t="s">
         <v>10</v>
       </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
+      <c r="F97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" t="s">
-        <v>172</v>
-      </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
       <c r="E98" t="s">
         <v>10</v>
       </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
+      <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -3870,16 +4017,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -3890,70 +4037,64 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101"/>
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
-      <c r="F101"/>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" t="s">
-        <v>179</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
       <c r="E102" t="s">
         <v>10</v>
       </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
+      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" t="s">
-        <v>22</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
       <c r="E103" t="s">
         <v>10</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
+      <c r="F103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -3964,16 +4105,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C105" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -3984,30 +4125,24 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
       <c r="E106" t="s">
         <v>10</v>
       </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
+      <c r="F106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -4018,16 +4153,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4041,10 +4176,10 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -4058,30 +4193,24 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" t="s">
-        <v>188</v>
-      </c>
-      <c r="D110" t="s">
-        <v>22</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
       <c r="E110" t="s">
         <v>10</v>
       </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
+      <c r="F110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -4092,16 +4221,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -4112,96 +4241,72 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" t="s">
-        <v>22</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
       <c r="E113" t="s">
         <v>10</v>
       </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
+      <c r="F113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114" t="s">
-        <v>193</v>
-      </c>
-      <c r="D114" t="s">
-        <v>22</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
       <c r="E114" t="s">
         <v>10</v>
       </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
+      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
       <c r="E115" t="s">
         <v>10</v>
       </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
+      <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" t="s">
-        <v>197</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
       <c r="E116" t="s">
         <v>10</v>
       </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
+      <c r="F116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -4212,16 +4317,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -4232,30 +4337,36 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119"/>
-      <c r="D119"/>
+        <v>193</v>
+      </c>
+      <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
-      <c r="F119"/>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -4266,56 +4377,44 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" t="s">
-        <v>206</v>
-      </c>
-      <c r="D121" t="s">
-        <v>22</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
       <c r="E121" t="s">
         <v>10</v>
       </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
+      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" t="s">
-        <v>152</v>
-      </c>
-      <c r="D122" t="s">
-        <v>22</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
       <c r="E122" t="s">
         <v>10</v>
       </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
+      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C123" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -4326,16 +4425,16 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
@@ -4346,30 +4445,36 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
-      </c>
-      <c r="C125"/>
-      <c r="D125"/>
+        <v>201</v>
+      </c>
+      <c r="C125" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
-      <c r="F125"/>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
@@ -4380,70 +4485,64 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
-      </c>
-      <c r="C127"/>
-      <c r="D127"/>
+        <v>203</v>
+      </c>
+      <c r="C127" t="s">
+        <v>204</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
-      <c r="F127"/>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
       <c r="E128" t="s">
         <v>10</v>
       </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
+      <c r="F128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" t="s">
-        <v>217</v>
-      </c>
-      <c r="D129" t="s">
-        <v>22</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
       <c r="E129" t="s">
         <v>10</v>
       </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
+      <c r="F129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -4454,30 +4553,36 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
-      </c>
-      <c r="C131"/>
-      <c r="D131"/>
+        <v>209</v>
+      </c>
+      <c r="C131" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
-      <c r="F131"/>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -4488,56 +4593,44 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" t="s">
-        <v>25</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
       <c r="E133" t="s">
         <v>10</v>
       </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
+      <c r="F133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
-      </c>
-      <c r="C134" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
       <c r="E134" t="s">
         <v>10</v>
       </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
+      <c r="F134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -4548,16 +4641,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -4568,30 +4661,36 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
-      </c>
-      <c r="C137"/>
-      <c r="D137"/>
+        <v>215</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
-      <c r="F137"/>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -4602,30 +4701,36 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139"/>
-      <c r="D139"/>
+        <v>219</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
-      <c r="F139"/>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -4636,84 +4741,84 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
-      </c>
-      <c r="C141"/>
-      <c r="D141"/>
+        <v>223</v>
+      </c>
+      <c r="C141" t="s">
+        <v>224</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
-      <c r="F141"/>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
-      </c>
-      <c r="C142" t="s">
-        <v>240</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
       <c r="E142" t="s">
         <v>10</v>
       </c>
-      <c r="F142" t="s">
-        <v>10</v>
-      </c>
+      <c r="F142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
-      </c>
-      <c r="C143" t="s">
-        <v>240</v>
-      </c>
-      <c r="D143" t="s">
-        <v>22</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
       <c r="E143" t="s">
         <v>10</v>
       </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
+      <c r="F143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
-      </c>
-      <c r="C144"/>
-      <c r="D144"/>
+        <v>227</v>
+      </c>
+      <c r="C144" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
       <c r="E144" t="s">
         <v>10</v>
       </c>
-      <c r="F144"/>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C145" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -4724,16 +4829,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -4744,38 +4849,50 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147"/>
-      <c r="D147"/>
+        <v>232</v>
+      </c>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
-      <c r="F147"/>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
-      </c>
-      <c r="C148"/>
-      <c r="D148"/>
+        <v>234</v>
+      </c>
+      <c r="C148" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
-      <c r="F148"/>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -4786,36 +4903,30 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
-      </c>
-      <c r="C150" t="s">
-        <v>248</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
       <c r="E150" t="s">
         <v>10</v>
       </c>
-      <c r="F150" t="s">
-        <v>10</v>
-      </c>
+      <c r="F150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -4826,56 +4937,44 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
-      </c>
-      <c r="C152" t="s">
-        <v>250</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
       <c r="E152" t="s">
         <v>10</v>
       </c>
-      <c r="F152" t="s">
-        <v>10</v>
-      </c>
+      <c r="F152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
-      </c>
-      <c r="C153" t="s">
-        <v>251</v>
-      </c>
-      <c r="D153" t="s">
-        <v>22</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153"/>
       <c r="E153" t="s">
         <v>10</v>
       </c>
-      <c r="F153" t="s">
-        <v>10</v>
-      </c>
+      <c r="F153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C154" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
@@ -4886,16 +4985,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C155" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
@@ -4906,70 +5005,64 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
-      </c>
-      <c r="C156"/>
-      <c r="D156"/>
+        <v>245</v>
+      </c>
+      <c r="C156" t="s">
+        <v>246</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
-      <c r="F156"/>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
-      </c>
-      <c r="C157" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" t="s">
-        <v>9</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157"/>
       <c r="E157" t="s">
         <v>10</v>
       </c>
-      <c r="F157" t="s">
-        <v>10</v>
-      </c>
+      <c r="F157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" t="s">
-        <v>22</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158"/>
       <c r="E158" t="s">
         <v>10</v>
       </c>
-      <c r="F158" t="s">
-        <v>10</v>
-      </c>
+      <c r="F158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -4980,16 +5073,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C160" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -5000,30 +5093,36 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161"/>
-      <c r="D161"/>
+        <v>253</v>
+      </c>
+      <c r="C161" t="s">
+        <v>254</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
       <c r="E161" t="s">
         <v>10</v>
       </c>
-      <c r="F161"/>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C162" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -5034,16 +5133,16 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C163" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
@@ -5054,110 +5153,92 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
-      </c>
-      <c r="C164" t="s">
-        <v>265</v>
-      </c>
-      <c r="D164" t="s">
-        <v>19</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
       <c r="E164" t="s">
         <v>10</v>
       </c>
-      <c r="F164" t="s">
-        <v>10</v>
-      </c>
+      <c r="F164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
-      </c>
-      <c r="C165" t="s">
-        <v>267</v>
-      </c>
-      <c r="D165" t="s">
-        <v>16</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
       <c r="E165" t="s">
         <v>10</v>
       </c>
-      <c r="F165" t="s">
-        <v>10</v>
-      </c>
+      <c r="F165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
-      </c>
-      <c r="C166"/>
-      <c r="D166"/>
+        <v>261</v>
+      </c>
+      <c r="C166" t="s">
+        <v>262</v>
+      </c>
+      <c r="D166" t="s">
+        <v>17</v>
+      </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
-      <c r="F166"/>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
-      </c>
-      <c r="C167" t="s">
-        <v>270</v>
-      </c>
-      <c r="D167" t="s">
-        <v>9</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
       <c r="E167" t="s">
         <v>10</v>
       </c>
-      <c r="F167" t="s">
-        <v>10</v>
-      </c>
+      <c r="F167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
-      </c>
-      <c r="C168" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" t="s">
-        <v>16</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168"/>
       <c r="E168" t="s">
         <v>10</v>
       </c>
-      <c r="F168" t="s">
-        <v>10</v>
-      </c>
+      <c r="F168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C169" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
@@ -5168,53 +5249,41 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
-      </c>
-      <c r="C170" t="s">
-        <v>274</v>
-      </c>
-      <c r="D170" t="s">
-        <v>25</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C170"/>
+      <c r="D170"/>
       <c r="E170" t="s">
         <v>10</v>
       </c>
-      <c r="F170" t="s">
-        <v>10</v>
-      </c>
+      <c r="F170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>275</v>
-      </c>
-      <c r="C171" t="s">
-        <v>276</v>
-      </c>
-      <c r="D171" t="s">
-        <v>16</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171"/>
       <c r="E171" t="s">
         <v>10</v>
       </c>
-      <c r="F171" t="s">
-        <v>10</v>
-      </c>
+      <c r="F171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -5228,16 +5297,16 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
@@ -5251,7 +5320,7 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
@@ -5262,36 +5331,30 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
-      </c>
-      <c r="C175" t="s">
-        <v>282</v>
-      </c>
-      <c r="D175" t="s">
-        <v>16</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175"/>
       <c r="E175" t="s">
         <v>10</v>
       </c>
-      <c r="F175" t="s">
-        <v>10</v>
-      </c>
+      <c r="F175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -5302,16 +5365,16 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D177" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -5322,136 +5385,100 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
-      </c>
-      <c r="C178" t="s">
-        <v>288</v>
-      </c>
-      <c r="D178" t="s">
-        <v>16</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C178"/>
+      <c r="D178"/>
       <c r="E178" t="s">
         <v>10</v>
       </c>
-      <c r="F178" t="s">
-        <v>10</v>
-      </c>
+      <c r="F178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>289</v>
-      </c>
-      <c r="C179" t="s">
-        <v>290</v>
-      </c>
-      <c r="D179" t="s">
-        <v>16</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C179"/>
+      <c r="D179"/>
       <c r="E179" t="s">
         <v>10</v>
       </c>
-      <c r="F179" t="s">
-        <v>10</v>
-      </c>
+      <c r="F179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
-      </c>
-      <c r="C180" t="s">
-        <v>292</v>
-      </c>
-      <c r="D180" t="s">
-        <v>25</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C180"/>
+      <c r="D180"/>
       <c r="E180" t="s">
         <v>10</v>
       </c>
-      <c r="F180" t="s">
-        <v>10</v>
-      </c>
+      <c r="F180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
-      </c>
-      <c r="C181" t="s">
-        <v>294</v>
-      </c>
-      <c r="D181" t="s">
-        <v>25</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C181"/>
+      <c r="D181"/>
       <c r="E181" t="s">
         <v>10</v>
       </c>
-      <c r="F181" t="s">
-        <v>10</v>
-      </c>
+      <c r="F181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>295</v>
-      </c>
-      <c r="C182" t="s">
-        <v>296</v>
-      </c>
-      <c r="D182" t="s">
-        <v>19</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182"/>
       <c r="E182" t="s">
         <v>10</v>
       </c>
-      <c r="F182" t="s">
-        <v>10</v>
-      </c>
+      <c r="F182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
-      </c>
-      <c r="C183" t="s">
-        <v>298</v>
-      </c>
-      <c r="D183" t="s">
-        <v>25</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
       <c r="E183" t="s">
         <v>10</v>
       </c>
-      <c r="F183" t="s">
-        <v>10</v>
-      </c>
+      <c r="F183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C184" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
@@ -5462,16 +5489,16 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C185" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D185" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -5482,44 +5509,56 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>302</v>
-      </c>
-      <c r="C186"/>
-      <c r="D186"/>
+        <v>283</v>
+      </c>
+      <c r="C186" t="s">
+        <v>284</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
-      <c r="F186"/>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>303</v>
-      </c>
-      <c r="C187"/>
-      <c r="D187"/>
+        <v>283</v>
+      </c>
+      <c r="C187" t="s">
+        <v>285</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
-      <c r="F187"/>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -5530,16 +5569,16 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D189" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -5553,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
@@ -5564,36 +5603,30 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>307</v>
-      </c>
-      <c r="C191" t="s">
-        <v>308</v>
-      </c>
-      <c r="D191" t="s">
-        <v>9</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
       <c r="E191" t="s">
         <v>10</v>
       </c>
-      <c r="F191" t="s">
-        <v>10</v>
-      </c>
+      <c r="F191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D192" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
@@ -5604,27 +5637,33 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>309</v>
-      </c>
-      <c r="C193"/>
-      <c r="D193"/>
+        <v>292</v>
+      </c>
+      <c r="C193" t="s">
+        <v>293</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
       <c r="E193" t="s">
         <v>10</v>
       </c>
-      <c r="F193"/>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C194" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -5638,16 +5677,16 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C195" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D195" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -5661,7 +5700,7 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C196"/>
       <c r="D196"/>
@@ -5672,36 +5711,30 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>313</v>
-      </c>
-      <c r="C197" t="s">
-        <v>314</v>
-      </c>
-      <c r="D197" t="s">
-        <v>16</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
       <c r="E197" t="s">
         <v>10</v>
       </c>
-      <c r="F197" t="s">
-        <v>10</v>
-      </c>
+      <c r="F197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C198" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
@@ -5712,30 +5745,36 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>317</v>
-      </c>
-      <c r="C199"/>
-      <c r="D199"/>
+        <v>298</v>
+      </c>
+      <c r="C199" t="s">
+        <v>299</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
-      <c r="F199"/>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -5746,16 +5785,16 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
@@ -5766,53 +5805,41 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>322</v>
-      </c>
-      <c r="C202" t="s">
-        <v>323</v>
-      </c>
-      <c r="D202" t="s">
-        <v>22</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
       <c r="E202" t="s">
         <v>10</v>
       </c>
-      <c r="F202" t="s">
-        <v>10</v>
-      </c>
+      <c r="F202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>324</v>
-      </c>
-      <c r="C203" t="s">
-        <v>325</v>
-      </c>
-      <c r="D203" t="s">
-        <v>16</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
       <c r="E203" t="s">
         <v>10</v>
       </c>
-      <c r="F203" t="s">
-        <v>10</v>
-      </c>
+      <c r="F203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C204" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -5826,16 +5853,16 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C205" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -5846,16 +5873,16 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C206" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D206" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
@@ -5866,16 +5893,16 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C207" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -5886,16 +5913,16 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C208" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D208" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -5906,16 +5933,16 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D209" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
@@ -5926,16 +5953,16 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
@@ -5946,56 +5973,44 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>338</v>
-      </c>
-      <c r="C211" t="s">
-        <v>339</v>
-      </c>
-      <c r="D211" t="s">
-        <v>25</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
       <c r="E211" t="s">
         <v>10</v>
       </c>
-      <c r="F211" t="s">
-        <v>10</v>
-      </c>
+      <c r="F211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>340</v>
-      </c>
-      <c r="C212" t="s">
-        <v>341</v>
-      </c>
-      <c r="D212" t="s">
-        <v>25</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
       <c r="E212" t="s">
         <v>10</v>
       </c>
-      <c r="F212" t="s">
-        <v>10</v>
-      </c>
+      <c r="F212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C213" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
@@ -6006,16 +6021,16 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
@@ -6026,16 +6041,16 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C215" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D215" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -6046,44 +6061,56 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>348</v>
-      </c>
-      <c r="C216"/>
-      <c r="D216"/>
+        <v>325</v>
+      </c>
+      <c r="C216" t="s">
+        <v>326</v>
+      </c>
+      <c r="D216" t="s">
+        <v>17</v>
+      </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
-      <c r="F216"/>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>349</v>
-      </c>
-      <c r="C217"/>
-      <c r="D217"/>
+        <v>327</v>
+      </c>
+      <c r="C217" t="s">
+        <v>328</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
-      <c r="F217"/>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C218" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
@@ -6094,16 +6121,16 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C219" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
@@ -6114,16 +6141,16 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
@@ -6134,16 +6161,16 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C221" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
@@ -6154,16 +6181,16 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="D222" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
@@ -6174,16 +6201,16 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C223" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
@@ -6194,30 +6221,24 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B224" t="s">
-        <v>361</v>
-      </c>
-      <c r="C224" t="s">
-        <v>362</v>
-      </c>
-      <c r="D224" t="s">
-        <v>16</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
       <c r="E224" t="s">
         <v>10</v>
       </c>
-      <c r="F224" t="s">
-        <v>10</v>
-      </c>
+      <c r="F224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C225"/>
       <c r="D225"/>
@@ -6228,50 +6249,50 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>364</v>
-      </c>
-      <c r="C226" t="s">
-        <v>365</v>
-      </c>
-      <c r="D226" t="s">
-        <v>25</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
       <c r="E226" t="s">
         <v>10</v>
       </c>
-      <c r="F226" t="s">
-        <v>10</v>
-      </c>
+      <c r="F226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>366</v>
-      </c>
-      <c r="C227"/>
-      <c r="D227"/>
+        <v>343</v>
+      </c>
+      <c r="C227" t="s">
+        <v>344</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
       <c r="E227" t="s">
         <v>10</v>
       </c>
-      <c r="F227"/>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C228" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -6282,30 +6303,24 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>369</v>
-      </c>
-      <c r="C229" t="s">
-        <v>370</v>
-      </c>
-      <c r="D229" t="s">
-        <v>22</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
       <c r="E229" t="s">
         <v>10</v>
       </c>
-      <c r="F229" t="s">
-        <v>10</v>
-      </c>
+      <c r="F229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C230"/>
       <c r="D230"/>
@@ -6319,10 +6334,10 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C231" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -6336,84 +6351,84 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>373</v>
-      </c>
-      <c r="C232"/>
-      <c r="D232"/>
+        <v>347</v>
+      </c>
+      <c r="C232" t="s">
+        <v>348</v>
+      </c>
+      <c r="D232" t="s">
+        <v>23</v>
+      </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
-      <c r="F232"/>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>374</v>
-      </c>
-      <c r="C233" t="s">
-        <v>375</v>
-      </c>
-      <c r="D233" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
       <c r="E233" t="s">
         <v>10</v>
       </c>
-      <c r="F233" t="s">
-        <v>10</v>
-      </c>
+      <c r="F233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>374</v>
-      </c>
-      <c r="C234" t="s">
-        <v>375</v>
-      </c>
-      <c r="D234" t="s">
-        <v>22</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
       <c r="E234" t="s">
         <v>10</v>
       </c>
-      <c r="F234" t="s">
-        <v>10</v>
-      </c>
+      <c r="F234"/>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>376</v>
-      </c>
-      <c r="C235"/>
-      <c r="D235"/>
+        <v>351</v>
+      </c>
+      <c r="C235" t="s">
+        <v>352</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
-      <c r="F235"/>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="C236" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -6424,56 +6439,44 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>377</v>
-      </c>
-      <c r="C237" t="s">
-        <v>378</v>
-      </c>
-      <c r="D237" t="s">
-        <v>42</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
       <c r="E237" t="s">
         <v>10</v>
       </c>
-      <c r="F237" t="s">
-        <v>10</v>
-      </c>
+      <c r="F237"/>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" t="s">
-        <v>379</v>
-      </c>
-      <c r="D238" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
       <c r="E238" t="s">
         <v>10</v>
       </c>
-      <c r="F238" t="s">
-        <v>10</v>
-      </c>
+      <c r="F238"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C239" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
@@ -6484,16 +6487,16 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C240" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
@@ -6504,36 +6507,30 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
-      </c>
-      <c r="C241" t="s">
-        <v>385</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
       <c r="E241" t="s">
         <v>10</v>
       </c>
-      <c r="F241" t="s">
-        <v>10</v>
-      </c>
+      <c r="F241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B242" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C242" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
@@ -6544,30 +6541,36 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
-        <v>388</v>
-      </c>
-      <c r="C243"/>
-      <c r="D243"/>
+        <v>362</v>
+      </c>
+      <c r="C243" t="s">
+        <v>363</v>
+      </c>
+      <c r="D243" t="s">
+        <v>17</v>
+      </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
-      <c r="F243"/>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C244" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -6578,16 +6581,16 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B245" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C245" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
@@ -6598,16 +6601,16 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C246" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D246" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
@@ -6618,44 +6621,56 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>395</v>
-      </c>
-      <c r="C247"/>
-      <c r="D247"/>
+        <v>368</v>
+      </c>
+      <c r="C247" t="s">
+        <v>369</v>
+      </c>
+      <c r="D247" t="s">
+        <v>20</v>
+      </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
-      <c r="F247"/>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B248" t="s">
-        <v>396</v>
-      </c>
-      <c r="C248"/>
-      <c r="D248"/>
+        <v>370</v>
+      </c>
+      <c r="C248" t="s">
+        <v>371</v>
+      </c>
+      <c r="D248" t="s">
+        <v>23</v>
+      </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
-      <c r="F248"/>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B249" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="C249" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D249" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
@@ -6666,30 +6681,36 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>399</v>
-      </c>
-      <c r="C250"/>
-      <c r="D250"/>
+        <v>374</v>
+      </c>
+      <c r="C250" t="s">
+        <v>375</v>
+      </c>
+      <c r="D250" t="s">
+        <v>23</v>
+      </c>
       <c r="E250" t="s">
         <v>10</v>
       </c>
-      <c r="F250"/>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="C251" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
@@ -6700,30 +6721,36 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>402</v>
-      </c>
-      <c r="C252"/>
-      <c r="D252"/>
+        <v>378</v>
+      </c>
+      <c r="C252" t="s">
+        <v>379</v>
+      </c>
+      <c r="D252" t="s">
+        <v>17</v>
+      </c>
       <c r="E252" t="s">
         <v>10</v>
       </c>
-      <c r="F252"/>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
@@ -6734,16 +6761,16 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B254" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C254" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D254" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
@@ -6754,16 +6781,16 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C255" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
@@ -6774,16 +6801,16 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C256" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D256" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -6794,16 +6821,16 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C257" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D257" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -6814,50 +6841,38 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>411</v>
-      </c>
-      <c r="C258" t="s">
-        <v>412</v>
-      </c>
-      <c r="D258" t="s">
-        <v>16</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
       <c r="E258" t="s">
         <v>10</v>
       </c>
-      <c r="F258" t="s">
-        <v>10</v>
-      </c>
+      <c r="F258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>413</v>
-      </c>
-      <c r="C259" t="s">
-        <v>410</v>
-      </c>
-      <c r="D259" t="s">
-        <v>9</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
       <c r="E259" t="s">
         <v>10</v>
       </c>
-      <c r="F259" t="s">
-        <v>10</v>
-      </c>
+      <c r="F259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
         <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -6868,50 +6883,50 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>415</v>
-      </c>
-      <c r="C261" t="s">
-        <v>416</v>
-      </c>
-      <c r="D261" t="s">
-        <v>19</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
       <c r="E261" t="s">
         <v>10</v>
       </c>
-      <c r="F261" t="s">
-        <v>10</v>
-      </c>
+      <c r="F261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B262" t="s">
-        <v>417</v>
-      </c>
-      <c r="C262"/>
-      <c r="D262"/>
+        <v>394</v>
+      </c>
+      <c r="C262" t="s">
+        <v>395</v>
+      </c>
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
-      <c r="F262"/>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C263" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -6922,30 +6937,36 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B264" t="s">
-        <v>420</v>
-      </c>
-      <c r="C264"/>
-      <c r="D264"/>
+        <v>397</v>
+      </c>
+      <c r="C264" t="s">
+        <v>398</v>
+      </c>
+      <c r="D264" t="s">
+        <v>26</v>
+      </c>
       <c r="E264" t="s">
         <v>10</v>
       </c>
-      <c r="F264"/>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C265" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="D265" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -6956,16 +6977,16 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B266" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C266" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
@@ -6976,30 +6997,36 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B267" t="s">
-        <v>425</v>
-      </c>
-      <c r="C267"/>
-      <c r="D267"/>
+        <v>403</v>
+      </c>
+      <c r="C267" t="s">
+        <v>404</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
-      <c r="F267"/>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B268" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C268" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -7010,36 +7037,30 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B269" t="s">
-        <v>426</v>
-      </c>
-      <c r="C269" t="s">
-        <v>427</v>
-      </c>
-      <c r="D269" t="s">
-        <v>22</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
       <c r="E269" t="s">
         <v>10</v>
       </c>
-      <c r="F269" t="s">
-        <v>10</v>
-      </c>
+      <c r="F269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B270" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C270" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -7053,7 +7074,7 @@
         <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -7064,36 +7085,30 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>431</v>
-      </c>
-      <c r="C272" t="s">
-        <v>432</v>
-      </c>
-      <c r="D272" t="s">
-        <v>42</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
       <c r="E272" t="s">
         <v>10</v>
       </c>
-      <c r="F272" t="s">
-        <v>10</v>
-      </c>
+      <c r="F272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B273" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C273" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D273" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
@@ -7104,16 +7119,16 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B274" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C274" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D274" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
@@ -7124,30 +7139,24 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>437</v>
-      </c>
-      <c r="C275" t="s">
-        <v>438</v>
-      </c>
-      <c r="D275" t="s">
-        <v>25</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C275"/>
+      <c r="D275"/>
       <c r="E275" t="s">
         <v>10</v>
       </c>
-      <c r="F275" t="s">
-        <v>10</v>
-      </c>
+      <c r="F275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
         <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -7158,16 +7167,16 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C277" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="D277" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
@@ -7178,30 +7187,24 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>442</v>
-      </c>
-      <c r="C278" t="s">
-        <v>443</v>
-      </c>
-      <c r="D278" t="s">
-        <v>25</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C278"/>
+      <c r="D278"/>
       <c r="E278" t="s">
         <v>10</v>
       </c>
-      <c r="F278" t="s">
-        <v>10</v>
-      </c>
+      <c r="F278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
         <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -7212,16 +7215,16 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C280" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D280" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
@@ -7232,70 +7235,64 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>447</v>
-      </c>
-      <c r="C281"/>
-      <c r="D281"/>
+        <v>421</v>
+      </c>
+      <c r="C281" t="s">
+        <v>422</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
+      </c>
       <c r="E281" t="s">
         <v>10</v>
       </c>
-      <c r="F281"/>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>448</v>
-      </c>
-      <c r="C282" t="s">
-        <v>449</v>
-      </c>
-      <c r="D282" t="s">
-        <v>19</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C282"/>
+      <c r="D282"/>
       <c r="E282" t="s">
         <v>10</v>
       </c>
-      <c r="F282" t="s">
-        <v>10</v>
-      </c>
+      <c r="F282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>450</v>
-      </c>
-      <c r="C283" t="s">
-        <v>451</v>
-      </c>
-      <c r="D283" t="s">
-        <v>25</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C283"/>
+      <c r="D283"/>
       <c r="E283" t="s">
         <v>10</v>
       </c>
-      <c r="F283" t="s">
-        <v>10</v>
-      </c>
+      <c r="F283"/>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="C284" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="D284" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E284" t="s">
         <v>10</v>
@@ -7306,16 +7303,16 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C285" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="D285" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -7326,16 +7323,16 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="D286" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
@@ -7346,16 +7343,16 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="C287" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D287" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -7366,16 +7363,16 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="C288" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="D288" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -7386,16 +7383,16 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="C289" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -7406,16 +7403,16 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C290" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -7426,56 +7423,44 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>466</v>
-      </c>
-      <c r="C291" t="s">
-        <v>467</v>
-      </c>
-      <c r="D291" t="s">
-        <v>25</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
       <c r="E291" t="s">
         <v>10</v>
       </c>
-      <c r="F291" t="s">
-        <v>10</v>
-      </c>
+      <c r="F291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>468</v>
-      </c>
-      <c r="C292" t="s">
-        <v>108</v>
-      </c>
-      <c r="D292" t="s">
-        <v>22</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
       <c r="E292" t="s">
         <v>10</v>
       </c>
-      <c r="F292" t="s">
-        <v>10</v>
-      </c>
+      <c r="F292"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C293" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="D293" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
@@ -7486,30 +7471,36 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B294" t="s">
-        <v>471</v>
-      </c>
-      <c r="C294"/>
-      <c r="D294"/>
+        <v>440</v>
+      </c>
+      <c r="C294" t="s">
+        <v>441</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
       <c r="E294" t="s">
         <v>10</v>
       </c>
-      <c r="F294"/>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="C295" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="D295" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
@@ -7520,76 +7511,58 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>472</v>
-      </c>
-      <c r="C296" t="s">
-        <v>474</v>
-      </c>
-      <c r="D296" t="s">
-        <v>22</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C296"/>
+      <c r="D296"/>
       <c r="E296" t="s">
         <v>10</v>
       </c>
-      <c r="F296" t="s">
-        <v>10</v>
-      </c>
+      <c r="F296"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B297" t="s">
-        <v>475</v>
-      </c>
-      <c r="C297" t="s">
-        <v>476</v>
-      </c>
-      <c r="D297" t="s">
-        <v>9</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C297"/>
+      <c r="D297"/>
       <c r="E297" t="s">
         <v>10</v>
       </c>
-      <c r="F297" t="s">
-        <v>10</v>
-      </c>
+      <c r="F297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>475</v>
-      </c>
-      <c r="C298" t="s">
-        <v>476</v>
-      </c>
-      <c r="D298" t="s">
-        <v>22</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298"/>
       <c r="E298" t="s">
         <v>10</v>
       </c>
-      <c r="F298" t="s">
-        <v>10</v>
-      </c>
+      <c r="F298"/>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B299" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C299" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="D299" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E299" t="s">
         <v>10</v>
@@ -7600,56 +7573,44 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>477</v>
-      </c>
-      <c r="C300" t="s">
-        <v>478</v>
-      </c>
-      <c r="D300" t="s">
-        <v>22</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C300"/>
+      <c r="D300"/>
       <c r="E300" t="s">
         <v>10</v>
       </c>
-      <c r="F300" t="s">
-        <v>10</v>
-      </c>
+      <c r="F300"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>479</v>
-      </c>
-      <c r="C301" t="s">
-        <v>480</v>
-      </c>
-      <c r="D301" t="s">
-        <v>25</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C301"/>
+      <c r="D301"/>
       <c r="E301" t="s">
         <v>10</v>
       </c>
-      <c r="F301" t="s">
-        <v>10</v>
-      </c>
+      <c r="F301"/>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B302" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C302" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E302" t="s">
         <v>10</v>
@@ -7660,56 +7621,44 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>483</v>
-      </c>
-      <c r="C303" t="s">
-        <v>484</v>
-      </c>
-      <c r="D303" t="s">
-        <v>42</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C303"/>
+      <c r="D303"/>
       <c r="E303" t="s">
         <v>10</v>
       </c>
-      <c r="F303" t="s">
-        <v>10</v>
-      </c>
+      <c r="F303"/>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>485</v>
-      </c>
-      <c r="C304" t="s">
-        <v>486</v>
-      </c>
-      <c r="D304" t="s">
-        <v>25</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C304"/>
+      <c r="D304"/>
       <c r="E304" t="s">
         <v>10</v>
       </c>
-      <c r="F304" t="s">
-        <v>10</v>
-      </c>
+      <c r="F304"/>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C305" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="D305" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
@@ -7720,16 +7669,16 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B306" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="C306" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
@@ -7740,16 +7689,16 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="C307" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D307" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
@@ -7760,30 +7709,36 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B308" t="s">
-        <v>493</v>
-      </c>
-      <c r="C308"/>
-      <c r="D308"/>
+        <v>459</v>
+      </c>
+      <c r="C308" t="s">
+        <v>460</v>
+      </c>
+      <c r="D308" t="s">
+        <v>23</v>
+      </c>
       <c r="E308" t="s">
         <v>10</v>
       </c>
-      <c r="F308"/>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B309" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C309" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="D309" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
@@ -7794,16 +7749,16 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B310" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="C310" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="D310" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -7814,16 +7769,16 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="C311" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="D311" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -7834,84 +7789,72 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>500</v>
-      </c>
-      <c r="C312" t="s">
-        <v>501</v>
-      </c>
-      <c r="D312" t="s">
-        <v>16</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
       <c r="E312" t="s">
         <v>10</v>
       </c>
-      <c r="F312" t="s">
-        <v>10</v>
-      </c>
+      <c r="F312"/>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B313" t="s">
-        <v>502</v>
-      </c>
-      <c r="C313" t="s">
-        <v>503</v>
-      </c>
-      <c r="D313" t="s">
-        <v>25</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
       <c r="E313" t="s">
         <v>10</v>
       </c>
-      <c r="F313" t="s">
-        <v>10</v>
-      </c>
+      <c r="F313"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>504</v>
-      </c>
-      <c r="C314"/>
-      <c r="D314"/>
+        <v>468</v>
+      </c>
+      <c r="C314" t="s">
+        <v>469</v>
+      </c>
+      <c r="D314" t="s">
+        <v>20</v>
+      </c>
       <c r="E314" t="s">
         <v>10</v>
       </c>
-      <c r="F314"/>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>505</v>
-      </c>
-      <c r="C315" t="s">
-        <v>506</v>
-      </c>
-      <c r="D315" t="s">
-        <v>16</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
       <c r="E315" t="s">
         <v>10</v>
       </c>
-      <c r="F315" t="s">
-        <v>10</v>
-      </c>
+      <c r="F315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
         <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="C316"/>
       <c r="D316"/>
@@ -7922,16 +7865,16 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B317" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="C317" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="D317" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E317" t="s">
         <v>10</v>
@@ -7942,56 +7885,44 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>510</v>
-      </c>
-      <c r="C318" t="s">
-        <v>511</v>
-      </c>
-      <c r="D318" t="s">
-        <v>25</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
       <c r="E318" t="s">
         <v>10</v>
       </c>
-      <c r="F318" t="s">
-        <v>10</v>
-      </c>
+      <c r="F318"/>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>512</v>
-      </c>
-      <c r="C319" t="s">
-        <v>513</v>
-      </c>
-      <c r="D319" t="s">
-        <v>9</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
       <c r="E319" t="s">
         <v>10</v>
       </c>
-      <c r="F319" t="s">
-        <v>10</v>
-      </c>
+      <c r="F319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B320" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="C320" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="D320" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
@@ -8002,24 +7933,30 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
-        <v>514</v>
-      </c>
-      <c r="C321"/>
-      <c r="D321"/>
+        <v>478</v>
+      </c>
+      <c r="C321" t="s">
+        <v>479</v>
+      </c>
+      <c r="D321" t="s">
+        <v>26</v>
+      </c>
       <c r="E321" t="s">
         <v>10</v>
       </c>
-      <c r="F321"/>
+      <c r="F321" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
         <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="C322"/>
       <c r="D322"/>
@@ -8030,36 +7967,30 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>516</v>
-      </c>
-      <c r="C323" t="s">
-        <v>517</v>
-      </c>
-      <c r="D323" t="s">
-        <v>16</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
       <c r="E323" t="s">
         <v>10</v>
       </c>
-      <c r="F323" t="s">
-        <v>10</v>
-      </c>
+      <c r="F323"/>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="C324" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D324" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E324" t="s">
         <v>10</v>
@@ -8070,16 +8001,16 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B325" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="C325" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="D325" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E325" t="s">
         <v>10</v>
@@ -8090,16 +8021,16 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B326" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="C326" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="D326" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E326" t="s">
         <v>10</v>
@@ -8113,7 +8044,7 @@
         <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C327"/>
       <c r="D327"/>
@@ -8124,36 +8055,30 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>525</v>
-      </c>
-      <c r="C328" t="s">
-        <v>526</v>
-      </c>
-      <c r="D328" t="s">
-        <v>9</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
       <c r="E328" t="s">
         <v>10</v>
       </c>
-      <c r="F328" t="s">
-        <v>10</v>
-      </c>
+      <c r="F328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="C329" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="D329" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E329" t="s">
         <v>10</v>
@@ -8164,30 +8089,36 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
-        <v>527</v>
-      </c>
-      <c r="C330"/>
-      <c r="D330"/>
+        <v>490</v>
+      </c>
+      <c r="C330" t="s">
+        <v>491</v>
+      </c>
+      <c r="D330" t="s">
+        <v>23</v>
+      </c>
       <c r="E330" t="s">
         <v>10</v>
       </c>
-      <c r="F330"/>
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B331" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="C331" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E331" t="s">
         <v>10</v>
@@ -8198,16 +8129,16 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B332" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="C332" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D332" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E332" t="s">
         <v>10</v>
@@ -8218,56 +8149,44 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>532</v>
-      </c>
-      <c r="C333" t="s">
-        <v>533</v>
-      </c>
-      <c r="D333" t="s">
-        <v>35</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
       <c r="E333" t="s">
         <v>10</v>
       </c>
-      <c r="F333" t="s">
-        <v>10</v>
-      </c>
+      <c r="F333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>534</v>
-      </c>
-      <c r="C334" t="s">
-        <v>535</v>
-      </c>
-      <c r="D334" t="s">
-        <v>19</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
       <c r="E334" t="s">
         <v>10</v>
       </c>
-      <c r="F334" t="s">
-        <v>10</v>
-      </c>
+      <c r="F334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B335" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="C335" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E335" t="s">
         <v>10</v>
@@ -8278,16 +8197,16 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B336" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="C336" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="D336" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E336" t="s">
         <v>10</v>
@@ -8298,30 +8217,24 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>540</v>
-      </c>
-      <c r="C337" t="s">
-        <v>541</v>
-      </c>
-      <c r="D337" t="s">
-        <v>19</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
       <c r="E337" t="s">
         <v>10</v>
       </c>
-      <c r="F337" t="s">
-        <v>10</v>
-      </c>
+      <c r="F337"/>
     </row>
     <row r="338">
       <c r="A338" t="s">
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="C338"/>
       <c r="D338"/>
@@ -8332,16 +8245,16 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B339" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="C339" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="D339" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E339" t="s">
         <v>10</v>
@@ -8352,70 +8265,64 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>545</v>
-      </c>
-      <c r="C340" t="s">
-        <v>546</v>
-      </c>
-      <c r="D340" t="s">
-        <v>16</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
       <c r="E340" t="s">
         <v>10</v>
       </c>
-      <c r="F340" t="s">
-        <v>10</v>
-      </c>
+      <c r="F340"/>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B341" t="s">
-        <v>547</v>
-      </c>
-      <c r="C341" t="s">
-        <v>548</v>
-      </c>
-      <c r="D341" t="s">
-        <v>22</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
       <c r="E341" t="s">
         <v>10</v>
       </c>
-      <c r="F341" t="s">
-        <v>10</v>
-      </c>
+      <c r="F341"/>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>549</v>
-      </c>
-      <c r="C342"/>
-      <c r="D342"/>
+        <v>508</v>
+      </c>
+      <c r="C342" t="s">
+        <v>509</v>
+      </c>
+      <c r="D342" t="s">
+        <v>20</v>
+      </c>
       <c r="E342" t="s">
         <v>10</v>
       </c>
-      <c r="F342"/>
+      <c r="F342" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B343" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="C343" t="s">
-        <v>424</v>
+        <v>511</v>
       </c>
       <c r="D343" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E343" t="s">
         <v>10</v>
@@ -8426,16 +8333,16 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B344" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="C344" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="D344" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E344" t="s">
         <v>10</v>
@@ -8446,16 +8353,16 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B345" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C345" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="D345" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E345" t="s">
         <v>10</v>
@@ -8466,21 +8373,1287 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B346" t="s">
+        <v>516</v>
+      </c>
+      <c r="C346" t="s">
+        <v>517</v>
+      </c>
+      <c r="D346" t="s">
+        <v>44</v>
+      </c>
+      <c r="E346" t="s">
+        <v>10</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>14</v>
+      </c>
+      <c r="B347" t="s">
+        <v>518</v>
+      </c>
+      <c r="C347" t="s">
+        <v>519</v>
+      </c>
+      <c r="D347" t="s">
+        <v>26</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>14</v>
+      </c>
+      <c r="B348" t="s">
+        <v>520</v>
+      </c>
+      <c r="C348" t="s">
+        <v>521</v>
+      </c>
+      <c r="D348" t="s">
+        <v>23</v>
+      </c>
+      <c r="E348" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>14</v>
+      </c>
+      <c r="B349" t="s">
+        <v>522</v>
+      </c>
+      <c r="C349" t="s">
+        <v>523</v>
+      </c>
+      <c r="D349" t="s">
+        <v>17</v>
+      </c>
+      <c r="E349" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>14</v>
+      </c>
+      <c r="B350" t="s">
+        <v>524</v>
+      </c>
+      <c r="C350" t="s">
+        <v>525</v>
+      </c>
+      <c r="D350" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>14</v>
+      </c>
+      <c r="B351" t="s">
+        <v>526</v>
+      </c>
+      <c r="C351" t="s">
+        <v>527</v>
+      </c>
+      <c r="D351" t="s">
+        <v>26</v>
+      </c>
+      <c r="E351" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352" t="s">
+        <v>528</v>
+      </c>
+      <c r="C352" t="s">
+        <v>118</v>
+      </c>
+      <c r="D352" t="s">
+        <v>23</v>
+      </c>
+      <c r="E352" t="s">
+        <v>10</v>
+      </c>
+      <c r="F352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353" t="s">
+        <v>529</v>
+      </c>
+      <c r="C353" t="s">
+        <v>530</v>
+      </c>
+      <c r="D353" t="s">
+        <v>20</v>
+      </c>
+      <c r="E353" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" t="s">
+        <v>531</v>
+      </c>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354" t="s">
+        <v>10</v>
+      </c>
+      <c r="F354"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>532</v>
+      </c>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" t="s">
+        <v>533</v>
+      </c>
+      <c r="C356" t="s">
+        <v>534</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>10</v>
+      </c>
+      <c r="F356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357" t="s">
+        <v>533</v>
+      </c>
+      <c r="C357" t="s">
+        <v>535</v>
+      </c>
+      <c r="D357" t="s">
+        <v>23</v>
+      </c>
+      <c r="E357" t="s">
+        <v>10</v>
+      </c>
+      <c r="F357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" t="s">
+        <v>536</v>
+      </c>
+      <c r="C358" t="s">
+        <v>537</v>
+      </c>
+      <c r="D358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
+        <v>10</v>
+      </c>
+      <c r="F358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>14</v>
+      </c>
+      <c r="B359" t="s">
+        <v>536</v>
+      </c>
+      <c r="C359" t="s">
+        <v>537</v>
+      </c>
+      <c r="D359" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359" t="s">
+        <v>10</v>
+      </c>
+      <c r="F359" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s">
+        <v>538</v>
+      </c>
+      <c r="C360" t="s">
+        <v>539</v>
+      </c>
+      <c r="D360" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>10</v>
+      </c>
+      <c r="F360" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>538</v>
+      </c>
+      <c r="C361" t="s">
+        <v>539</v>
+      </c>
+      <c r="D361" t="s">
+        <v>23</v>
+      </c>
+      <c r="E361" t="s">
+        <v>10</v>
+      </c>
+      <c r="F361" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>14</v>
+      </c>
+      <c r="B362" t="s">
+        <v>540</v>
+      </c>
+      <c r="C362" t="s">
+        <v>541</v>
+      </c>
+      <c r="D362" t="s">
+        <v>26</v>
+      </c>
+      <c r="E362" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>14</v>
+      </c>
+      <c r="B363" t="s">
+        <v>542</v>
+      </c>
+      <c r="C363" t="s">
+        <v>543</v>
+      </c>
+      <c r="D363" t="s">
+        <v>17</v>
+      </c>
+      <c r="E363" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>14</v>
+      </c>
+      <c r="B364" t="s">
+        <v>544</v>
+      </c>
+      <c r="C364" t="s">
+        <v>545</v>
+      </c>
+      <c r="D364" t="s">
+        <v>44</v>
+      </c>
+      <c r="E364" t="s">
+        <v>10</v>
+      </c>
+      <c r="F364" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>14</v>
+      </c>
+      <c r="B365" t="s">
+        <v>546</v>
+      </c>
+      <c r="C365" t="s">
+        <v>547</v>
+      </c>
+      <c r="D365" t="s">
+        <v>26</v>
+      </c>
+      <c r="E365" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" t="s">
+        <v>548</v>
+      </c>
+      <c r="C366" t="s">
+        <v>549</v>
+      </c>
+      <c r="D366" t="s">
+        <v>20</v>
+      </c>
+      <c r="E366" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>14</v>
+      </c>
+      <c r="B367" t="s">
+        <v>550</v>
+      </c>
+      <c r="C367" t="s">
+        <v>551</v>
+      </c>
+      <c r="D367" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" t="s">
+        <v>10</v>
+      </c>
+      <c r="F367" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>14</v>
+      </c>
+      <c r="B368" t="s">
+        <v>552</v>
+      </c>
+      <c r="C368" t="s">
+        <v>553</v>
+      </c>
+      <c r="D368" t="s">
+        <v>44</v>
+      </c>
+      <c r="E368" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>554</v>
+      </c>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369" t="s">
+        <v>10</v>
+      </c>
+      <c r="F369"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s">
         <v>555</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370" t="s">
+        <v>10</v>
+      </c>
+      <c r="F370"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" t="s">
         <v>556</v>
       </c>
-      <c r="D346" t="s">
-        <v>25</v>
-      </c>
-      <c r="E346" t="s">
-        <v>10</v>
-      </c>
-      <c r="F346" t="s">
+      <c r="C371" t="s">
+        <v>557</v>
+      </c>
+      <c r="D371" t="s">
+        <v>17</v>
+      </c>
+      <c r="E371" t="s">
+        <v>10</v>
+      </c>
+      <c r="F371" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372" t="s">
+        <v>558</v>
+      </c>
+      <c r="C372" t="s">
+        <v>559</v>
+      </c>
+      <c r="D372" t="s">
+        <v>17</v>
+      </c>
+      <c r="E372" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>14</v>
+      </c>
+      <c r="B373" t="s">
+        <v>560</v>
+      </c>
+      <c r="C373" t="s">
+        <v>561</v>
+      </c>
+      <c r="D373" t="s">
+        <v>17</v>
+      </c>
+      <c r="E373" t="s">
+        <v>10</v>
+      </c>
+      <c r="F373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>14</v>
+      </c>
+      <c r="B374" t="s">
+        <v>562</v>
+      </c>
+      <c r="C374" t="s">
+        <v>563</v>
+      </c>
+      <c r="D374" t="s">
+        <v>17</v>
+      </c>
+      <c r="E374" t="s">
+        <v>10</v>
+      </c>
+      <c r="F374" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>14</v>
+      </c>
+      <c r="B375" t="s">
+        <v>564</v>
+      </c>
+      <c r="C375" t="s">
+        <v>565</v>
+      </c>
+      <c r="D375" t="s">
+        <v>26</v>
+      </c>
+      <c r="E375" t="s">
+        <v>10</v>
+      </c>
+      <c r="F375" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>65</v>
+      </c>
+      <c r="B376" t="s">
+        <v>566</v>
+      </c>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376" t="s">
+        <v>10</v>
+      </c>
+      <c r="F376"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>14</v>
+      </c>
+      <c r="B377" t="s">
+        <v>567</v>
+      </c>
+      <c r="C377" t="s">
+        <v>568</v>
+      </c>
+      <c r="D377" t="s">
+        <v>17</v>
+      </c>
+      <c r="E377" t="s">
+        <v>10</v>
+      </c>
+      <c r="F377" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" t="s">
+        <v>569</v>
+      </c>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378" t="s">
+        <v>10</v>
+      </c>
+      <c r="F378"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>570</v>
+      </c>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" t="s">
+        <v>571</v>
+      </c>
+      <c r="C380" t="s">
+        <v>572</v>
+      </c>
+      <c r="D380" t="s">
+        <v>20</v>
+      </c>
+      <c r="E380" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>14</v>
+      </c>
+      <c r="B381" t="s">
+        <v>573</v>
+      </c>
+      <c r="C381" t="s">
+        <v>574</v>
+      </c>
+      <c r="D381" t="s">
+        <v>26</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s">
+        <v>575</v>
+      </c>
+      <c r="C382" t="s">
+        <v>576</v>
+      </c>
+      <c r="D382" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>14</v>
+      </c>
+      <c r="B383" t="s">
+        <v>575</v>
+      </c>
+      <c r="C383" t="s">
+        <v>576</v>
+      </c>
+      <c r="D383" t="s">
+        <v>23</v>
+      </c>
+      <c r="E383" t="s">
+        <v>10</v>
+      </c>
+      <c r="F383" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" t="s">
+        <v>577</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384" t="s">
+        <v>10</v>
+      </c>
+      <c r="F384"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s">
+        <v>578</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385" t="s">
+        <v>10</v>
+      </c>
+      <c r="F385"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>579</v>
+      </c>
+      <c r="C386"/>
+      <c r="D386"/>
+      <c r="E386" t="s">
+        <v>10</v>
+      </c>
+      <c r="F386"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>580</v>
+      </c>
+      <c r="C387"/>
+      <c r="D387"/>
+      <c r="E387" t="s">
+        <v>10</v>
+      </c>
+      <c r="F387"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>14</v>
+      </c>
+      <c r="B388" t="s">
+        <v>581</v>
+      </c>
+      <c r="C388" t="s">
+        <v>582</v>
+      </c>
+      <c r="D388" t="s">
+        <v>17</v>
+      </c>
+      <c r="E388" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+      <c r="B389" t="s">
+        <v>583</v>
+      </c>
+      <c r="C389" t="s">
+        <v>584</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" t="s">
+        <v>10</v>
+      </c>
+      <c r="F389" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" t="s">
+        <v>585</v>
+      </c>
+      <c r="C390" t="s">
+        <v>586</v>
+      </c>
+      <c r="D390" t="s">
+        <v>23</v>
+      </c>
+      <c r="E390" t="s">
+        <v>10</v>
+      </c>
+      <c r="F390" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" t="s">
+        <v>587</v>
+      </c>
+      <c r="C391" t="s">
+        <v>588</v>
+      </c>
+      <c r="D391" t="s">
+        <v>37</v>
+      </c>
+      <c r="E391" t="s">
+        <v>10</v>
+      </c>
+      <c r="F391" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>589</v>
+      </c>
+      <c r="C392"/>
+      <c r="D392"/>
+      <c r="E392" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" t="s">
+        <v>590</v>
+      </c>
+      <c r="C393"/>
+      <c r="D393"/>
+      <c r="E393" t="s">
+        <v>10</v>
+      </c>
+      <c r="F393"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" t="s">
+        <v>591</v>
+      </c>
+      <c r="C394" t="s">
+        <v>592</v>
+      </c>
+      <c r="D394" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>14</v>
+      </c>
+      <c r="B395" t="s">
+        <v>591</v>
+      </c>
+      <c r="C395" t="s">
+        <v>591</v>
+      </c>
+      <c r="D395" t="s">
+        <v>20</v>
+      </c>
+      <c r="E395" t="s">
+        <v>10</v>
+      </c>
+      <c r="F395" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>11</v>
+      </c>
+      <c r="B396" t="s">
+        <v>593</v>
+      </c>
+      <c r="C396"/>
+      <c r="D396"/>
+      <c r="E396" t="s">
+        <v>10</v>
+      </c>
+      <c r="F396"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" t="s">
+        <v>594</v>
+      </c>
+      <c r="C397"/>
+      <c r="D397"/>
+      <c r="E397" t="s">
+        <v>10</v>
+      </c>
+      <c r="F397"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>14</v>
+      </c>
+      <c r="B398" t="s">
+        <v>595</v>
+      </c>
+      <c r="C398" t="s">
+        <v>596</v>
+      </c>
+      <c r="D398" t="s">
+        <v>17</v>
+      </c>
+      <c r="E398" t="s">
+        <v>10</v>
+      </c>
+      <c r="F398" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>14</v>
+      </c>
+      <c r="B399" t="s">
+        <v>597</v>
+      </c>
+      <c r="C399" t="s">
+        <v>598</v>
+      </c>
+      <c r="D399" t="s">
+        <v>44</v>
+      </c>
+      <c r="E399" t="s">
+        <v>10</v>
+      </c>
+      <c r="F399" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400" t="s">
+        <v>599</v>
+      </c>
+      <c r="C400" t="s">
+        <v>600</v>
+      </c>
+      <c r="D400" t="s">
+        <v>37</v>
+      </c>
+      <c r="E400" t="s">
+        <v>10</v>
+      </c>
+      <c r="F400" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>14</v>
+      </c>
+      <c r="B401" t="s">
+        <v>601</v>
+      </c>
+      <c r="C401" t="s">
+        <v>602</v>
+      </c>
+      <c r="D401" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" t="s">
+        <v>10</v>
+      </c>
+      <c r="F401" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>14</v>
+      </c>
+      <c r="B402" t="s">
+        <v>603</v>
+      </c>
+      <c r="C402" t="s">
+        <v>604</v>
+      </c>
+      <c r="D402" t="s">
+        <v>17</v>
+      </c>
+      <c r="E402" t="s">
+        <v>10</v>
+      </c>
+      <c r="F402" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" t="s">
+        <v>605</v>
+      </c>
+      <c r="C403" t="s">
+        <v>606</v>
+      </c>
+      <c r="D403" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403" t="s">
+        <v>10</v>
+      </c>
+      <c r="F403" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>14</v>
+      </c>
+      <c r="B404" t="s">
+        <v>607</v>
+      </c>
+      <c r="C404" t="s">
+        <v>608</v>
+      </c>
+      <c r="D404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" t="s">
+        <v>10</v>
+      </c>
+      <c r="F404" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405" t="s">
+        <v>609</v>
+      </c>
+      <c r="C405"/>
+      <c r="D405"/>
+      <c r="E405" t="s">
+        <v>10</v>
+      </c>
+      <c r="F405"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s">
+        <v>610</v>
+      </c>
+      <c r="C406"/>
+      <c r="D406"/>
+      <c r="E406" t="s">
+        <v>10</v>
+      </c>
+      <c r="F406"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>14</v>
+      </c>
+      <c r="B407" t="s">
+        <v>611</v>
+      </c>
+      <c r="C407" t="s">
+        <v>612</v>
+      </c>
+      <c r="D407" t="s">
+        <v>23</v>
+      </c>
+      <c r="E407" t="s">
+        <v>10</v>
+      </c>
+      <c r="F407" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>14</v>
+      </c>
+      <c r="B408" t="s">
+        <v>613</v>
+      </c>
+      <c r="C408" t="s">
+        <v>614</v>
+      </c>
+      <c r="D408" t="s">
+        <v>17</v>
+      </c>
+      <c r="E408" t="s">
+        <v>10</v>
+      </c>
+      <c r="F408" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s">
+        <v>615</v>
+      </c>
+      <c r="C409" t="s">
+        <v>616</v>
+      </c>
+      <c r="D409" t="s">
+        <v>23</v>
+      </c>
+      <c r="E409" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" t="s">
+        <v>617</v>
+      </c>
+      <c r="C410"/>
+      <c r="D410"/>
+      <c r="E410" t="s">
+        <v>10</v>
+      </c>
+      <c r="F410"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B411" t="s">
+        <v>618</v>
+      </c>
+      <c r="C411"/>
+      <c r="D411"/>
+      <c r="E411" t="s">
+        <v>10</v>
+      </c>
+      <c r="F411"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>619</v>
+      </c>
+      <c r="C412" t="s">
+        <v>479</v>
+      </c>
+      <c r="D412" t="s">
+        <v>9</v>
+      </c>
+      <c r="E412" t="s">
+        <v>10</v>
+      </c>
+      <c r="F412" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>14</v>
+      </c>
+      <c r="B413" t="s">
+        <v>620</v>
+      </c>
+      <c r="C413" t="s">
+        <v>621</v>
+      </c>
+      <c r="D413" t="s">
+        <v>26</v>
+      </c>
+      <c r="E413" t="s">
+        <v>10</v>
+      </c>
+      <c r="F413" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" t="s">
+        <v>622</v>
+      </c>
+      <c r="C414" t="s">
+        <v>623</v>
+      </c>
+      <c r="D414" t="s">
+        <v>26</v>
+      </c>
+      <c r="E414" t="s">
+        <v>10</v>
+      </c>
+      <c r="F414" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>14</v>
+      </c>
+      <c r="B415" t="s">
+        <v>624</v>
+      </c>
+      <c r="C415" t="s">
+        <v>625</v>
+      </c>
+      <c r="D415" t="s">
+        <v>26</v>
+      </c>
+      <c r="E415" t="s">
+        <v>10</v>
+      </c>
+      <c r="F415" t="s">
         <v>10</v>
       </c>
     </row>

--- a/userEdition/standardGeography_DRAFT.xlsx
+++ b/userEdition/standardGeography_DRAFT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -254,6 +254,9 @@
     <t xml:space="preserve">EG</t>
   </si>
   <si>
+    <t xml:space="preserve">EMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">es</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
     <t xml:space="preserve">Four Big European</t>
   </si>
   <si>
+    <t xml:space="preserve">G7M</t>
+  </si>
+  <si>
     <t xml:space="preserve">gb</t>
   </si>
   <si>
@@ -578,10 +584,16 @@
     <t xml:space="preserve">OECD - Europe</t>
   </si>
   <si>
+    <t xml:space="preserve">OEU</t>
+  </si>
+  <si>
     <t xml:space="preserve">ONM</t>
   </si>
   <si>
     <t xml:space="preserve">OECD + Major Six NME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTO</t>
   </si>
   <si>
     <t xml:space="preserve">OXE</t>
@@ -1981,7 +1993,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
@@ -2009,33 +2021,27 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
+      <c r="C59"/>
+      <c r="D59"/>
       <c r="E59" t="s">
         <v>10</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -2049,17 +2055,23 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
         <v>86</v>
       </c>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
-      <c r="F61"/>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -2077,37 +2089,37 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
+      <c r="C63"/>
+      <c r="D63"/>
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="C64"/>
-      <c r="D64"/>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64"/>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -2125,33 +2137,27 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
         <v>92</v>
       </c>
-      <c r="C66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
+      <c r="C66"/>
+      <c r="D66"/>
       <c r="E66" t="s">
         <v>10</v>
       </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
+      <c r="F66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
         <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2168,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
         <v>96</v>
-      </c>
-      <c r="C68" t="s">
-        <v>97</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2185,21 +2191,27 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
         <v>98</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
@@ -2213,30 +2225,24 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
+      <c r="C71"/>
+      <c r="D71"/>
       <c r="E71" t="s">
         <v>10</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
+      <c r="F71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -2247,17 +2253,23 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
         <v>103</v>
       </c>
-      <c r="C73"/>
-      <c r="D73"/>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
-      <c r="F73"/>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -2289,30 +2301,24 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>106</v>
       </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
+      <c r="C76"/>
+      <c r="D76"/>
       <c r="E76" t="s">
         <v>10</v>
       </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
+      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -2323,17 +2329,23 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="C78"/>
-      <c r="D78"/>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
-      <c r="F78"/>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -2421,30 +2433,24 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>116</v>
       </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="E85" t="s">
         <v>10</v>
       </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
+      <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2455,44 +2461,44 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" t="s">
         <v>119</v>
       </c>
-      <c r="C87"/>
-      <c r="D87"/>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
-      <c r="F87"/>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
+      <c r="C88"/>
+      <c r="D88"/>
       <c r="E88" t="s">
         <v>10</v>
       </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
+      <c r="F88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -2503,17 +2509,23 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
         <v>123</v>
       </c>
-      <c r="C90"/>
-      <c r="D90"/>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
-      <c r="F90"/>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2573,166 +2585,160 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
         <v>128</v>
       </c>
-      <c r="C95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
+      <c r="C95"/>
+      <c r="D95"/>
       <c r="E95" t="s">
         <v>10</v>
       </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
+      <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
       <c r="E96" t="s">
         <v>10</v>
       </c>
-      <c r="F96" t="s">
-        <v>10</v>
-      </c>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97"/>
-      <c r="D97"/>
+        <v>130</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
-      <c r="F97"/>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
         <v>133</v>
       </c>
-      <c r="C98"/>
-      <c r="D98"/>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
-      <c r="F98"/>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
         <v>134</v>
       </c>
-      <c r="C99" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
-      </c>
+      <c r="C99"/>
+      <c r="D99"/>
       <c r="E99" t="s">
         <v>10</v>
       </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
+      <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
       <c r="E100" t="s">
         <v>10</v>
       </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
+      <c r="F100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101"/>
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
-      <c r="F101"/>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="s">
         <v>139</v>
       </c>
-      <c r="C102"/>
-      <c r="D102"/>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
-      <c r="F102"/>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
       </c>
-      <c r="C103" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
+      <c r="C103"/>
+      <c r="D103"/>
       <c r="E103" t="s">
         <v>10</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
+      <c r="F103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C104"/>
       <c r="D104"/>
@@ -2743,85 +2749,91 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="s">
         <v>143</v>
       </c>
-      <c r="C105"/>
-      <c r="D105"/>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
-      <c r="F105"/>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="C106" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
-      </c>
+      <c r="C106"/>
+      <c r="D106"/>
       <c r="E106" t="s">
         <v>10</v>
       </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
+      <c r="F106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
-      </c>
-      <c r="C107" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
       <c r="E107" t="s">
         <v>10</v>
       </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
+      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108"/>
-      <c r="D108"/>
+        <v>146</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
-      <c r="F108"/>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
         <v>149</v>
       </c>
-      <c r="C109"/>
-      <c r="D109"/>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
-      <c r="F109"/>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -2853,30 +2865,24 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>152</v>
       </c>
-      <c r="C112" t="s">
-        <v>153</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
+      <c r="C112"/>
+      <c r="D112"/>
       <c r="E112" t="s">
         <v>10</v>
       </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
+      <c r="F112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -2887,44 +2893,44 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" t="s">
         <v>155</v>
       </c>
-      <c r="C114"/>
-      <c r="D114"/>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
-      <c r="F114"/>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
         <v>156</v>
       </c>
-      <c r="C115" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
+      <c r="C115"/>
+      <c r="D115"/>
       <c r="E115" t="s">
         <v>10</v>
       </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
+      <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
@@ -2935,44 +2941,44 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" t="s">
         <v>159</v>
       </c>
-      <c r="C117"/>
-      <c r="D117"/>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
-      <c r="F117"/>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
         <v>160</v>
       </c>
-      <c r="C118" t="s">
-        <v>161</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
+      <c r="C118"/>
+      <c r="D118"/>
       <c r="E118" t="s">
         <v>10</v>
       </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
+      <c r="F118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -2983,44 +2989,44 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
         <v>163</v>
       </c>
-      <c r="C120"/>
-      <c r="D120"/>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
-      <c r="F120"/>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
         <v>164</v>
       </c>
-      <c r="C121" t="s">
-        <v>165</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
+      <c r="C121"/>
+      <c r="D121"/>
       <c r="E121" t="s">
         <v>10</v>
       </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
+      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -3031,17 +3037,23 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
         <v>167</v>
       </c>
-      <c r="C123"/>
-      <c r="D123"/>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
-      <c r="F123"/>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3073,23 +3085,17 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
         <v>170</v>
       </c>
-      <c r="C126" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
+      <c r="C126"/>
+      <c r="D126"/>
       <c r="E126" t="s">
         <v>10</v>
       </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
+      <c r="F126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -3107,17 +3113,23 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
         <v>172</v>
       </c>
-      <c r="C128"/>
-      <c r="D128"/>
+      <c r="C128" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
-      <c r="F128"/>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3149,30 +3161,24 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
         <v>175</v>
       </c>
-      <c r="C131" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
+      <c r="C131"/>
+      <c r="D131"/>
       <c r="E131" t="s">
         <v>10</v>
       </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
+      <c r="F131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -3183,44 +3189,44 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" t="s">
         <v>178</v>
       </c>
-      <c r="C133"/>
-      <c r="D133"/>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
-      <c r="F133"/>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
         <v>179</v>
       </c>
-      <c r="C134" t="s">
-        <v>180</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
+      <c r="C134"/>
+      <c r="D134"/>
       <c r="E134" t="s">
         <v>10</v>
       </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
+      <c r="F134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -3231,67 +3237,61 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" t="s">
         <v>182</v>
       </c>
-      <c r="C136"/>
-      <c r="D136"/>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
       <c r="E136" t="s">
         <v>10</v>
       </c>
-      <c r="F136"/>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
         <v>183</v>
       </c>
-      <c r="C137" t="s">
-        <v>184</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
+      <c r="C137"/>
+      <c r="D137"/>
       <c r="E137" t="s">
         <v>10</v>
       </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
+      <c r="F137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>185</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
       <c r="E138" t="s">
         <v>10</v>
       </c>
-      <c r="F138" t="s">
-        <v>10</v>
-      </c>
+      <c r="F138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
         <v>6</v>
       </c>
       <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
         <v>186</v>
-      </c>
-      <c r="C139" t="s">
-        <v>187</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -3308,10 +3308,10 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3359,24 +3359,30 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
-      </c>
-      <c r="C143"/>
-      <c r="D143"/>
+        <v>191</v>
+      </c>
+      <c r="C143" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
       <c r="E143" t="s">
         <v>10</v>
       </c>
-      <c r="F143"/>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3387,17 +3393,23 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" t="s">
         <v>195</v>
       </c>
-      <c r="C145"/>
-      <c r="D145"/>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
-      <c r="F145"/>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -3457,50 +3469,38 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
         <v>200</v>
       </c>
-      <c r="C150" t="s">
-        <v>201</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
-      </c>
+      <c r="C150"/>
+      <c r="D150"/>
       <c r="E150" t="s">
         <v>10</v>
       </c>
-      <c r="F150" t="s">
-        <v>10</v>
-      </c>
+      <c r="F150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" t="s">
-        <v>203</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
       <c r="E151" t="s">
         <v>10</v>
       </c>
-      <c r="F151" t="s">
-        <v>10</v>
-      </c>
+      <c r="F151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -3514,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -3525,31 +3525,43 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
-      </c>
-      <c r="C154"/>
-      <c r="D154"/>
+        <v>204</v>
+      </c>
+      <c r="C154" t="s">
+        <v>205</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
       <c r="E154" t="s">
         <v>10</v>
       </c>
-      <c r="F154"/>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" t="s">
         <v>207</v>
       </c>
-      <c r="C155"/>
-      <c r="D155"/>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
-      <c r="F155"/>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -3609,30 +3621,24 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
         <v>212</v>
       </c>
-      <c r="C160" t="s">
-        <v>213</v>
-      </c>
-      <c r="D160" t="s">
-        <v>9</v>
-      </c>
+      <c r="C160"/>
+      <c r="D160"/>
       <c r="E160" t="s">
         <v>10</v>
       </c>
-      <c r="F160" t="s">
-        <v>10</v>
-      </c>
+      <c r="F160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -3646,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -3660,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -3671,17 +3677,23 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" t="s">
         <v>217</v>
       </c>
-      <c r="C164"/>
-      <c r="D164"/>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
       <c r="E164" t="s">
         <v>10</v>
       </c>
-      <c r="F164"/>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -3769,70 +3781,52 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
         <v>224</v>
       </c>
-      <c r="C171" t="s">
-        <v>225</v>
-      </c>
-      <c r="D171" t="s">
-        <v>9</v>
-      </c>
+      <c r="C171"/>
+      <c r="D171"/>
       <c r="E171" t="s">
         <v>10</v>
       </c>
-      <c r="F171" t="s">
-        <v>10</v>
-      </c>
+      <c r="F171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
-      </c>
-      <c r="C172" t="s">
-        <v>227</v>
-      </c>
-      <c r="D172" t="s">
-        <v>9</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
       <c r="E172" t="s">
         <v>10</v>
       </c>
-      <c r="F172" t="s">
-        <v>10</v>
-      </c>
+      <c r="F172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>228</v>
-      </c>
-      <c r="C173" t="s">
-        <v>229</v>
-      </c>
-      <c r="D173" t="s">
-        <v>9</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C173"/>
+      <c r="D173"/>
       <c r="E173" t="s">
         <v>10</v>
       </c>
-      <c r="F173" t="s">
-        <v>10</v>
-      </c>
+      <c r="F173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
@@ -3843,72 +3837,84 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>231</v>
-      </c>
-      <c r="C175"/>
-      <c r="D175"/>
+        <v>228</v>
+      </c>
+      <c r="C175" t="s">
+        <v>229</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
       <c r="E175" t="s">
         <v>10</v>
       </c>
-      <c r="F175"/>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>232</v>
-      </c>
-      <c r="C176"/>
-      <c r="D176"/>
+        <v>230</v>
+      </c>
+      <c r="C176" t="s">
+        <v>231</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
-      <c r="F176"/>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177" t="s">
         <v>233</v>
       </c>
-      <c r="C177"/>
-      <c r="D177"/>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
-      <c r="F177"/>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
         <v>234</v>
       </c>
-      <c r="C178" t="s">
-        <v>235</v>
-      </c>
-      <c r="D178" t="s">
-        <v>9</v>
-      </c>
+      <c r="C178"/>
+      <c r="D178"/>
       <c r="E178" t="s">
         <v>10</v>
       </c>
-      <c r="F178" t="s">
-        <v>10</v>
-      </c>
+      <c r="F178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C179"/>
       <c r="D179"/>
@@ -3922,7 +3928,7 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
@@ -3936,7 +3942,7 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C181"/>
       <c r="D181"/>
@@ -3947,17 +3953,23 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
+        <v>238</v>
+      </c>
+      <c r="C182" t="s">
         <v>239</v>
       </c>
-      <c r="C182"/>
-      <c r="D182"/>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
-      <c r="F182"/>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -3989,30 +4001,24 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
         <v>242</v>
       </c>
-      <c r="C185" t="s">
-        <v>243</v>
-      </c>
-      <c r="D185" t="s">
-        <v>9</v>
-      </c>
+      <c r="C185"/>
+      <c r="D185"/>
       <c r="E185" t="s">
         <v>10</v>
       </c>
-      <c r="F185" t="s">
-        <v>10</v>
-      </c>
+      <c r="F185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C186"/>
       <c r="D186"/>
@@ -4026,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C187"/>
       <c r="D187"/>
@@ -4040,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C188"/>
       <c r="D188"/>
@@ -4051,17 +4057,23 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
+        <v>246</v>
+      </c>
+      <c r="C189" t="s">
         <v>247</v>
       </c>
-      <c r="C189"/>
-      <c r="D189"/>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
-      <c r="F189"/>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -4093,21 +4105,77 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>250</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
         <v>251</v>
       </c>
-      <c r="D192" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>252</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>253</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>254</v>
+      </c>
+      <c r="C196" t="s">
+        <v>255</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
         <v>10</v>
       </c>
     </row>
